--- a/static/reports/DynamicReport.xlsx
+++ b/static/reports/DynamicReport.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Filters" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Filters!$B$2:$AG$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Filters!$B$2:$AG$113</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="216">
   <si>
     <t>ContractReference</t>
   </si>
@@ -220,13 +220,145 @@
     <t>Clip 44 Single Hinged Door</t>
   </si>
   <si>
+    <t>C201807-01test</t>
+  </si>
+  <si>
+    <t>test 123</t>
+  </si>
+  <si>
+    <t>2018-10-13</t>
+  </si>
+  <si>
+    <t>AB D1-1</t>
+  </si>
+  <si>
+    <t>Door</t>
+  </si>
+  <si>
+    <t>AB D1-2</t>
+  </si>
+  <si>
+    <t>PN111297</t>
+  </si>
+  <si>
+    <t>K.S.W.(LAMDEN)</t>
+  </si>
+  <si>
+    <t>2018-11-22</t>
+  </si>
+  <si>
+    <t>Charlie Msiza</t>
+  </si>
+  <si>
+    <t>CASEMENT 30.5 WINDOW</t>
+  </si>
+  <si>
+    <t>Patric Kola</t>
+  </si>
+  <si>
+    <t>W02A</t>
+  </si>
+  <si>
+    <t>ShaSha Raulinga</t>
+  </si>
+  <si>
+    <t>W02B</t>
+  </si>
+  <si>
+    <t>W03A</t>
+  </si>
+  <si>
+    <t>W03B</t>
+  </si>
+  <si>
+    <t>W03C</t>
+  </si>
+  <si>
+    <t>W03D</t>
+  </si>
+  <si>
+    <t>W03E</t>
+  </si>
+  <si>
+    <t>Steph Ngubeni</t>
+  </si>
+  <si>
+    <t>W04A</t>
+  </si>
+  <si>
+    <t>Obed M Tlale</t>
+  </si>
+  <si>
+    <t>W04B</t>
+  </si>
+  <si>
+    <t>W05A</t>
+  </si>
+  <si>
+    <t>W05B</t>
+  </si>
+  <si>
+    <t>W05 LAM</t>
+  </si>
+  <si>
+    <t>W05 TSG OBS</t>
+  </si>
+  <si>
+    <t>W07A</t>
+  </si>
+  <si>
+    <t>W07B</t>
+  </si>
+  <si>
+    <t>W07C</t>
+  </si>
+  <si>
+    <t>W07D</t>
+  </si>
+  <si>
+    <t>W07 TSG OBS A</t>
+  </si>
+  <si>
+    <t>W07 TSG OBS B</t>
+  </si>
+  <si>
+    <t>W07 TSG OBS C</t>
+  </si>
+  <si>
+    <t>W07 TSG OBS D</t>
+  </si>
+  <si>
+    <t>W07 TSG OBS E</t>
+  </si>
+  <si>
+    <t>W07 TSG OBS F</t>
+  </si>
+  <si>
+    <t>W09A</t>
+  </si>
+  <si>
+    <t>W09B</t>
+  </si>
+  <si>
+    <t>Q18091932</t>
+  </si>
+  <si>
+    <t>Nick Artisans</t>
+  </si>
+  <si>
+    <t>2018-12-05</t>
+  </si>
+  <si>
+    <t>WPalaceM</t>
+  </si>
+  <si>
     <t>Q18082301B</t>
   </si>
   <si>
     <t>DuPlessis - Extras</t>
   </si>
   <si>
-    <t>2018-09-02</t>
+    <t>2018-12-06</t>
   </si>
   <si>
     <t>Lucky Nekhudzhiga</t>
@@ -286,34 +418,145 @@
     <t>Crealco Swift 30.5 window</t>
   </si>
   <si>
+    <t>Q18100751</t>
+  </si>
+  <si>
+    <t>Alves</t>
+  </si>
+  <si>
+    <t>2018-12-07</t>
+  </si>
+  <si>
+    <t>Reymond Moshoeu</t>
+  </si>
+  <si>
+    <t>W30</t>
+  </si>
+  <si>
+    <t>Side hung</t>
+  </si>
+  <si>
+    <t>W27</t>
+  </si>
+  <si>
+    <t>Don</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office </t>
+  </si>
+  <si>
+    <t>2018-12-11</t>
+  </si>
+  <si>
+    <t>Prima PD</t>
+  </si>
+  <si>
+    <t>C201807-02</t>
+  </si>
+  <si>
+    <t>Fourier Approach</t>
+  </si>
+  <si>
+    <t>2018-12-12</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>Stephen Moshoeu</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>Gibson Maphosa</t>
+  </si>
+  <si>
+    <t>AB D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francois Burger </t>
+  </si>
+  <si>
+    <t>AB D1</t>
+  </si>
+  <si>
+    <t>W98</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>Phophi Raulinga</t>
+  </si>
+  <si>
+    <t>W56</t>
+  </si>
+  <si>
+    <t>Tessah Ncube</t>
+  </si>
+  <si>
+    <t>D33</t>
+  </si>
+  <si>
+    <t>DD01</t>
+  </si>
+  <si>
+    <t>Clip44</t>
+  </si>
+  <si>
+    <t>Q18060734</t>
+  </si>
+  <si>
+    <t>Peace Msinde</t>
+  </si>
+  <si>
+    <t>WClip44</t>
+  </si>
+  <si>
+    <t>Daniel Kanyane (Daniels)</t>
+  </si>
+  <si>
+    <t>SD06</t>
+  </si>
+  <si>
+    <t>D02</t>
+  </si>
+  <si>
+    <t>WVista</t>
+  </si>
+  <si>
+    <t>Cynthia Ngcobo</t>
+  </si>
+  <si>
+    <t>W0119</t>
+  </si>
+  <si>
+    <t>D1441</t>
+  </si>
+  <si>
     <t>C201807-test 01</t>
   </si>
   <si>
     <t>Test q1</t>
   </si>
   <si>
-    <t>2018-10-13</t>
-  </si>
-  <si>
-    <t>Patric Kola</t>
-  </si>
-  <si>
-    <t>AB D1</t>
-  </si>
-  <si>
-    <t>Door</t>
-  </si>
-  <si>
-    <t>C201807-01test</t>
-  </si>
-  <si>
-    <t>test 123</t>
-  </si>
-  <si>
-    <t>AB D1-1</t>
-  </si>
-  <si>
-    <t>AB D1-2</t>
+    <t>2018-12-20</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>Window 2100</t>
+  </si>
+  <si>
+    <t>A19</t>
+  </si>
+  <si>
+    <t>Window 2101</t>
   </si>
   <si>
     <t>A2-1</t>
@@ -364,9 +607,6 @@
     <t>Win 10</t>
   </si>
   <si>
-    <t>Charlie Msiza</t>
-  </si>
-  <si>
     <t>A100</t>
   </si>
   <si>
@@ -376,213 +616,6 @@
     <t>W01-1</t>
   </si>
   <si>
-    <t>A18</t>
-  </si>
-  <si>
-    <t>Window 2100</t>
-  </si>
-  <si>
-    <t>A19</t>
-  </si>
-  <si>
-    <t>Window 2101</t>
-  </si>
-  <si>
-    <t>PN111297</t>
-  </si>
-  <si>
-    <t>K.S.W.(LAMDEN)</t>
-  </si>
-  <si>
-    <t>2018-11-22</t>
-  </si>
-  <si>
-    <t>CASEMENT 30.5 WINDOW</t>
-  </si>
-  <si>
-    <t>W02A</t>
-  </si>
-  <si>
-    <t>ShaSha Raulinga</t>
-  </si>
-  <si>
-    <t>W02B</t>
-  </si>
-  <si>
-    <t>W03A</t>
-  </si>
-  <si>
-    <t>W03B</t>
-  </si>
-  <si>
-    <t>W03C</t>
-  </si>
-  <si>
-    <t>W03D</t>
-  </si>
-  <si>
-    <t>W03E</t>
-  </si>
-  <si>
-    <t>Steph Ngubeni</t>
-  </si>
-  <si>
-    <t>W04A</t>
-  </si>
-  <si>
-    <t>Obed M Tlale</t>
-  </si>
-  <si>
-    <t>W04B</t>
-  </si>
-  <si>
-    <t>W05A</t>
-  </si>
-  <si>
-    <t>W05B</t>
-  </si>
-  <si>
-    <t>W05 LAM</t>
-  </si>
-  <si>
-    <t>W05 TSG OBS</t>
-  </si>
-  <si>
-    <t>W07A</t>
-  </si>
-  <si>
-    <t>W07B</t>
-  </si>
-  <si>
-    <t>W07C</t>
-  </si>
-  <si>
-    <t>W07D</t>
-  </si>
-  <si>
-    <t>W07 TSG OBS A</t>
-  </si>
-  <si>
-    <t>W07 TSG OBS B</t>
-  </si>
-  <si>
-    <t>W07 TSG OBS C</t>
-  </si>
-  <si>
-    <t>W07 TSG OBS D</t>
-  </si>
-  <si>
-    <t>W07 TSG OBS E</t>
-  </si>
-  <si>
-    <t>W07 TSG OBS F</t>
-  </si>
-  <si>
-    <t>W09A</t>
-  </si>
-  <si>
-    <t>W09B</t>
-  </si>
-  <si>
-    <t>Q18091932</t>
-  </si>
-  <si>
-    <t>Nick Artisans</t>
-  </si>
-  <si>
-    <t>2018-12-05</t>
-  </si>
-  <si>
-    <t>WPalaceM</t>
-  </si>
-  <si>
-    <t>Q18100751</t>
-  </si>
-  <si>
-    <t>Alves</t>
-  </si>
-  <si>
-    <t>2018-12-07</t>
-  </si>
-  <si>
-    <t>Reymond Moshoeu</t>
-  </si>
-  <si>
-    <t>W30</t>
-  </si>
-  <si>
-    <t>Side hung</t>
-  </si>
-  <si>
-    <t>W27</t>
-  </si>
-  <si>
-    <t>Don</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Office </t>
-  </si>
-  <si>
-    <t>2018-12-11</t>
-  </si>
-  <si>
-    <t>Prima PD</t>
-  </si>
-  <si>
-    <t>C201807-01</t>
-  </si>
-  <si>
-    <t>Fourier Approach</t>
-  </si>
-  <si>
-    <t>2018-12-12</t>
-  </si>
-  <si>
-    <t>W98</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>Phophi Raulinga</t>
-  </si>
-  <si>
-    <t>W56</t>
-  </si>
-  <si>
-    <t>Tessah Ncube</t>
-  </si>
-  <si>
-    <t>D33</t>
-  </si>
-  <si>
-    <t>Gibson Maphosa</t>
-  </si>
-  <si>
-    <t>DD01</t>
-  </si>
-  <si>
-    <t>Clip44</t>
-  </si>
-  <si>
-    <t>W2</t>
-  </si>
-  <si>
-    <t>Stephen Moshoeu</t>
-  </si>
-  <si>
-    <t>W1</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>AB D2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francois Burger </t>
-  </si>
-  <si>
     <t>Q18111303B</t>
   </si>
   <si>
@@ -592,12 +625,27 @@
     <t>2018-12-21</t>
   </si>
   <si>
+    <t>WSS1000</t>
+  </si>
+  <si>
+    <t>W01-2</t>
+  </si>
+  <si>
+    <t>W05-1</t>
+  </si>
+  <si>
+    <t>W05-2</t>
+  </si>
+  <si>
+    <t>Swift 30.5</t>
+  </si>
+  <si>
+    <t>W11</t>
+  </si>
+  <si>
     <t>W06-1</t>
   </si>
   <si>
-    <t>WSS1000</t>
-  </si>
-  <si>
     <t>W06-2</t>
   </si>
   <si>
@@ -617,21 +665,6 @@
   </si>
   <si>
     <t>W09-2</t>
-  </si>
-  <si>
-    <t>Swift 30.5</t>
-  </si>
-  <si>
-    <t>W01-2</t>
-  </si>
-  <si>
-    <t>W05-1</t>
-  </si>
-  <si>
-    <t>W05-2</t>
-  </si>
-  <si>
-    <t>W11</t>
   </si>
 </sst>
 </file>
@@ -990,7 +1023,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:AG108"/>
+  <dimension ref="B2:AG113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1123,7 +1156,7 @@
         <v>37</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K3" s="3">
         <v>43325.85334251157</v>
@@ -1221,7 +1254,7 @@
         <v>37</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" s="5">
         <v>43325.85334251157</v>
@@ -1533,7 +1566,7 @@
         <v>45</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K8" s="5">
         <v>43325.85337673611</v>
@@ -1563,10 +1596,14 @@
       <c r="X8" s="5">
         <v>43432.45397508102</v>
       </c>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
+      <c r="Y8" s="5">
+        <v>43437.62742549769</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>43437.62755628472</v>
+      </c>
       <c r="AA8" s="5">
-        <v>43325.86210818287</v>
+        <v>43437.8774584838</v>
       </c>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
@@ -1779,7 +1816,7 @@
         <v>47</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K12" s="5">
         <v>43325.85341099537</v>
@@ -1808,7 +1845,9 @@
       <c r="AA12" s="5">
         <v>43430.47100767361</v>
       </c>
-      <c r="AB12" s="4"/>
+      <c r="AB12" s="5">
+        <v>43437.87755686342</v>
+      </c>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
@@ -2448,24 +2487,24 @@
         <v>69</v>
       </c>
       <c r="E24" s="4">
-        <v>444.4</v>
+        <v>3489.21</v>
       </c>
       <c r="F24" s="4">
-        <v>207</v>
-      </c>
-      <c r="G24" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="I24" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K24" s="4"/>
+      <c r="K24" s="5">
+        <v>43353.5231221412</v>
+      </c>
       <c r="L24" s="5">
         <v>43391.55371793982</v>
       </c>
@@ -2487,9 +2526,7 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
-      <c r="AE24" s="5">
-        <v>43355.3651462963</v>
-      </c>
+      <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
     </row>
@@ -2504,22 +2541,24 @@
         <v>69</v>
       </c>
       <c r="E25" s="2">
-        <v>555.5</v>
+        <v>3489.21</v>
       </c>
       <c r="F25" s="2">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K25" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="K25" s="3">
+        <v>43353.52313109954</v>
+      </c>
       <c r="L25" s="3">
         <v>43391.55371793982</v>
       </c>
@@ -2540,46 +2579,44 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
-      <c r="AD25" s="3">
-        <v>43355.36635717592</v>
-      </c>
+      <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
-      <c r="AG25" s="3">
-        <v>43392.60481701389</v>
-      </c>
+      <c r="AG25" s="2"/>
     </row>
     <row r="26" spans="2:33">
       <c r="B26" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E26" s="4">
-        <v>1195</v>
+        <v>2589</v>
       </c>
       <c r="F26" s="4">
-        <v>160</v>
-      </c>
-      <c r="G26" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="H26" s="4" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K26" s="5">
-        <v>43325.87013730324</v>
+        <v>43426.66180609954</v>
       </c>
       <c r="L26" s="5">
-        <v>43391.55371793982</v>
+        <v>43431.35680737269</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -2588,13 +2625,9 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
-      <c r="T26" s="5">
-        <v>43353.63348869213</v>
-      </c>
+      <c r="T26" s="4"/>
       <c r="U26" s="4"/>
-      <c r="V26" s="5">
-        <v>43325.92826967593</v>
-      </c>
+      <c r="V26" s="4"/>
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
@@ -2609,36 +2642,36 @@
     </row>
     <row r="27" spans="2:33">
       <c r="B27" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E27" s="2">
-        <v>1195</v>
+        <v>1976</v>
       </c>
       <c r="F27" s="2">
-        <v>161</v>
-      </c>
-      <c r="G27" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="J27" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K27" s="3">
-        <v>43325.87014579861</v>
-      </c>
-      <c r="L27" s="3">
-        <v>43391.55371793982</v>
-      </c>
+        <v>43431.31553449074</v>
+      </c>
+      <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -2648,12 +2681,8 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
-      <c r="V27" s="3">
-        <v>43339.49166299769</v>
-      </c>
-      <c r="W27" s="3">
-        <v>43339.491615625</v>
-      </c>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
@@ -2667,37 +2696,37 @@
     </row>
     <row r="28" spans="2:33">
       <c r="B28" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E28" s="4">
-        <v>1195</v>
+        <v>1976</v>
       </c>
       <c r="F28" s="4">
-        <v>162</v>
+        <v>218</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K28" s="5">
-        <v>43325.87015420139</v>
+        <v>43431.31726423611</v>
       </c>
       <c r="L28" s="5">
-        <v>43391.55371793982</v>
+        <v>43437.01041712963</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -2723,35 +2752,37 @@
     </row>
     <row r="29" spans="2:33">
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E29" s="2">
-        <v>484</v>
+        <v>1246</v>
       </c>
       <c r="F29" s="2">
-        <v>163</v>
-      </c>
-      <c r="G29" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H29" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="K29" s="3">
-        <v>43325.87016261574</v>
+        <v>43431.31823098379</v>
       </c>
       <c r="L29" s="3">
-        <v>43391.55371793982</v>
+        <v>43437.01052369213</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -2777,36 +2808,36 @@
     </row>
     <row r="30" spans="2:33">
       <c r="B30" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E30" s="4">
-        <v>484</v>
+        <v>1246</v>
       </c>
       <c r="F30" s="4">
-        <v>164</v>
-      </c>
-      <c r="G30" s="4"/>
+        <v>220</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="H30" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K30" s="5">
-        <v>43325.87017086805</v>
-      </c>
-      <c r="L30" s="5">
-        <v>43391.55371793982</v>
-      </c>
+        <v>43431.31905451389</v>
+      </c>
+      <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
@@ -2814,9 +2845,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
-      <c r="T30" s="5">
-        <v>43327.35490439815</v>
-      </c>
+      <c r="T30" s="4"/>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
@@ -2833,36 +2862,36 @@
     </row>
     <row r="31" spans="2:33">
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E31" s="2">
-        <v>484</v>
+        <v>1246</v>
       </c>
       <c r="F31" s="2">
-        <v>165</v>
-      </c>
-      <c r="G31" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="H31" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K31" s="3">
-        <v>43325.87017936342</v>
-      </c>
-      <c r="L31" s="3">
-        <v>43391.55371793982</v>
-      </c>
+        <v>43431.32505871528</v>
+      </c>
+      <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -2887,41 +2916,39 @@
     </row>
     <row r="32" spans="2:33">
       <c r="B32" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E32" s="4">
-        <v>742</v>
+        <v>1246</v>
       </c>
       <c r="F32" s="4">
-        <v>166</v>
-      </c>
-      <c r="G32" s="4"/>
+        <v>222</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="H32" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K32" s="5">
-        <v>43325.8701877662</v>
-      </c>
-      <c r="L32" s="5">
-        <v>43391.55371793982</v>
-      </c>
+        <v>43431.32652627315</v>
+      </c>
+      <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
-      <c r="O32" s="5">
-        <v>43392.60232974537</v>
-      </c>
+      <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
@@ -2943,44 +2970,40 @@
     </row>
     <row r="33" spans="2:33">
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E33" s="2">
-        <v>789</v>
+        <v>1246</v>
       </c>
       <c r="F33" s="2">
-        <v>167</v>
+        <v>223</v>
       </c>
       <c r="G33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="I33" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K33" s="3">
-        <v>43327.39147265047</v>
-      </c>
-      <c r="L33" s="3">
-        <v>43391.55371793982</v>
-      </c>
+        <v>43431.32735717593</v>
+      </c>
+      <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
-      <c r="P33" s="3">
-        <v>43356.53625246528</v>
-      </c>
+      <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
@@ -3001,43 +3024,41 @@
     </row>
     <row r="34" spans="2:33">
       <c r="B34" s="4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E34" s="4">
-        <v>123.63</v>
+        <v>1710</v>
       </c>
       <c r="F34" s="4">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K34" s="4"/>
-      <c r="L34" s="5">
-        <v>43391.55371793982</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="K34" s="5">
+        <v>43431.32860771991</v>
+      </c>
+      <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
-      <c r="Q34" s="5">
-        <v>43353.51957114584</v>
-      </c>
+      <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
@@ -3057,36 +3078,36 @@
     </row>
     <row r="35" spans="2:33">
       <c r="B35" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E35" s="2">
-        <v>3489.21</v>
+        <v>1710</v>
       </c>
       <c r="F35" s="2">
-        <v>176</v>
-      </c>
-      <c r="G35" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="H35" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K35" s="3">
-        <v>43353.5231221412</v>
-      </c>
-      <c r="L35" s="3">
-        <v>43391.55371793982</v>
-      </c>
+        <v>43431.32928263889</v>
+      </c>
+      <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -3111,36 +3132,36 @@
     </row>
     <row r="36" spans="2:33">
       <c r="B36" s="4" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D36" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1060</v>
+      </c>
+      <c r="F36" s="4">
+        <v>226</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="4">
-        <v>3489.21</v>
-      </c>
-      <c r="F36" s="4">
-        <v>177</v>
-      </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="I36" s="4" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K36" s="5">
-        <v>43353.52313109954</v>
-      </c>
-      <c r="L36" s="5">
-        <v>43391.55371793982</v>
-      </c>
+        <v>43431.32998915509</v>
+      </c>
+      <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
@@ -3165,36 +3186,36 @@
     </row>
     <row r="37" spans="2:33">
       <c r="B37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1444</v>
+      </c>
+      <c r="F37" s="2">
+        <v>227</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" s="2">
-        <v>500</v>
-      </c>
-      <c r="F37" s="2">
-        <v>132</v>
-      </c>
-      <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="K37" s="3">
-        <v>43325.37694837963</v>
-      </c>
-      <c r="L37" s="3">
-        <v>43391.55371793982</v>
-      </c>
+        <v>43431.33062260417</v>
+      </c>
+      <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -3204,16 +3225,10 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
-      <c r="V37" s="3">
-        <v>43325.88282913194</v>
-      </c>
-      <c r="W37" s="3">
-        <v>43349.45394853009</v>
-      </c>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
       <c r="X37" s="2"/>
-      <c r="Y37" s="3">
-        <v>43425.6049162037</v>
-      </c>
+      <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
@@ -3225,36 +3240,36 @@
     </row>
     <row r="38" spans="2:33">
       <c r="B38" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1060</v>
+      </c>
+      <c r="F38" s="4">
+        <v>228</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38" s="4">
-        <v>500</v>
-      </c>
-      <c r="F38" s="4">
-        <v>133</v>
-      </c>
-      <c r="G38" s="4"/>
       <c r="H38" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="K38" s="5">
-        <v>43325.37695709491</v>
-      </c>
-      <c r="L38" s="5">
-        <v>43391.55371793982</v>
-      </c>
+        <v>43431.33168799768</v>
+      </c>
+      <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
@@ -3263,13 +3278,9 @@
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
-      <c r="U38" s="5">
-        <v>43403.51982291666</v>
-      </c>
+      <c r="U38" s="4"/>
       <c r="V38" s="4"/>
-      <c r="W38" s="5">
-        <v>43357.56335949074</v>
-      </c>
+      <c r="W38" s="4"/>
       <c r="X38" s="4"/>
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
@@ -3283,35 +3294,35 @@
     </row>
     <row r="39" spans="2:33">
       <c r="B39" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E39" s="2">
-        <v>500</v>
+        <v>1444</v>
       </c>
       <c r="F39" s="2">
-        <v>134</v>
-      </c>
-      <c r="G39" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="H39" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K39" s="3">
-        <v>43325.3769659375</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="K39" s="2"/>
       <c r="L39" s="3">
-        <v>43360.86807496528</v>
+        <v>43431.33277589121</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -3329,9 +3340,7 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
-      <c r="AC39" s="3">
-        <v>43392.3783931713</v>
-      </c>
+      <c r="AC39" s="2"/>
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
@@ -3339,42 +3348,38 @@
     </row>
     <row r="40" spans="2:33">
       <c r="B40" s="4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E40" s="4">
-        <v>500</v>
+        <v>961</v>
       </c>
       <c r="F40" s="4">
-        <v>135</v>
-      </c>
-      <c r="G40" s="4"/>
+        <v>230</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="H40" s="4" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K40" s="5">
-        <v>43325.37697457176</v>
-      </c>
-      <c r="L40" s="5">
-        <v>43391.55371793982</v>
-      </c>
-      <c r="M40" s="5">
-        <v>43325.38381079861</v>
-      </c>
-      <c r="N40" s="5">
-        <v>43360.86822395834</v>
-      </c>
+        <v>43431.3333431713</v>
+      </c>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
@@ -3397,45 +3402,39 @@
     </row>
     <row r="41" spans="2:33">
       <c r="B41" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E41" s="2">
-        <v>500</v>
+        <v>644</v>
       </c>
       <c r="F41" s="2">
-        <v>136</v>
-      </c>
-      <c r="G41" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="H41" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K41" s="3">
-        <v>43325.37698341435</v>
-      </c>
-      <c r="L41" s="3">
-        <v>43391.55371793982</v>
-      </c>
-      <c r="M41" s="3">
-        <v>43325.38345362269</v>
-      </c>
-      <c r="N41" s="3">
-        <v>43325.39341686342</v>
-      </c>
-      <c r="O41" s="3">
-        <v>43325.38431385416</v>
-      </c>
+        <v>43431.33393753472</v>
+      </c>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
@@ -3457,36 +3456,36 @@
     </row>
     <row r="42" spans="2:33">
       <c r="B42" s="4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E42" s="4">
-        <v>230</v>
+        <v>644</v>
       </c>
       <c r="F42" s="4">
-        <v>137</v>
-      </c>
-      <c r="G42" s="4"/>
+        <v>232</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="H42" s="4" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K42" s="5">
-        <v>43325.37699212963</v>
-      </c>
-      <c r="L42" s="5">
-        <v>43391.55371793982</v>
-      </c>
+        <v>43431.33469861111</v>
+      </c>
+      <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
@@ -3511,36 +3510,36 @@
     </row>
     <row r="43" spans="2:33">
       <c r="B43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="2">
+        <v>644</v>
+      </c>
+      <c r="F43" s="2">
+        <v>233</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E43" s="2">
-        <v>230</v>
-      </c>
-      <c r="F43" s="2">
-        <v>138</v>
-      </c>
-      <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K43" s="3">
-        <v>43325.37700081019</v>
-      </c>
-      <c r="L43" s="3">
-        <v>43391.55371793982</v>
-      </c>
+        <v>43431.33603614583</v>
+      </c>
+      <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -3565,48 +3564,42 @@
     </row>
     <row r="44" spans="2:33">
       <c r="B44" s="4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E44" s="4">
-        <v>200</v>
+        <v>644</v>
       </c>
       <c r="F44" s="4">
-        <v>139</v>
-      </c>
-      <c r="G44" s="4"/>
+        <v>234</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="H44" s="4" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K44" s="5">
-        <v>43325.37700960648</v>
-      </c>
-      <c r="L44" s="5">
-        <v>43391.55371793982</v>
-      </c>
-      <c r="M44" s="5">
-        <v>43349.51082349537</v>
-      </c>
+        <v>43431.33730008102</v>
+      </c>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
-      <c r="Q44" s="5">
-        <v>43349.51102372685</v>
-      </c>
-      <c r="R44" s="5">
-        <v>43349.51809633102</v>
-      </c>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
@@ -3615,12 +3608,8 @@
       <c r="X44" s="4"/>
       <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
-      <c r="AA44" s="5">
-        <v>43349.51827619213</v>
-      </c>
-      <c r="AB44" s="5">
-        <v>43349.52063159722</v>
-      </c>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
       <c r="AD44" s="4"/>
       <c r="AE44" s="4"/>
@@ -3629,38 +3618,36 @@
     </row>
     <row r="45" spans="2:33">
       <c r="B45" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E45" s="2">
-        <v>400.5</v>
+        <v>1246</v>
       </c>
       <c r="F45" s="2">
-        <v>172</v>
+        <v>235</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="K45" s="3">
-        <v>43349.39219606481</v>
-      </c>
-      <c r="L45" s="3">
-        <v>43391.55371793982</v>
-      </c>
+        <v>43431.33785347222</v>
+      </c>
+      <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -3677,9 +3664,7 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
-      <c r="AC45" s="3">
-        <v>43392.59261762731</v>
-      </c>
+      <c r="AC45" s="2"/>
       <c r="AD45" s="2"/>
       <c r="AE45" s="2"/>
       <c r="AF45" s="2"/>
@@ -3687,46 +3672,42 @@
     </row>
     <row r="46" spans="2:33">
       <c r="B46" s="4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E46" s="4">
-        <v>1125</v>
+        <v>1246</v>
       </c>
       <c r="F46" s="4">
-        <v>140</v>
-      </c>
-      <c r="G46" s="4"/>
+        <v>236</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="H46" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K46" s="5">
-        <v>43325.83706269676</v>
-      </c>
+      <c r="K46" s="4"/>
       <c r="L46" s="5">
-        <v>43391.55371793982</v>
+        <v>43431.3387090625</v>
       </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
-      <c r="O46" s="5">
-        <v>43327.35744513889</v>
-      </c>
+      <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
-      <c r="R46" s="5">
-        <v>43327.3577871875</v>
-      </c>
+      <c r="R46" s="4"/>
       <c r="S46" s="4"/>
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
@@ -3745,43 +3726,39 @@
     </row>
     <row r="47" spans="2:33">
       <c r="B47" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1246</v>
+      </c>
+      <c r="F47" s="2">
+        <v>237</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E47" s="2">
-        <v>1290</v>
-      </c>
-      <c r="F47" s="2">
-        <v>169</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="H47" s="2" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K47" s="3">
-        <v>43335.87885621528</v>
-      </c>
-      <c r="L47" s="3">
-        <v>43391.55371793982</v>
-      </c>
+        <v>43431.33953263889</v>
+      </c>
+      <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
-      <c r="O47" s="3">
-        <v>43392.38396674769</v>
-      </c>
+      <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
@@ -3803,38 +3780,36 @@
     </row>
     <row r="48" spans="2:33">
       <c r="B48" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" s="4">
+        <v>1246</v>
+      </c>
+      <c r="F48" s="4">
+        <v>238</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E48" s="4">
-        <v>1290</v>
-      </c>
-      <c r="F48" s="4">
-        <v>170</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="H48" s="4" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K48" s="5">
-        <v>43335.88066762732</v>
-      </c>
-      <c r="L48" s="5">
-        <v>43360.87663854167</v>
-      </c>
+        <v>43431.34033903935</v>
+      </c>
+      <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
@@ -3859,38 +3834,36 @@
     </row>
     <row r="49" spans="2:33">
       <c r="B49" s="2" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="E49" s="2">
-        <v>2589</v>
+        <v>1246</v>
       </c>
       <c r="F49" s="2">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K49" s="3">
-        <v>43426.66180609954</v>
-      </c>
-      <c r="L49" s="3">
-        <v>43431.35680737269</v>
-      </c>
+        <v>43431.34095520833</v>
+      </c>
+      <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -3915,34 +3888,34 @@
     </row>
     <row r="50" spans="2:33">
       <c r="B50" s="4" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="E50" s="4">
-        <v>1976</v>
+        <v>1246</v>
       </c>
       <c r="F50" s="4">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K50" s="5">
-        <v>43431.31553449074</v>
+        <v>43431.34150991898</v>
       </c>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
@@ -3969,34 +3942,34 @@
     </row>
     <row r="51" spans="2:33">
       <c r="B51" s="2" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="E51" s="2">
-        <v>1976</v>
+        <v>1246</v>
       </c>
       <c r="F51" s="2">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K51" s="3">
-        <v>43431.31726423611</v>
+        <v>43431.3420596875</v>
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
@@ -4023,34 +3996,34 @@
     </row>
     <row r="52" spans="2:33">
       <c r="B52" s="4" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="E52" s="4">
-        <v>1246</v>
+        <v>1274</v>
       </c>
       <c r="F52" s="4">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="J52" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K52" s="5">
-        <v>43431.31823098379</v>
+        <v>43431.34257033565</v>
       </c>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
@@ -4077,43 +4050,45 @@
     </row>
     <row r="53" spans="2:33">
       <c r="B53" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E53" s="2">
-        <v>1246</v>
+        <v>10898.59</v>
       </c>
       <c r="F53" s="2">
-        <v>220</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>92</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="G53" s="2"/>
       <c r="H53" s="2" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="K53" s="3">
-        <v>43431.31905451389</v>
-      </c>
-      <c r="L53" s="2"/>
+        <v>43434.3854542824</v>
+      </c>
+      <c r="L53" s="3">
+        <v>43434.39015552084</v>
+      </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
+      <c r="S53" s="3">
+        <v>43434.39049725694</v>
+      </c>
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
@@ -4131,36 +4106,36 @@
     </row>
     <row r="54" spans="2:33">
       <c r="B54" s="4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E54" s="4">
-        <v>1246</v>
+        <v>444.4</v>
       </c>
       <c r="F54" s="4">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="G54" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H54" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H54" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="I54" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K54" s="5">
-        <v>43431.32505871528</v>
-      </c>
-      <c r="L54" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="K54" s="4"/>
+      <c r="L54" s="5">
+        <v>43391.55371793982</v>
+      </c>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
@@ -4179,42 +4154,42 @@
       <c r="AB54" s="4"/>
       <c r="AC54" s="4"/>
       <c r="AD54" s="4"/>
-      <c r="AE54" s="4"/>
+      <c r="AE54" s="5">
+        <v>43355.3651462963</v>
+      </c>
       <c r="AF54" s="4"/>
       <c r="AG54" s="4"/>
     </row>
     <row r="55" spans="2:33">
       <c r="B55" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E55" s="2">
-        <v>1246</v>
+        <v>555.5</v>
       </c>
       <c r="F55" s="2">
-        <v>222</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>115</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G55" s="2"/>
       <c r="H55" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K55" s="3">
-        <v>43431.32652627315</v>
-      </c>
-      <c r="L55" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="K55" s="2"/>
+      <c r="L55" s="3">
+        <v>43391.55371793982</v>
+      </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -4232,43 +4207,47 @@
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
       <c r="AC55" s="2"/>
-      <c r="AD55" s="2"/>
+      <c r="AD55" s="3">
+        <v>43355.36635717592</v>
+      </c>
       <c r="AE55" s="2"/>
       <c r="AF55" s="2"/>
-      <c r="AG55" s="2"/>
+      <c r="AG55" s="3">
+        <v>43392.60481701389</v>
+      </c>
     </row>
     <row r="56" spans="2:33">
       <c r="B56" s="4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E56" s="4">
-        <v>1246</v>
+        <v>1195</v>
       </c>
       <c r="F56" s="4">
-        <v>223</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>115</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G56" s="4"/>
       <c r="H56" s="4" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K56" s="5">
-        <v>43431.32735717593</v>
-      </c>
-      <c r="L56" s="4"/>
+        <v>43325.87013730324</v>
+      </c>
+      <c r="L56" s="5">
+        <v>43391.55371793982</v>
+      </c>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
@@ -4276,9 +4255,13 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
+      <c r="T56" s="5">
+        <v>43353.63348869213</v>
+      </c>
       <c r="U56" s="4"/>
-      <c r="V56" s="4"/>
+      <c r="V56" s="5">
+        <v>43325.92826967593</v>
+      </c>
       <c r="W56" s="4"/>
       <c r="X56" s="4"/>
       <c r="Y56" s="4"/>
@@ -4293,36 +4276,36 @@
     </row>
     <row r="57" spans="2:33">
       <c r="B57" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E57" s="2">
-        <v>1710</v>
+        <v>1195</v>
       </c>
       <c r="F57" s="2">
-        <v>224</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>135</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G57" s="2"/>
       <c r="H57" s="2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K57" s="3">
-        <v>43431.32860771991</v>
-      </c>
-      <c r="L57" s="2"/>
+        <v>43325.87014579861</v>
+      </c>
+      <c r="L57" s="3">
+        <v>43391.55371793982</v>
+      </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -4332,8 +4315,12 @@
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
-      <c r="V57" s="2"/>
-      <c r="W57" s="2"/>
+      <c r="V57" s="3">
+        <v>43339.49166299769</v>
+      </c>
+      <c r="W57" s="3">
+        <v>43339.491615625</v>
+      </c>
       <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
@@ -4347,36 +4334,38 @@
     </row>
     <row r="58" spans="2:33">
       <c r="B58" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1195</v>
+      </c>
+      <c r="F58" s="4">
+        <v>162</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H58" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="I58" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E58" s="4">
-        <v>1710</v>
-      </c>
-      <c r="F58" s="4">
-        <v>225</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="J58" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K58" s="5">
-        <v>43431.32928263889</v>
-      </c>
-      <c r="L58" s="4"/>
+        <v>43325.87015420139</v>
+      </c>
+      <c r="L58" s="5">
+        <v>43391.55371793982</v>
+      </c>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
@@ -4401,36 +4390,36 @@
     </row>
     <row r="59" spans="2:33">
       <c r="B59" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E59" s="2">
+        <v>484</v>
+      </c>
+      <c r="F59" s="2">
+        <v>163</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E59" s="2">
-        <v>1060</v>
-      </c>
-      <c r="F59" s="2">
-        <v>226</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="I59" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K59" s="3">
-        <v>43431.32998915509</v>
-      </c>
-      <c r="L59" s="2"/>
+        <v>43325.87016261574</v>
+      </c>
+      <c r="L59" s="3">
+        <v>43391.55371793982</v>
+      </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -4455,36 +4444,36 @@
     </row>
     <row r="60" spans="2:33">
       <c r="B60" s="4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E60" s="4">
-        <v>1444</v>
+        <v>484</v>
       </c>
       <c r="F60" s="4">
-        <v>227</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>137</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G60" s="4"/>
       <c r="H60" s="4" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K60" s="5">
-        <v>43431.33062260417</v>
-      </c>
-      <c r="L60" s="4"/>
+        <v>43325.87017086805</v>
+      </c>
+      <c r="L60" s="5">
+        <v>43391.55371793982</v>
+      </c>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
@@ -4492,7 +4481,9 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
-      <c r="T60" s="4"/>
+      <c r="T60" s="5">
+        <v>43327.35490439815</v>
+      </c>
       <c r="U60" s="4"/>
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
@@ -4509,36 +4500,36 @@
     </row>
     <row r="61" spans="2:33">
       <c r="B61" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C61" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E61" s="2">
+        <v>484</v>
+      </c>
+      <c r="F61" s="2">
+        <v>165</v>
+      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I61" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E61" s="2">
-        <v>1060</v>
-      </c>
-      <c r="F61" s="2">
-        <v>228</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="J61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K61" s="3">
-        <v>43431.33168799768</v>
-      </c>
-      <c r="L61" s="2"/>
+        <v>43325.87017936342</v>
+      </c>
+      <c r="L61" s="3">
+        <v>43391.55371793982</v>
+      </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -4563,39 +4554,41 @@
     </row>
     <row r="62" spans="2:33">
       <c r="B62" s="4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E62" s="4">
-        <v>1444</v>
+        <v>742</v>
       </c>
       <c r="F62" s="4">
-        <v>229</v>
-      </c>
-      <c r="G62" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H62" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="I62" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K62" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="K62" s="5">
+        <v>43325.8701877662</v>
+      </c>
       <c r="L62" s="5">
-        <v>43431.33277589121</v>
+        <v>43391.55371793982</v>
       </c>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
+      <c r="O62" s="5">
+        <v>43392.60232974537</v>
+      </c>
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
@@ -4617,40 +4610,46 @@
     </row>
     <row r="63" spans="2:33">
       <c r="B63" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E63" s="2">
-        <v>961</v>
+        <v>789</v>
       </c>
       <c r="F63" s="2">
-        <v>230</v>
+        <v>167</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K63" s="3">
-        <v>43431.3333431713</v>
-      </c>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
+        <v>43327.39147265047</v>
+      </c>
+      <c r="L63" s="3">
+        <v>43391.55371793982</v>
+      </c>
+      <c r="M63" s="3">
+        <v>43439.41083163195</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
-      <c r="P63" s="2"/>
+      <c r="P63" s="3">
+        <v>43356.53625246528</v>
+      </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
@@ -4671,49 +4670,67 @@
     </row>
     <row r="64" spans="2:33">
       <c r="B64" s="4" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E64" s="4">
-        <v>644</v>
+        <v>6515</v>
       </c>
       <c r="F64" s="4">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K64" s="5">
-        <v>43431.33393753472</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="4"/>
-      <c r="R64" s="4"/>
-      <c r="S64" s="4"/>
-      <c r="T64" s="4"/>
-      <c r="U64" s="4"/>
-      <c r="V64" s="4"/>
-      <c r="W64" s="4"/>
-      <c r="X64" s="4"/>
-      <c r="Y64" s="4"/>
+      <c r="P64" s="5">
+        <v>43434.46121357639</v>
+      </c>
+      <c r="Q64" s="5">
+        <v>43437.01081369213</v>
+      </c>
+      <c r="R64" s="5">
+        <v>43437.38300177083</v>
+      </c>
+      <c r="S64" s="5">
+        <v>43437.87856952546</v>
+      </c>
+      <c r="T64" s="5">
+        <v>43437.87917612268</v>
+      </c>
+      <c r="U64" s="5">
+        <v>43437.87923672454</v>
+      </c>
+      <c r="V64" s="5">
+        <v>43437.87927372685</v>
+      </c>
+      <c r="W64" s="5">
+        <v>43437.87931998842</v>
+      </c>
+      <c r="X64" s="5">
+        <v>43438.53883561343</v>
+      </c>
+      <c r="Y64" s="5">
+        <v>43439.37351149305</v>
+      </c>
       <c r="Z64" s="4"/>
       <c r="AA64" s="4"/>
       <c r="AB64" s="4"/>
@@ -4725,41 +4742,43 @@
     </row>
     <row r="65" spans="2:33">
       <c r="B65" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E65" s="2">
-        <v>644</v>
+        <v>5131</v>
       </c>
       <c r="F65" s="2">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K65" s="3">
-        <v>43431.33469861111</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="K65" s="2"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
+      <c r="P65" s="3">
+        <v>43434.46683680556</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>43437.39218133102</v>
+      </c>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
@@ -4779,42 +4798,48 @@
     </row>
     <row r="66" spans="2:33">
       <c r="B66" s="4" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="E66" s="4">
-        <v>644</v>
+        <v>2689</v>
       </c>
       <c r="F66" s="4">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K66" s="5">
-        <v>43431.33603614583</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="K66" s="4"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="4"/>
+      <c r="O66" s="5">
+        <v>43434.44846840278</v>
+      </c>
+      <c r="P66" s="5">
+        <v>43434.45525123843</v>
+      </c>
+      <c r="Q66" s="5">
+        <v>43434.49473491898</v>
+      </c>
+      <c r="R66" s="5">
+        <v>43434.55427731481</v>
+      </c>
       <c r="S66" s="4"/>
       <c r="T66" s="4"/>
       <c r="U66" s="4"/>
@@ -4833,36 +4858,36 @@
     </row>
     <row r="67" spans="2:33">
       <c r="B67" s="2" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="E67" s="2">
-        <v>644</v>
+        <v>897.6</v>
       </c>
       <c r="F67" s="2">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K67" s="3">
-        <v>43431.33730008102</v>
-      </c>
-      <c r="L67" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="K67" s="2"/>
+      <c r="L67" s="3">
+        <v>43391.55371793982</v>
+      </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -4876,7 +4901,9 @@
       <c r="W67" s="2"/>
       <c r="X67" s="2"/>
       <c r="Y67" s="2"/>
-      <c r="Z67" s="2"/>
+      <c r="Z67" s="3">
+        <v>43355.34333680556</v>
+      </c>
       <c r="AA67" s="2"/>
       <c r="AB67" s="2"/>
       <c r="AC67" s="2"/>
@@ -4887,36 +4914,36 @@
     </row>
     <row r="68" spans="2:33">
       <c r="B68" s="4" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="E68" s="4">
-        <v>1246</v>
+        <v>111.13</v>
       </c>
       <c r="F68" s="4">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K68" s="5">
-        <v>43431.33785347222</v>
-      </c>
-      <c r="L68" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="K68" s="4"/>
+      <c r="L68" s="5">
+        <v>43391.55371793982</v>
+      </c>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
@@ -4929,7 +4956,9 @@
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
       <c r="X68" s="4"/>
-      <c r="Y68" s="4"/>
+      <c r="Y68" s="5">
+        <v>43355.35701990741</v>
+      </c>
       <c r="Z68" s="4"/>
       <c r="AA68" s="4"/>
       <c r="AB68" s="4"/>
@@ -4941,42 +4970,44 @@
     </row>
     <row r="69" spans="2:33">
       <c r="B69" s="2" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="E69" s="2">
-        <v>1246</v>
+        <v>656.5</v>
       </c>
       <c r="F69" s="2">
-        <v>236</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>135</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="G69" s="2"/>
       <c r="H69" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="3">
-        <v>43431.3387090625</v>
+        <v>43391.55371793982</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="2"/>
+      <c r="Q69" s="3">
+        <v>43392.59447809028</v>
+      </c>
+      <c r="R69" s="3">
+        <v>43392.59571153935</v>
+      </c>
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
@@ -4985,46 +5016,54 @@
       <c r="X69" s="2"/>
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
-      <c r="AA69" s="2"/>
+      <c r="AA69" s="3">
+        <v>43355.36268865741</v>
+      </c>
       <c r="AB69" s="2"/>
-      <c r="AC69" s="2"/>
-      <c r="AD69" s="2"/>
+      <c r="AC69" s="3">
+        <v>43392.59605755787</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>43432.5430974537</v>
+      </c>
       <c r="AE69" s="2"/>
-      <c r="AF69" s="2"/>
+      <c r="AF69" s="3">
+        <v>43392.39263005787</v>
+      </c>
       <c r="AG69" s="2"/>
     </row>
     <row r="70" spans="2:33">
       <c r="B70" s="4" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="E70" s="4">
-        <v>1246</v>
+        <v>2213.6</v>
       </c>
       <c r="F70" s="4">
-        <v>237</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>137</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G70" s="4"/>
       <c r="H70" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I70" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="I70" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="J70" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K70" s="5">
-        <v>43431.33953263889</v>
-      </c>
-      <c r="L70" s="4"/>
+        <v>43353.54484988426</v>
+      </c>
+      <c r="L70" s="5">
+        <v>43391.55371793982</v>
+      </c>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
@@ -5049,38 +5088,42 @@
     </row>
     <row r="71" spans="2:33">
       <c r="B71" s="2" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="E71" s="2">
-        <v>1246</v>
+        <v>2213.6</v>
       </c>
       <c r="F71" s="2">
-        <v>238</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="G71" s="2"/>
       <c r="H71" s="2" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K71" s="3">
-        <v>43431.34033903935</v>
-      </c>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+        <v>43353.5448587963</v>
+      </c>
+      <c r="L71" s="3">
+        <v>43391.55371793982</v>
+      </c>
+      <c r="M71" s="3">
+        <v>43434.45494880787</v>
+      </c>
+      <c r="N71" s="3">
+        <v>43434.45565042824</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
@@ -5103,36 +5146,36 @@
     </row>
     <row r="72" spans="2:33">
       <c r="B72" s="4" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="E72" s="4">
-        <v>1246</v>
+        <v>232.2</v>
       </c>
       <c r="F72" s="4">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K72" s="5">
-        <v>43431.34095520833</v>
-      </c>
-      <c r="L72" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="K72" s="4"/>
+      <c r="L72" s="5">
+        <v>43391.55371793982</v>
+      </c>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
@@ -5146,7 +5189,9 @@
       <c r="W72" s="4"/>
       <c r="X72" s="4"/>
       <c r="Y72" s="4"/>
-      <c r="Z72" s="4"/>
+      <c r="Z72" s="5">
+        <v>43353.58169262732</v>
+      </c>
       <c r="AA72" s="4"/>
       <c r="AB72" s="4"/>
       <c r="AC72" s="4"/>
@@ -5157,36 +5202,36 @@
     </row>
     <row r="73" spans="2:33">
       <c r="B73" s="2" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="E73" s="2">
-        <v>1246</v>
+        <v>2903.5</v>
       </c>
       <c r="F73" s="2">
-        <v>240</v>
+        <v>184</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K73" s="3">
-        <v>43431.34150991898</v>
-      </c>
-      <c r="L73" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="K73" s="2"/>
+      <c r="L73" s="3">
+        <v>43391.55371793982</v>
+      </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -5194,7 +5239,9 @@
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
       <c r="S73" s="2"/>
-      <c r="T73" s="2"/>
+      <c r="T73" s="3">
+        <v>43353.60090471065</v>
+      </c>
       <c r="U73" s="2"/>
       <c r="V73" s="2"/>
       <c r="W73" s="2"/>
@@ -5211,94 +5258,114 @@
     </row>
     <row r="74" spans="2:33">
       <c r="B74" s="4" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="E74" s="4">
-        <v>1246</v>
+        <v>44.3</v>
       </c>
       <c r="F74" s="4">
-        <v>241</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>115</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G74" s="4"/>
       <c r="H74" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K74" s="5">
-        <v>43431.3420596875</v>
-      </c>
-      <c r="L74" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="K74" s="4"/>
+      <c r="L74" s="5">
+        <v>43391.55371793982</v>
+      </c>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
+      <c r="O74" s="5">
+        <v>43392.60218287037</v>
+      </c>
       <c r="P74" s="4"/>
       <c r="Q74" s="4"/>
-      <c r="R74" s="4"/>
+      <c r="R74" s="5">
+        <v>43392.59913460648</v>
+      </c>
       <c r="S74" s="4"/>
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
       <c r="V74" s="4"/>
-      <c r="W74" s="4"/>
+      <c r="W74" s="5">
+        <v>43392.37946851852</v>
+      </c>
       <c r="X74" s="4"/>
-      <c r="Y74" s="4"/>
+      <c r="Y74" s="5">
+        <v>43356.5440903588</v>
+      </c>
       <c r="Z74" s="4"/>
       <c r="AA74" s="4"/>
       <c r="AB74" s="4"/>
-      <c r="AC74" s="4"/>
+      <c r="AC74" s="5">
+        <v>43392.38280864583</v>
+      </c>
       <c r="AD74" s="4"/>
-      <c r="AE74" s="4"/>
+      <c r="AE74" s="5">
+        <v>43392.379</v>
+      </c>
       <c r="AF74" s="4"/>
-      <c r="AG74" s="4"/>
+      <c r="AG74" s="5">
+        <v>43355.49950894676</v>
+      </c>
     </row>
     <row r="75" spans="2:33">
       <c r="B75" s="2" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="E75" s="2">
-        <v>1274</v>
+        <v>999.9</v>
       </c>
       <c r="F75" s="2">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K75" s="3">
-        <v>43431.34257033565</v>
-      </c>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="K75" s="2"/>
+      <c r="L75" s="3">
+        <v>43391.55371793982</v>
+      </c>
+      <c r="M75" s="3">
+        <v>43391.58899548611</v>
+      </c>
+      <c r="N75" s="3">
+        <v>43391.58913888889</v>
+      </c>
+      <c r="O75" s="3">
+        <v>43439.45432114584</v>
+      </c>
+      <c r="P75" s="3">
+        <v>43439.54010605324</v>
+      </c>
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
       <c r="S75" s="2"/>
@@ -5313,41 +5380,43 @@
       <c r="AB75" s="2"/>
       <c r="AC75" s="2"/>
       <c r="AD75" s="2"/>
-      <c r="AE75" s="2"/>
+      <c r="AE75" s="3">
+        <v>43355.5001397338</v>
+      </c>
       <c r="AF75" s="2"/>
       <c r="AG75" s="2"/>
     </row>
     <row r="76" spans="2:33">
       <c r="B76" s="4" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D76" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E76" s="4">
+        <v>1212.1</v>
+      </c>
+      <c r="F76" s="4">
+        <v>211</v>
+      </c>
+      <c r="G76" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E76" s="4">
-        <v>10898.59</v>
-      </c>
-      <c r="F76" s="4">
-        <v>263</v>
-      </c>
-      <c r="G76" s="4"/>
       <c r="H76" s="4" t="s">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K76" s="5">
-        <v>43434.3854542824</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="K76" s="4"/>
       <c r="L76" s="5">
-        <v>43434.39015552084</v>
+        <v>43391.55371793982</v>
       </c>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
@@ -5355,9 +5424,7 @@
       <c r="P76" s="4"/>
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
-      <c r="S76" s="5">
-        <v>43434.39049725694</v>
-      </c>
+      <c r="S76" s="4"/>
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
       <c r="V76" s="4"/>
@@ -5365,50 +5432,54 @@
       <c r="X76" s="4"/>
       <c r="Y76" s="4"/>
       <c r="Z76" s="4"/>
-      <c r="AA76" s="4"/>
+      <c r="AA76" s="5">
+        <v>43355.50322824074</v>
+      </c>
       <c r="AB76" s="4"/>
       <c r="AC76" s="4"/>
       <c r="AD76" s="4"/>
       <c r="AE76" s="4"/>
       <c r="AF76" s="4"/>
-      <c r="AG76" s="4"/>
+      <c r="AG76" s="5">
+        <v>43392.60826030093</v>
+      </c>
     </row>
     <row r="77" spans="2:33">
       <c r="B77" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E77" s="2">
+        <v>123.4</v>
+      </c>
+      <c r="F77" s="2">
+        <v>214</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="H77" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E77" s="2">
-        <v>6515</v>
-      </c>
-      <c r="F77" s="2">
-        <v>265</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="I77" s="2" t="s">
-        <v>164</v>
+        <v>71</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
+      <c r="L77" s="3">
+        <v>43391.55371793982</v>
+      </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
-      <c r="P77" s="3">
-        <v>43434.46121357639</v>
-      </c>
+      <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
       <c r="S77" s="2"/>
@@ -5425,44 +5496,48 @@
       <c r="AD77" s="2"/>
       <c r="AE77" s="2"/>
       <c r="AF77" s="2"/>
-      <c r="AG77" s="2"/>
+      <c r="AG77" s="3">
+        <v>43355.50725003472</v>
+      </c>
     </row>
     <row r="78" spans="2:33">
       <c r="B78" s="4" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="D78" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E78" s="4">
+        <v>4500.99</v>
+      </c>
+      <c r="F78" s="4">
+        <v>215</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H78" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E78" s="4">
-        <v>5131</v>
-      </c>
-      <c r="F78" s="4">
-        <v>266</v>
-      </c>
-      <c r="G78" s="4" t="s">
+      <c r="I78" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="H78" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="J78" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="K78" s="5">
+        <v>43355.98111365741</v>
+      </c>
+      <c r="L78" s="5">
+        <v>43391.55371793982</v>
+      </c>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
-      <c r="P78" s="5">
-        <v>43434.46683680556</v>
-      </c>
+      <c r="P78" s="4"/>
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
@@ -5483,50 +5558,46 @@
     </row>
     <row r="79" spans="2:33">
       <c r="B79" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="E79" s="2">
-        <v>2689</v>
+        <v>8992</v>
       </c>
       <c r="F79" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>65</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
-      <c r="O79" s="3">
-        <v>43434.44846840278</v>
-      </c>
-      <c r="P79" s="3">
-        <v>43434.45525123843</v>
-      </c>
-      <c r="Q79" s="3">
-        <v>43434.49473491898</v>
-      </c>
-      <c r="R79" s="3">
-        <v>43434.55427731481</v>
-      </c>
-      <c r="S79" s="2"/>
-      <c r="T79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="3">
+        <v>43438.61147126157</v>
+      </c>
+      <c r="T79" s="3">
+        <v>43438.64856790509</v>
+      </c>
       <c r="U79" s="2"/>
       <c r="V79" s="2"/>
       <c r="W79" s="2"/>
@@ -5543,114 +5614,100 @@
     </row>
     <row r="80" spans="2:33">
       <c r="B80" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="E80" s="4">
-        <v>44.3</v>
+        <v>7962</v>
       </c>
       <c r="F80" s="4">
-        <v>209</v>
-      </c>
-      <c r="G80" s="4"/>
+        <v>268</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="H80" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K80" s="4"/>
-      <c r="L80" s="5">
-        <v>43391.55371793982</v>
-      </c>
+      <c r="L80" s="4"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
-      <c r="O80" s="5">
-        <v>43392.60218287037</v>
-      </c>
+      <c r="O80" s="4"/>
       <c r="P80" s="4"/>
       <c r="Q80" s="4"/>
-      <c r="R80" s="5">
-        <v>43392.59913460648</v>
-      </c>
-      <c r="S80" s="4"/>
+      <c r="R80" s="4"/>
+      <c r="S80" s="5">
+        <v>43438.61213920139</v>
+      </c>
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
       <c r="V80" s="4"/>
-      <c r="W80" s="5">
-        <v>43392.37946851852</v>
-      </c>
+      <c r="W80" s="4"/>
       <c r="X80" s="4"/>
-      <c r="Y80" s="5">
-        <v>43356.5440903588</v>
-      </c>
+      <c r="Y80" s="4"/>
       <c r="Z80" s="4"/>
       <c r="AA80" s="4"/>
       <c r="AB80" s="4"/>
-      <c r="AC80" s="5">
-        <v>43392.38280864583</v>
-      </c>
+      <c r="AC80" s="4"/>
       <c r="AD80" s="4"/>
-      <c r="AE80" s="5">
-        <v>43392.379</v>
-      </c>
+      <c r="AE80" s="4"/>
       <c r="AF80" s="4"/>
-      <c r="AG80" s="5">
-        <v>43355.49950894676</v>
-      </c>
+      <c r="AG80" s="4"/>
     </row>
     <row r="81" spans="2:33">
       <c r="B81" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="E81" s="2">
-        <v>999.9</v>
+        <v>9955</v>
       </c>
       <c r="F81" s="2">
-        <v>210</v>
+        <v>271</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>94</v>
+        <v>169</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K81" s="2"/>
-      <c r="L81" s="3">
-        <v>43391.55371793982</v>
-      </c>
-      <c r="M81" s="3">
-        <v>43391.58899548611</v>
-      </c>
-      <c r="N81" s="3">
-        <v>43391.58913888889</v>
-      </c>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
       <c r="R81" s="2"/>
-      <c r="S81" s="2"/>
-      <c r="T81" s="2"/>
+      <c r="S81" s="3">
+        <v>43438.63260651621</v>
+      </c>
+      <c r="T81" s="3">
+        <v>43438.64663344908</v>
+      </c>
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
       <c r="W81" s="2"/>
@@ -5661,44 +5718,42 @@
       <c r="AB81" s="2"/>
       <c r="AC81" s="2"/>
       <c r="AD81" s="2"/>
-      <c r="AE81" s="3">
-        <v>43355.5001397338</v>
-      </c>
+      <c r="AE81" s="2"/>
       <c r="AF81" s="2"/>
       <c r="AG81" s="2"/>
     </row>
     <row r="82" spans="2:33">
       <c r="B82" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E82" s="4">
+        <v>150.5</v>
+      </c>
+      <c r="F82" s="4">
+        <v>275</v>
+      </c>
+      <c r="G82" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="H82" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D82" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E82" s="4">
-        <v>1212.1</v>
-      </c>
-      <c r="F82" s="4">
-        <v>211</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>176</v>
-      </c>
       <c r="I82" s="4" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K82" s="4"/>
-      <c r="L82" s="5">
-        <v>43391.55371793982</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="K82" s="5">
+        <v>43439.36472627315</v>
+      </c>
+      <c r="L82" s="4"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
@@ -5713,50 +5768,46 @@
       <c r="X82" s="4"/>
       <c r="Y82" s="4"/>
       <c r="Z82" s="4"/>
-      <c r="AA82" s="5">
-        <v>43355.50322824074</v>
-      </c>
+      <c r="AA82" s="4"/>
       <c r="AB82" s="4"/>
       <c r="AC82" s="4"/>
       <c r="AD82" s="4"/>
       <c r="AE82" s="4"/>
       <c r="AF82" s="4"/>
-      <c r="AG82" s="5">
-        <v>43392.60826030093</v>
-      </c>
+      <c r="AG82" s="4"/>
     </row>
     <row r="83" spans="2:33">
       <c r="B83" s="2" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E83" s="2">
+        <v>200.3</v>
+      </c>
+      <c r="F83" s="2">
+        <v>276</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H83" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E83" s="2">
-        <v>123.4</v>
-      </c>
-      <c r="F83" s="2">
-        <v>214</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="I83" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K83" s="2"/>
-      <c r="L83" s="3">
-        <v>43391.55371793982</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="K83" s="3">
+        <v>43439.36865431713</v>
+      </c>
+      <c r="L83" s="2"/>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -5777,47 +5828,47 @@
       <c r="AD83" s="2"/>
       <c r="AE83" s="2"/>
       <c r="AF83" s="2"/>
-      <c r="AG83" s="3">
-        <v>43355.50725003472</v>
-      </c>
+      <c r="AG83" s="2"/>
     </row>
     <row r="84" spans="2:33">
       <c r="B84" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E84" s="4">
-        <v>4500.99</v>
+        <v>1290</v>
       </c>
       <c r="F84" s="4">
-        <v>215</v>
+        <v>169</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>179</v>
+        <v>76</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K84" s="5">
-        <v>43355.98111365741</v>
+        <v>43335.87885621528</v>
       </c>
       <c r="L84" s="5">
         <v>43391.55371793982</v>
       </c>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
-      <c r="O84" s="4"/>
+      <c r="O84" s="5">
+        <v>43392.38396674769</v>
+      </c>
       <c r="P84" s="4"/>
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
@@ -5839,33 +5890,37 @@
     </row>
     <row r="85" spans="2:33">
       <c r="B85" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E85" s="2">
+        <v>1290</v>
+      </c>
+      <c r="F85" s="2">
         <v>170</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E85" s="2">
-        <v>897.6</v>
-      </c>
-      <c r="F85" s="2">
-        <v>198</v>
-      </c>
-      <c r="G85" s="2"/>
+      <c r="G85" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="H85" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>72</v>
+        <v>179</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K85" s="2"/>
+      <c r="K85" s="3">
+        <v>43335.88066762732</v>
+      </c>
       <c r="L85" s="3">
-        <v>43391.55371793982</v>
+        <v>43360.87663854167</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -5880,9 +5935,7 @@
       <c r="W85" s="2"/>
       <c r="X85" s="2"/>
       <c r="Y85" s="2"/>
-      <c r="Z85" s="3">
-        <v>43355.34333680556</v>
-      </c>
+      <c r="Z85" s="2"/>
       <c r="AA85" s="2"/>
       <c r="AB85" s="2"/>
       <c r="AC85" s="2"/>
@@ -5893,28 +5946,28 @@
     </row>
     <row r="86" spans="2:33">
       <c r="B86" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E86" s="4">
-        <v>111.13</v>
+        <v>123.63</v>
       </c>
       <c r="F86" s="4">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J86" s="4" t="s">
         <v>10</v>
@@ -5927,7 +5980,9 @@
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
       <c r="P86" s="4"/>
-      <c r="Q86" s="4"/>
+      <c r="Q86" s="5">
+        <v>43353.51957114584</v>
+      </c>
       <c r="R86" s="4"/>
       <c r="S86" s="4"/>
       <c r="T86" s="4"/>
@@ -5935,9 +5990,7 @@
       <c r="V86" s="4"/>
       <c r="W86" s="4"/>
       <c r="X86" s="4"/>
-      <c r="Y86" s="5">
-        <v>43355.35701990741</v>
-      </c>
+      <c r="Y86" s="4"/>
       <c r="Z86" s="4"/>
       <c r="AA86" s="4"/>
       <c r="AB86" s="4"/>
@@ -5949,31 +6002,33 @@
     </row>
     <row r="87" spans="2:33">
       <c r="B87" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E87" s="2">
-        <v>656.5</v>
+        <v>500</v>
       </c>
       <c r="F87" s="2">
-        <v>206</v>
+        <v>132</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K87" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="K87" s="3">
+        <v>43325.37694837963</v>
+      </c>
       <c r="L87" s="3">
         <v>43391.55371793982</v>
       </c>
@@ -5981,64 +6036,58 @@
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
-      <c r="Q87" s="3">
-        <v>43392.59447809028</v>
-      </c>
-      <c r="R87" s="3">
-        <v>43392.59571153935</v>
-      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
-      <c r="V87" s="2"/>
-      <c r="W87" s="2"/>
+      <c r="V87" s="3">
+        <v>43325.88282913194</v>
+      </c>
+      <c r="W87" s="3">
+        <v>43349.45394853009</v>
+      </c>
       <c r="X87" s="2"/>
-      <c r="Y87" s="2"/>
+      <c r="Y87" s="3">
+        <v>43425.6049162037</v>
+      </c>
       <c r="Z87" s="2"/>
-      <c r="AA87" s="3">
-        <v>43355.36268865741</v>
-      </c>
+      <c r="AA87" s="2"/>
       <c r="AB87" s="2"/>
-      <c r="AC87" s="3">
-        <v>43392.59605755787</v>
-      </c>
-      <c r="AD87" s="3">
-        <v>43432.5430974537</v>
-      </c>
+      <c r="AC87" s="2"/>
+      <c r="AD87" s="2"/>
       <c r="AE87" s="2"/>
-      <c r="AF87" s="3">
-        <v>43392.39263005787</v>
-      </c>
+      <c r="AF87" s="2"/>
       <c r="AG87" s="2"/>
     </row>
     <row r="88" spans="2:33">
       <c r="B88" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E88" s="4">
-        <v>2213.6</v>
+        <v>500</v>
       </c>
       <c r="F88" s="4">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4" t="s">
-        <v>97</v>
+        <v>182</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="K88" s="5">
-        <v>43353.54484988426</v>
+        <v>43325.37695709491</v>
       </c>
       <c r="L88" s="5">
         <v>43391.55371793982</v>
@@ -6051,9 +6100,13 @@
       <c r="R88" s="4"/>
       <c r="S88" s="4"/>
       <c r="T88" s="4"/>
-      <c r="U88" s="4"/>
+      <c r="U88" s="5">
+        <v>43403.51982291666</v>
+      </c>
       <c r="V88" s="4"/>
-      <c r="W88" s="4"/>
+      <c r="W88" s="5">
+        <v>43357.56335949074</v>
+      </c>
       <c r="X88" s="4"/>
       <c r="Y88" s="4"/>
       <c r="Z88" s="4"/>
@@ -6067,42 +6120,38 @@
     </row>
     <row r="89" spans="2:33">
       <c r="B89" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E89" s="2">
-        <v>2213.6</v>
+        <v>500</v>
       </c>
       <c r="F89" s="2">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2" t="s">
-        <v>98</v>
+        <v>184</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="K89" s="3">
-        <v>43353.5448587963</v>
+        <v>43325.3769659375</v>
       </c>
       <c r="L89" s="3">
-        <v>43391.55371793982</v>
-      </c>
-      <c r="M89" s="3">
-        <v>43434.45494880787</v>
-      </c>
-      <c r="N89" s="3">
-        <v>43434.45565042824</v>
-      </c>
+        <v>43360.86807496528</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
@@ -6117,7 +6166,9 @@
       <c r="Z89" s="2"/>
       <c r="AA89" s="2"/>
       <c r="AB89" s="2"/>
-      <c r="AC89" s="2"/>
+      <c r="AC89" s="3">
+        <v>43392.3783931713</v>
+      </c>
       <c r="AD89" s="2"/>
       <c r="AE89" s="2"/>
       <c r="AF89" s="2"/>
@@ -6125,38 +6176,42 @@
     </row>
     <row r="90" spans="2:33">
       <c r="B90" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E90" s="4">
-        <v>232.2</v>
+        <v>500</v>
       </c>
       <c r="F90" s="4">
-        <v>182</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>179</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G90" s="4"/>
       <c r="H90" s="4" t="s">
         <v>186</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K90" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="K90" s="5">
+        <v>43325.37697457176</v>
+      </c>
       <c r="L90" s="5">
         <v>43391.55371793982</v>
       </c>
-      <c r="M90" s="4"/>
-      <c r="N90" s="4"/>
+      <c r="M90" s="5">
+        <v>43325.38381079861</v>
+      </c>
+      <c r="N90" s="5">
+        <v>43360.86822395834</v>
+      </c>
       <c r="O90" s="4"/>
       <c r="P90" s="4"/>
       <c r="Q90" s="4"/>
@@ -6168,9 +6223,7 @@
       <c r="W90" s="4"/>
       <c r="X90" s="4"/>
       <c r="Y90" s="4"/>
-      <c r="Z90" s="5">
-        <v>43353.58169262732</v>
-      </c>
+      <c r="Z90" s="4"/>
       <c r="AA90" s="4"/>
       <c r="AB90" s="4"/>
       <c r="AC90" s="4"/>
@@ -6181,46 +6234,50 @@
     </row>
     <row r="91" spans="2:33">
       <c r="B91" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E91" s="2">
-        <v>2903.5</v>
+        <v>500</v>
       </c>
       <c r="F91" s="2">
-        <v>184</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>187</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G91" s="2"/>
       <c r="H91" s="2" t="s">
-        <v>93</v>
+        <v>188</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K91" s="2"/>
+      <c r="K91" s="3">
+        <v>43325.37698341435</v>
+      </c>
       <c r="L91" s="3">
         <v>43391.55371793982</v>
       </c>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
+      <c r="M91" s="3">
+        <v>43325.38345362269</v>
+      </c>
+      <c r="N91" s="3">
+        <v>43325.39341686342</v>
+      </c>
+      <c r="O91" s="3">
+        <v>43325.38431385416</v>
+      </c>
       <c r="P91" s="2"/>
       <c r="Q91" s="2"/>
       <c r="R91" s="2"/>
       <c r="S91" s="2"/>
-      <c r="T91" s="3">
-        <v>43353.60090471065</v>
-      </c>
+      <c r="T91" s="2"/>
       <c r="U91" s="2"/>
       <c r="V91" s="2"/>
       <c r="W91" s="2"/>
@@ -6237,34 +6294,36 @@
     </row>
     <row r="92" spans="2:33">
       <c r="B92" s="4" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="E92" s="4">
-        <v>1676</v>
+        <v>230</v>
       </c>
       <c r="F92" s="4">
-        <v>250</v>
+        <v>137</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="I92" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="4" t="s">
-        <v>192</v>
-      </c>
       <c r="J92" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K92" s="5">
-        <v>43434.37020181713</v>
-      </c>
-      <c r="L92" s="4"/>
+        <v>43325.37699212963</v>
+      </c>
+      <c r="L92" s="5">
+        <v>43391.55371793982</v>
+      </c>
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
@@ -6289,34 +6348,36 @@
     </row>
     <row r="93" spans="2:33">
       <c r="B93" s="2" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="E93" s="2">
-        <v>1676</v>
+        <v>230</v>
       </c>
       <c r="F93" s="2">
-        <v>251</v>
+        <v>138</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I93" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="I93" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="J93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K93" s="3">
-        <v>43434.37021126157</v>
-      </c>
-      <c r="L93" s="2"/>
+        <v>43325.37700081019</v>
+      </c>
+      <c r="L93" s="3">
+        <v>43391.55371793982</v>
+      </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -6341,40 +6402,48 @@
     </row>
     <row r="94" spans="2:33">
       <c r="B94" s="4" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="E94" s="4">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="F94" s="4">
-        <v>252</v>
+        <v>139</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="4" t="s">
         <v>194</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K94" s="5">
-        <v>43434.37022075232</v>
-      </c>
-      <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
+        <v>43325.37700960648</v>
+      </c>
+      <c r="L94" s="5">
+        <v>43391.55371793982</v>
+      </c>
+      <c r="M94" s="5">
+        <v>43349.51082349537</v>
+      </c>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
       <c r="P94" s="4"/>
-      <c r="Q94" s="4"/>
-      <c r="R94" s="4"/>
+      <c r="Q94" s="5">
+        <v>43349.51102372685</v>
+      </c>
+      <c r="R94" s="5">
+        <v>43349.51809633102</v>
+      </c>
       <c r="S94" s="4"/>
       <c r="T94" s="4"/>
       <c r="U94" s="4"/>
@@ -6383,8 +6452,12 @@
       <c r="X94" s="4"/>
       <c r="Y94" s="4"/>
       <c r="Z94" s="4"/>
-      <c r="AA94" s="4"/>
-      <c r="AB94" s="4"/>
+      <c r="AA94" s="5">
+        <v>43349.51827619213</v>
+      </c>
+      <c r="AB94" s="5">
+        <v>43349.52063159722</v>
+      </c>
       <c r="AC94" s="4"/>
       <c r="AD94" s="4"/>
       <c r="AE94" s="4"/>
@@ -6393,34 +6466,38 @@
     </row>
     <row r="95" spans="2:33">
       <c r="B95" s="2" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="E95" s="2">
-        <v>1500</v>
+        <v>400.5</v>
       </c>
       <c r="F95" s="2">
-        <v>253</v>
-      </c>
-      <c r="G95" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="H95" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="K95" s="3">
-        <v>43434.37023005787</v>
-      </c>
-      <c r="L95" s="2"/>
+        <v>43349.39219606481</v>
+      </c>
+      <c r="L95" s="3">
+        <v>43391.55371793982</v>
+      </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -6437,7 +6514,9 @@
       <c r="Z95" s="2"/>
       <c r="AA95" s="2"/>
       <c r="AB95" s="2"/>
-      <c r="AC95" s="2"/>
+      <c r="AC95" s="3">
+        <v>43392.59261762731</v>
+      </c>
       <c r="AD95" s="2"/>
       <c r="AE95" s="2"/>
       <c r="AF95" s="2"/>
@@ -6445,40 +6524,46 @@
     </row>
     <row r="96" spans="2:33">
       <c r="B96" s="4" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="E96" s="4">
-        <v>1962</v>
+        <v>1125</v>
       </c>
       <c r="F96" s="4">
-        <v>254</v>
+        <v>140</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>192</v>
+        <v>47</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K96" s="5">
-        <v>43434.37023961805</v>
-      </c>
-      <c r="L96" s="4"/>
+        <v>43325.83706269676</v>
+      </c>
+      <c r="L96" s="5">
+        <v>43391.55371793982</v>
+      </c>
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
-      <c r="O96" s="4"/>
+      <c r="O96" s="5">
+        <v>43327.35744513889</v>
+      </c>
       <c r="P96" s="4"/>
       <c r="Q96" s="4"/>
-      <c r="R96" s="4"/>
+      <c r="R96" s="5">
+        <v>43327.3577871875</v>
+      </c>
       <c r="S96" s="4"/>
       <c r="T96" s="4"/>
       <c r="U96" s="4"/>
@@ -6497,32 +6582,32 @@
     </row>
     <row r="97" spans="2:33">
       <c r="B97" s="2" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="E97" s="2">
-        <v>1962</v>
+        <v>1945</v>
       </c>
       <c r="F97" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K97" s="3">
-        <v>43434.37024907408</v>
+        <v>43434.37016388889</v>
       </c>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
@@ -6549,32 +6634,32 @@
     </row>
     <row r="98" spans="2:33">
       <c r="B98" s="4" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="E98" s="4">
-        <v>2879</v>
+        <v>1945</v>
       </c>
       <c r="F98" s="4">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="4" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="J98" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K98" s="5">
-        <v>43434.3702584838</v>
+        <v>43434.37017334491</v>
       </c>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
@@ -6601,32 +6686,32 @@
     </row>
     <row r="99" spans="2:33">
       <c r="B99" s="2" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="E99" s="2">
-        <v>2879</v>
+        <v>1802</v>
       </c>
       <c r="F99" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K99" s="3">
-        <v>43434.37026802083</v>
+        <v>43434.37018283565</v>
       </c>
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
@@ -6653,36 +6738,34 @@
     </row>
     <row r="100" spans="2:33">
       <c r="B100" s="4" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="E100" s="4">
-        <v>1298</v>
+        <v>1802</v>
       </c>
       <c r="F100" s="4">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4" t="s">
-        <v>48</v>
+        <v>205</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K100" s="5">
-        <v>43434.37027746528</v>
-      </c>
-      <c r="L100" s="5">
-        <v>43434.45600648148</v>
-      </c>
+        <v>43434.37019232639</v>
+      </c>
+      <c r="L100" s="4"/>
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
@@ -6707,32 +6790,32 @@
     </row>
     <row r="101" spans="2:33">
       <c r="B101" s="2" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="E101" s="2">
-        <v>1082</v>
+        <v>438</v>
       </c>
       <c r="F101" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K101" s="3">
-        <v>43434.37028692129</v>
+        <v>43434.37029641204</v>
       </c>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
@@ -6759,32 +6842,32 @@
     </row>
     <row r="102" spans="2:33">
       <c r="B102" s="4" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="E102" s="4">
-        <v>1945</v>
+        <v>605</v>
       </c>
       <c r="F102" s="4">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="J102" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K102" s="5">
-        <v>43434.37016388889</v>
+        <v>43434.37030590278</v>
       </c>
       <c r="L102" s="4"/>
       <c r="M102" s="4"/>
@@ -6811,32 +6894,32 @@
     </row>
     <row r="103" spans="2:33">
       <c r="B103" s="2" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="E103" s="2">
-        <v>1945</v>
+        <v>829</v>
       </c>
       <c r="F103" s="2">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="G103" s="2"/>
       <c r="H103" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K103" s="3">
-        <v>43434.37017334491</v>
+        <v>43434.37031519676</v>
       </c>
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
@@ -6863,32 +6946,32 @@
     </row>
     <row r="104" spans="2:33">
       <c r="B104" s="4" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="E104" s="4">
-        <v>1802</v>
+        <v>1676</v>
       </c>
       <c r="F104" s="4">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="I104" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="I104" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="J104" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K104" s="5">
-        <v>43434.37018283565</v>
+        <v>43434.37020181713</v>
       </c>
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
@@ -6915,32 +6998,32 @@
     </row>
     <row r="105" spans="2:33">
       <c r="B105" s="2" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="E105" s="2">
-        <v>1802</v>
+        <v>1676</v>
       </c>
       <c r="F105" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G105" s="2"/>
       <c r="H105" s="2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K105" s="3">
-        <v>43434.37019232639</v>
+        <v>43434.37021126157</v>
       </c>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
@@ -6967,32 +7050,32 @@
     </row>
     <row r="106" spans="2:33">
       <c r="B106" s="4" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="E106" s="4">
-        <v>438</v>
+        <v>1500</v>
       </c>
       <c r="F106" s="4">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="4" t="s">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J106" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K106" s="5">
-        <v>43434.37029641204</v>
+        <v>43434.37022075232</v>
       </c>
       <c r="L106" s="4"/>
       <c r="M106" s="4"/>
@@ -7019,32 +7102,32 @@
     </row>
     <row r="107" spans="2:33">
       <c r="B107" s="2" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="E107" s="2">
-        <v>605</v>
+        <v>1500</v>
       </c>
       <c r="F107" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="G107" s="2"/>
       <c r="H107" s="2" t="s">
-        <v>56</v>
+        <v>211</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K107" s="3">
-        <v>43434.37030590278</v>
+        <v>43434.37023005787</v>
       </c>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
@@ -7071,32 +7154,32 @@
     </row>
     <row r="108" spans="2:33">
       <c r="B108" s="4" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="E108" s="4">
-        <v>829</v>
+        <v>1962</v>
       </c>
       <c r="F108" s="4">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J108" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K108" s="5">
-        <v>43434.37031519676</v>
+        <v>43434.37023961805</v>
       </c>
       <c r="L108" s="4"/>
       <c r="M108" s="4"/>
@@ -7121,8 +7204,272 @@
       <c r="AF108" s="4"/>
       <c r="AG108" s="4"/>
     </row>
+    <row r="109" spans="2:33">
+      <c r="B109" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E109" s="2">
+        <v>1962</v>
+      </c>
+      <c r="F109" s="2">
+        <v>255</v>
+      </c>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K109" s="3">
+        <v>43434.37024907408</v>
+      </c>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" s="2"/>
+      <c r="Q109" s="2"/>
+      <c r="R109" s="2"/>
+      <c r="S109" s="2"/>
+      <c r="T109" s="2"/>
+      <c r="U109" s="2"/>
+      <c r="V109" s="2"/>
+      <c r="W109" s="2"/>
+      <c r="X109" s="2"/>
+      <c r="Y109" s="2"/>
+      <c r="Z109" s="2"/>
+      <c r="AA109" s="2"/>
+      <c r="AB109" s="2"/>
+      <c r="AC109" s="2"/>
+      <c r="AD109" s="2"/>
+      <c r="AE109" s="2"/>
+      <c r="AF109" s="2"/>
+      <c r="AG109" s="2"/>
+    </row>
+    <row r="110" spans="2:33">
+      <c r="B110" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E110" s="4">
+        <v>2879</v>
+      </c>
+      <c r="F110" s="4">
+        <v>256</v>
+      </c>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K110" s="5">
+        <v>43434.3702584838</v>
+      </c>
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="4"/>
+      <c r="O110" s="4"/>
+      <c r="P110" s="4"/>
+      <c r="Q110" s="4"/>
+      <c r="R110" s="4"/>
+      <c r="S110" s="4"/>
+      <c r="T110" s="4"/>
+      <c r="U110" s="4"/>
+      <c r="V110" s="4"/>
+      <c r="W110" s="4"/>
+      <c r="X110" s="4"/>
+      <c r="Y110" s="4"/>
+      <c r="Z110" s="4"/>
+      <c r="AA110" s="4"/>
+      <c r="AB110" s="4"/>
+      <c r="AC110" s="4"/>
+      <c r="AD110" s="4"/>
+      <c r="AE110" s="4"/>
+      <c r="AF110" s="4"/>
+      <c r="AG110" s="4"/>
+    </row>
+    <row r="111" spans="2:33">
+      <c r="B111" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E111" s="2">
+        <v>2879</v>
+      </c>
+      <c r="F111" s="2">
+        <v>257</v>
+      </c>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K111" s="3">
+        <v>43434.37026802083</v>
+      </c>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+      <c r="P111" s="2"/>
+      <c r="Q111" s="2"/>
+      <c r="R111" s="2"/>
+      <c r="S111" s="2"/>
+      <c r="T111" s="2"/>
+      <c r="U111" s="2"/>
+      <c r="V111" s="2"/>
+      <c r="W111" s="2"/>
+      <c r="X111" s="2"/>
+      <c r="Y111" s="2"/>
+      <c r="Z111" s="2"/>
+      <c r="AA111" s="2"/>
+      <c r="AB111" s="2"/>
+      <c r="AC111" s="2"/>
+      <c r="AD111" s="2"/>
+      <c r="AE111" s="2"/>
+      <c r="AF111" s="2"/>
+      <c r="AG111" s="2"/>
+    </row>
+    <row r="112" spans="2:33">
+      <c r="B112" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E112" s="4">
+        <v>1298</v>
+      </c>
+      <c r="F112" s="4">
+        <v>258</v>
+      </c>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K112" s="5">
+        <v>43434.37027746528</v>
+      </c>
+      <c r="L112" s="5">
+        <v>43434.45600648148</v>
+      </c>
+      <c r="M112" s="4"/>
+      <c r="N112" s="4"/>
+      <c r="O112" s="4"/>
+      <c r="P112" s="4"/>
+      <c r="Q112" s="4"/>
+      <c r="R112" s="4"/>
+      <c r="S112" s="4"/>
+      <c r="T112" s="4"/>
+      <c r="U112" s="4"/>
+      <c r="V112" s="4"/>
+      <c r="W112" s="4"/>
+      <c r="X112" s="4"/>
+      <c r="Y112" s="4"/>
+      <c r="Z112" s="4"/>
+      <c r="AA112" s="4"/>
+      <c r="AB112" s="4"/>
+      <c r="AC112" s="4"/>
+      <c r="AD112" s="4"/>
+      <c r="AE112" s="4"/>
+      <c r="AF112" s="4"/>
+      <c r="AG112" s="4"/>
+    </row>
+    <row r="113" spans="2:33">
+      <c r="B113" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E113" s="2">
+        <v>1082</v>
+      </c>
+      <c r="F113" s="2">
+        <v>259</v>
+      </c>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K113" s="3">
+        <v>43434.37028692129</v>
+      </c>
+      <c r="L113" s="3">
+        <v>43437.01601547454</v>
+      </c>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
+      <c r="P113" s="2"/>
+      <c r="Q113" s="2"/>
+      <c r="R113" s="2"/>
+      <c r="S113" s="2"/>
+      <c r="T113" s="2"/>
+      <c r="U113" s="2"/>
+      <c r="V113" s="2"/>
+      <c r="W113" s="2"/>
+      <c r="X113" s="2"/>
+      <c r="Y113" s="2"/>
+      <c r="Z113" s="2"/>
+      <c r="AA113" s="2"/>
+      <c r="AB113" s="2"/>
+      <c r="AC113" s="2"/>
+      <c r="AD113" s="2"/>
+      <c r="AE113" s="2"/>
+      <c r="AF113" s="2"/>
+      <c r="AG113" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B2:AG108"/>
+  <autoFilter ref="B2:AG113"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/static/reports/DynamicReport.xlsx
+++ b/static/reports/DynamicReport.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Filters" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Filters!$B$2:$AG$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Filters!$B$2:$AG$125</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="234">
   <si>
     <t>ContractReference</t>
   </si>
@@ -115,18 +115,525 @@
     <t>Cancelled</t>
   </si>
   <si>
+    <t>Q18081565</t>
+  </si>
+  <si>
+    <t>Malvin Mashaba</t>
+  </si>
+  <si>
+    <t>2018-08-31</t>
+  </si>
+  <si>
+    <t>Alpheus Mjabulise Mzizi</t>
+  </si>
+  <si>
+    <t>D01</t>
+  </si>
+  <si>
+    <t>Clip 44 Single Hinged Door</t>
+  </si>
+  <si>
+    <t>C201807-01test</t>
+  </si>
+  <si>
+    <t>test 123</t>
+  </si>
+  <si>
+    <t>2018-10-13</t>
+  </si>
+  <si>
+    <t>AB D1-1</t>
+  </si>
+  <si>
+    <t>Door</t>
+  </si>
+  <si>
+    <t>AB D1-2</t>
+  </si>
+  <si>
+    <t>PN111297</t>
+  </si>
+  <si>
+    <t>K.S.W.(LAMDEN)</t>
+  </si>
+  <si>
+    <t>2018-11-22</t>
+  </si>
+  <si>
+    <t>Charlie Msiza</t>
+  </si>
+  <si>
+    <t>W01</t>
+  </si>
+  <si>
+    <t>CASEMENT 30.5 WINDOW</t>
+  </si>
+  <si>
+    <t>Patric Kola</t>
+  </si>
+  <si>
+    <t>W02A</t>
+  </si>
+  <si>
+    <t>ShaSha Raulinga</t>
+  </si>
+  <si>
+    <t>W02B</t>
+  </si>
+  <si>
+    <t>W03A</t>
+  </si>
+  <si>
+    <t>W03B</t>
+  </si>
+  <si>
+    <t>W03C</t>
+  </si>
+  <si>
+    <t>W03D</t>
+  </si>
+  <si>
+    <t>W03E</t>
+  </si>
+  <si>
+    <t>Steph Ngubeni</t>
+  </si>
+  <si>
+    <t>W04A</t>
+  </si>
+  <si>
+    <t>Obed M Tlale</t>
+  </si>
+  <si>
+    <t>W04B</t>
+  </si>
+  <si>
+    <t>W05A</t>
+  </si>
+  <si>
+    <t>W05B</t>
+  </si>
+  <si>
+    <t>W05 LAM</t>
+  </si>
+  <si>
+    <t>W05 TSG OBS</t>
+  </si>
+  <si>
+    <t>W06</t>
+  </si>
+  <si>
+    <t>W07A</t>
+  </si>
+  <si>
+    <t>W07B</t>
+  </si>
+  <si>
+    <t>W07C</t>
+  </si>
+  <si>
+    <t>W07D</t>
+  </si>
+  <si>
+    <t>W07 TSG OBS A</t>
+  </si>
+  <si>
+    <t>W07 TSG OBS B</t>
+  </si>
+  <si>
+    <t>W07 TSG OBS C</t>
+  </si>
+  <si>
+    <t>W07 TSG OBS D</t>
+  </si>
+  <si>
+    <t>W07 TSG OBS E</t>
+  </si>
+  <si>
+    <t>W07 TSG OBS F</t>
+  </si>
+  <si>
+    <t>W09A</t>
+  </si>
+  <si>
+    <t>W09B</t>
+  </si>
+  <si>
+    <t>Q18091932</t>
+  </si>
+  <si>
+    <t>Nick Artisans</t>
+  </si>
+  <si>
+    <t>2018-12-05</t>
+  </si>
+  <si>
+    <t>WPalaceM</t>
+  </si>
+  <si>
+    <t>Q18082301B</t>
+  </si>
+  <si>
+    <t>DuPlessis - Extras</t>
+  </si>
+  <si>
+    <t>2018-12-06</t>
+  </si>
+  <si>
+    <t>Lucky Nekhudzhiga</t>
+  </si>
+  <si>
+    <t>W4</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>WS-2</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>WA-1</t>
+  </si>
+  <si>
+    <t>Crealco Swift 30.5 Window -1</t>
+  </si>
+  <si>
+    <t>WA-2</t>
+  </si>
+  <si>
+    <t>Crealco Swift 30.5 Window -2</t>
+  </si>
+  <si>
+    <t>Reginald Nemalili</t>
+  </si>
+  <si>
+    <t>WA-3</t>
+  </si>
+  <si>
+    <t>Crealco Swift 30.5 Window -3</t>
+  </si>
+  <si>
+    <t>Admin2</t>
+  </si>
+  <si>
+    <t>WB-1</t>
+  </si>
+  <si>
+    <t>WB-2</t>
+  </si>
+  <si>
+    <t>WB-3</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crealco Swift 30.5 Window </t>
+  </si>
+  <si>
+    <t>WG-2</t>
+  </si>
+  <si>
+    <t>Crealco Swift 30.5 window</t>
+  </si>
+  <si>
+    <t>Q18100751</t>
+  </si>
+  <si>
+    <t>Alves</t>
+  </si>
+  <si>
+    <t>2018-12-07</t>
+  </si>
+  <si>
+    <t>Reymond Moshoeu</t>
+  </si>
+  <si>
+    <t>W30</t>
+  </si>
+  <si>
+    <t>Side hung</t>
+  </si>
+  <si>
+    <t>W27</t>
+  </si>
+  <si>
+    <t>Don</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office </t>
+  </si>
+  <si>
+    <t>2018-12-11</t>
+  </si>
+  <si>
+    <t>Prima PD</t>
+  </si>
+  <si>
+    <t>Q18060734</t>
+  </si>
+  <si>
+    <t>Peace Msinde</t>
+  </si>
+  <si>
+    <t>2018-12-12</t>
+  </si>
+  <si>
+    <t>D01B</t>
+  </si>
+  <si>
+    <t>WClip44</t>
+  </si>
+  <si>
+    <t>Palace</t>
+  </si>
+  <si>
+    <t>Zulu S Mbongeleni</t>
+  </si>
+  <si>
+    <t>W02</t>
+  </si>
+  <si>
+    <t>Daniel Kanyane (Daniels)</t>
+  </si>
+  <si>
+    <t>SD02</t>
+  </si>
+  <si>
+    <t>Vista</t>
+  </si>
+  <si>
+    <t>SD03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francois Burger </t>
+  </si>
+  <si>
+    <t>SD04</t>
+  </si>
+  <si>
+    <t>Dbl Hinged Door</t>
+  </si>
+  <si>
+    <t>SD05</t>
+  </si>
+  <si>
+    <t>SD07</t>
+  </si>
+  <si>
+    <t>Phophi Raulinga</t>
+  </si>
+  <si>
+    <t>Man. Office Frm</t>
+  </si>
+  <si>
+    <t>Store room</t>
+  </si>
+  <si>
+    <t>D01A</t>
+  </si>
+  <si>
+    <t>SD06</t>
+  </si>
+  <si>
+    <t>D02</t>
+  </si>
+  <si>
+    <t>WVista</t>
+  </si>
+  <si>
+    <t>Q18111303B</t>
+  </si>
+  <si>
+    <t>Koning</t>
+  </si>
+  <si>
+    <t>2018-12-21</t>
+  </si>
+  <si>
+    <t>W06-1</t>
+  </si>
+  <si>
+    <t>WSS1000</t>
+  </si>
+  <si>
+    <t>W06-2</t>
+  </si>
+  <si>
+    <t>W07-1</t>
+  </si>
+  <si>
+    <t>W07-2</t>
+  </si>
+  <si>
+    <t>W08-1</t>
+  </si>
+  <si>
+    <t>W08-2</t>
+  </si>
+  <si>
+    <t>W09-1</t>
+  </si>
+  <si>
+    <t>W09-2</t>
+  </si>
+  <si>
+    <t>Swift 30.5</t>
+  </si>
+  <si>
+    <t>W03</t>
+  </si>
+  <si>
+    <t>Test q1</t>
+  </si>
+  <si>
+    <t>A2-1</t>
+  </si>
+  <si>
+    <t>Win 29-1</t>
+  </si>
+  <si>
+    <t>A2-2</t>
+  </si>
+  <si>
+    <t>Win 29-2</t>
+  </si>
+  <si>
+    <t>A2-3</t>
+  </si>
+  <si>
+    <t>Win 29-3</t>
+  </si>
+  <si>
+    <t>A2-4</t>
+  </si>
+  <si>
+    <t>Win 29-4</t>
+  </si>
+  <si>
+    <t>A2-5</t>
+  </si>
+  <si>
+    <t>Win 29-5</t>
+  </si>
+  <si>
+    <t>B1-1</t>
+  </si>
+  <si>
+    <t>Dr 10-1</t>
+  </si>
+  <si>
+    <t>B1-2</t>
+  </si>
+  <si>
+    <t>Dr 10-2</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>Win 10</t>
+  </si>
+  <si>
+    <t>A100</t>
+  </si>
+  <si>
+    <t>Window 100</t>
+  </si>
+  <si>
+    <t>W01-1</t>
+  </si>
+  <si>
+    <t>Cas30.5</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>Window 2100</t>
+  </si>
+  <si>
+    <t>A19</t>
+  </si>
+  <si>
+    <t>Window 2101</t>
+  </si>
+  <si>
+    <t>W01-2</t>
+  </si>
+  <si>
+    <t>W05-1</t>
+  </si>
+  <si>
+    <t>W05-2</t>
+  </si>
+  <si>
+    <t>W04</t>
+  </si>
+  <si>
+    <t>W10</t>
+  </si>
+  <si>
+    <t>W11</t>
+  </si>
+  <si>
+    <t>AB D1</t>
+  </si>
+  <si>
+    <t>C201807-02</t>
+  </si>
+  <si>
+    <t>Fourier Approach</t>
+  </si>
+  <si>
+    <t>2019-01-24</t>
+  </si>
+  <si>
+    <t>W98</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>W56</t>
+  </si>
+  <si>
+    <t>Tessah Ncube</t>
+  </si>
+  <si>
+    <t>D33</t>
+  </si>
+  <si>
+    <t>Gibson Maphosa</t>
+  </si>
+  <si>
+    <t>DD01</t>
+  </si>
+  <si>
+    <t>Clip44</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>AB D2</t>
+  </si>
+  <si>
+    <t>FE-1198</t>
+  </si>
+  <si>
+    <t>Window_123</t>
+  </si>
+  <si>
     <t>Q18082501</t>
   </si>
   <si>
     <t>DuPlessis</t>
   </si>
   <si>
-    <t>2018-08-16</t>
-  </si>
-  <si>
-    <t>Reginald Nemalili</t>
-  </si>
-  <si>
     <t>W11-1</t>
   </si>
   <si>
@@ -157,27 +664,9 @@
     <t>Cas30.5-5</t>
   </si>
   <si>
-    <t>W01</t>
-  </si>
-  <si>
-    <t>Cas30.5</t>
-  </si>
-  <si>
-    <t>W02</t>
-  </si>
-  <si>
-    <t>W03</t>
-  </si>
-  <si>
-    <t>W04</t>
-  </si>
-  <si>
     <t>W05</t>
   </si>
   <si>
-    <t>W06</t>
-  </si>
-  <si>
     <t>W07</t>
   </si>
   <si>
@@ -187,9 +676,6 @@
     <t>W09</t>
   </si>
   <si>
-    <t>W10</t>
-  </si>
-  <si>
     <t>W12</t>
   </si>
   <si>
@@ -205,330 +691,15 @@
     <t>SFD02</t>
   </si>
   <si>
-    <t>Q18081565</t>
-  </si>
-  <si>
-    <t>Malvin Mashaba</t>
-  </si>
-  <si>
-    <t>2018-08-31</t>
-  </si>
-  <si>
-    <t>D01</t>
-  </si>
-  <si>
-    <t>Clip 44 Single Hinged Door</t>
-  </si>
-  <si>
-    <t>C201807-01test</t>
-  </si>
-  <si>
-    <t>test 123</t>
-  </si>
-  <si>
-    <t>2018-10-13</t>
-  </si>
-  <si>
-    <t>AB D1-1</t>
-  </si>
-  <si>
-    <t>Door</t>
-  </si>
-  <si>
-    <t>AB D1-2</t>
-  </si>
-  <si>
-    <t>PN111297</t>
-  </si>
-  <si>
-    <t>K.S.W.(LAMDEN)</t>
-  </si>
-  <si>
-    <t>2018-11-22</t>
-  </si>
-  <si>
-    <t>Charlie Msiza</t>
-  </si>
-  <si>
-    <t>CASEMENT 30.5 WINDOW</t>
-  </si>
-  <si>
-    <t>Patric Kola</t>
-  </si>
-  <si>
-    <t>W02A</t>
-  </si>
-  <si>
-    <t>ShaSha Raulinga</t>
-  </si>
-  <si>
-    <t>W02B</t>
-  </si>
-  <si>
-    <t>W03A</t>
-  </si>
-  <si>
-    <t>W03B</t>
-  </si>
-  <si>
-    <t>W03C</t>
-  </si>
-  <si>
-    <t>W03D</t>
-  </si>
-  <si>
-    <t>W03E</t>
-  </si>
-  <si>
-    <t>Steph Ngubeni</t>
-  </si>
-  <si>
-    <t>W04A</t>
-  </si>
-  <si>
-    <t>Obed M Tlale</t>
-  </si>
-  <si>
-    <t>W04B</t>
-  </si>
-  <si>
-    <t>W05A</t>
-  </si>
-  <si>
-    <t>W05B</t>
-  </si>
-  <si>
-    <t>W05 LAM</t>
-  </si>
-  <si>
-    <t>W05 TSG OBS</t>
-  </si>
-  <si>
-    <t>W07A</t>
-  </si>
-  <si>
-    <t>W07B</t>
-  </si>
-  <si>
-    <t>W07C</t>
-  </si>
-  <si>
-    <t>W07D</t>
-  </si>
-  <si>
-    <t>W07 TSG OBS A</t>
-  </si>
-  <si>
-    <t>W07 TSG OBS B</t>
-  </si>
-  <si>
-    <t>W07 TSG OBS C</t>
-  </si>
-  <si>
-    <t>W07 TSG OBS D</t>
-  </si>
-  <si>
-    <t>W07 TSG OBS E</t>
-  </si>
-  <si>
-    <t>W07 TSG OBS F</t>
-  </si>
-  <si>
-    <t>W09A</t>
-  </si>
-  <si>
-    <t>W09B</t>
-  </si>
-  <si>
-    <t>Q18091932</t>
-  </si>
-  <si>
-    <t>Nick Artisans</t>
-  </si>
-  <si>
-    <t>2018-12-05</t>
-  </si>
-  <si>
-    <t>WPalaceM</t>
-  </si>
-  <si>
-    <t>Q18082301B</t>
-  </si>
-  <si>
-    <t>DuPlessis - Extras</t>
-  </si>
-  <si>
-    <t>2018-12-06</t>
-  </si>
-  <si>
-    <t>Lucky Nekhudzhiga</t>
-  </si>
-  <si>
-    <t>W4</t>
-  </si>
-  <si>
-    <t>Window</t>
-  </si>
-  <si>
-    <t>WS-2</t>
-  </si>
-  <si>
-    <t>window</t>
-  </si>
-  <si>
-    <t>WA-1</t>
-  </si>
-  <si>
-    <t>Crealco Swift 30.5 Window -1</t>
-  </si>
-  <si>
-    <t>WA-2</t>
-  </si>
-  <si>
-    <t>Crealco Swift 30.5 Window -2</t>
-  </si>
-  <si>
-    <t>WA-3</t>
-  </si>
-  <si>
-    <t>Crealco Swift 30.5 Window -3</t>
-  </si>
-  <si>
-    <t>WB-1</t>
-  </si>
-  <si>
-    <t>WB-2</t>
-  </si>
-  <si>
-    <t>WB-3</t>
-  </si>
-  <si>
-    <t>WC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crealco Swift 30.5 Window </t>
-  </si>
-  <si>
-    <t>Alpheus Mjabulise Mzizi</t>
-  </si>
-  <si>
-    <t>WG-2</t>
-  </si>
-  <si>
-    <t>Crealco Swift 30.5 window</t>
-  </si>
-  <si>
-    <t>Q18100751</t>
-  </si>
-  <si>
-    <t>Alves</t>
-  </si>
-  <si>
-    <t>2018-12-07</t>
-  </si>
-  <si>
-    <t>Reymond Moshoeu</t>
-  </si>
-  <si>
-    <t>W30</t>
-  </si>
-  <si>
-    <t>Side hung</t>
-  </si>
-  <si>
-    <t>W27</t>
-  </si>
-  <si>
-    <t>Don</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Office </t>
-  </si>
-  <si>
-    <t>2018-12-11</t>
-  </si>
-  <si>
-    <t>Prima PD</t>
-  </si>
-  <si>
-    <t>C201807-02</t>
-  </si>
-  <si>
-    <t>Fourier Approach</t>
-  </si>
-  <si>
-    <t>2018-12-12</t>
-  </si>
-  <si>
     <t>W2</t>
   </si>
   <si>
     <t>Stephen Moshoeu</t>
   </si>
   <si>
-    <t>W1</t>
-  </si>
-  <si>
     <t>B1</t>
   </si>
   <si>
-    <t>Gibson Maphosa</t>
-  </si>
-  <si>
-    <t>AB D2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francois Burger </t>
-  </si>
-  <si>
-    <t>AB D1</t>
-  </si>
-  <si>
-    <t>W98</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>Phophi Raulinga</t>
-  </si>
-  <si>
-    <t>W56</t>
-  </si>
-  <si>
-    <t>Tessah Ncube</t>
-  </si>
-  <si>
-    <t>D33</t>
-  </si>
-  <si>
-    <t>DD01</t>
-  </si>
-  <si>
-    <t>Clip44</t>
-  </si>
-  <si>
-    <t>Q18060734</t>
-  </si>
-  <si>
-    <t>Peace Msinde</t>
-  </si>
-  <si>
-    <t>WClip44</t>
-  </si>
-  <si>
-    <t>Daniel Kanyane (Daniels)</t>
-  </si>
-  <si>
-    <t>SD06</t>
-  </si>
-  <si>
-    <t>D02</t>
-  </si>
-  <si>
-    <t>WVista</t>
-  </si>
-  <si>
     <t>Cynthia Ngcobo</t>
   </si>
   <si>
@@ -538,133 +709,16 @@
     <t>D1441</t>
   </si>
   <si>
-    <t>C201807-test 01</t>
-  </si>
-  <si>
-    <t>Test q1</t>
-  </si>
-  <si>
-    <t>2018-12-20</t>
-  </si>
-  <si>
-    <t>A18</t>
-  </si>
-  <si>
-    <t>Window 2100</t>
-  </si>
-  <si>
-    <t>A19</t>
-  </si>
-  <si>
-    <t>Window 2101</t>
-  </si>
-  <si>
-    <t>A2-1</t>
-  </si>
-  <si>
-    <t>Win 29-1</t>
-  </si>
-  <si>
-    <t>A2-2</t>
-  </si>
-  <si>
-    <t>Win 29-2</t>
-  </si>
-  <si>
-    <t>A2-3</t>
-  </si>
-  <si>
-    <t>Win 29-3</t>
-  </si>
-  <si>
-    <t>A2-4</t>
-  </si>
-  <si>
-    <t>Win 29-4</t>
-  </si>
-  <si>
-    <t>A2-5</t>
-  </si>
-  <si>
-    <t>Win 29-5</t>
-  </si>
-  <si>
-    <t>B1-1</t>
-  </si>
-  <si>
-    <t>Dr 10-1</t>
-  </si>
-  <si>
-    <t>B1-2</t>
-  </si>
-  <si>
-    <t>Dr 10-2</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>Win 10</t>
-  </si>
-  <si>
-    <t>A100</t>
-  </si>
-  <si>
-    <t>Window 100</t>
-  </si>
-  <si>
-    <t>W01-1</t>
-  </si>
-  <si>
-    <t>Q18111303B</t>
-  </si>
-  <si>
-    <t>Koning</t>
-  </si>
-  <si>
-    <t>2018-12-21</t>
-  </si>
-  <si>
-    <t>WSS1000</t>
-  </si>
-  <si>
-    <t>W01-2</t>
-  </si>
-  <si>
-    <t>W05-1</t>
-  </si>
-  <si>
-    <t>W05-2</t>
-  </si>
-  <si>
-    <t>Swift 30.5</t>
-  </si>
-  <si>
-    <t>W11</t>
-  </si>
-  <si>
-    <t>W06-1</t>
-  </si>
-  <si>
-    <t>W06-2</t>
-  </si>
-  <si>
-    <t>W07-1</t>
-  </si>
-  <si>
-    <t>W07-2</t>
-  </si>
-  <si>
-    <t>W08-1</t>
-  </si>
-  <si>
-    <t>W08-2</t>
-  </si>
-  <si>
-    <t>W09-1</t>
-  </si>
-  <si>
-    <t>W09-2</t>
+    <t>T-1189</t>
+  </si>
+  <si>
+    <t>Test 1189</t>
+  </si>
+  <si>
+    <t>2019-01-25</t>
+  </si>
+  <si>
+    <t>W-100</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1077,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:AG113"/>
+  <dimension ref="B2:AG125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1141,10 +1195,10 @@
         <v>34</v>
       </c>
       <c r="E3" s="2">
-        <v>1400</v>
+        <v>3285</v>
       </c>
       <c r="F3" s="2">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>35</v>
@@ -1156,77 +1210,47 @@
         <v>37</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="3">
-        <v>43325.85334251157</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="K3" s="2"/>
       <c r="L3" s="3">
-        <v>43357.52954050926</v>
+        <v>43391.55371793982</v>
       </c>
       <c r="M3" s="3">
-        <v>43392.39436003472</v>
-      </c>
-      <c r="N3" s="3">
-        <v>43392.59294251158</v>
-      </c>
-      <c r="O3" s="3">
-        <v>43426.48486284722</v>
-      </c>
-      <c r="P3" s="3">
-        <v>43426.48502010417</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>43357.54327334491</v>
-      </c>
+        <v>43349.34998055555</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
       <c r="R3" s="3">
-        <v>43426.48537762732</v>
+        <v>43403.398634375</v>
       </c>
       <c r="S3" s="3">
-        <v>43426.48554409722</v>
+        <v>43473.36019725694</v>
       </c>
       <c r="T3" s="3">
-        <v>43426.48569085648</v>
+        <v>43473.36037546297</v>
       </c>
       <c r="U3" s="3">
-        <v>43425.59099123842</v>
+        <v>43473.36060667824</v>
       </c>
       <c r="V3" s="3">
-        <v>43426.48599872685</v>
-      </c>
-      <c r="W3" s="3">
-        <v>43356.00155771991</v>
-      </c>
-      <c r="X3" s="3">
-        <v>43403.51755150463</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>43325.86092118055</v>
-      </c>
-      <c r="Z3" s="3">
-        <v>43339.49630829861</v>
-      </c>
+        <v>43356.53786246528</v>
+      </c>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
       <c r="AA3" s="3">
-        <v>43349.52683082176</v>
-      </c>
-      <c r="AB3" s="3">
-        <v>43426.48729016204</v>
-      </c>
-      <c r="AC3" s="3">
-        <v>43426.48802997685</v>
-      </c>
-      <c r="AD3" s="3">
-        <v>43426.48817688657</v>
-      </c>
-      <c r="AE3" s="3">
-        <v>43356.54689861111</v>
-      </c>
-      <c r="AF3" s="3">
-        <v>43426.48384221065</v>
-      </c>
-      <c r="AG3" s="3">
-        <v>43357.52339224537</v>
-      </c>
+        <v>43392.60645347222</v>
+      </c>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="4" t="s">
@@ -1239,10 +1263,10 @@
         <v>34</v>
       </c>
       <c r="E4" s="4">
-        <v>1400</v>
+        <v>3285</v>
       </c>
       <c r="F4" s="4">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>35</v>
@@ -1254,190 +1278,130 @@
         <v>37</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="5">
-        <v>43325.85334251157</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="K4" s="4"/>
       <c r="L4" s="5">
-        <v>43357.52954050926</v>
+        <v>43391.55371793982</v>
       </c>
       <c r="M4" s="5">
-        <v>43392.39436003472</v>
-      </c>
-      <c r="N4" s="5">
-        <v>43392.59294251158</v>
-      </c>
-      <c r="O4" s="5">
-        <v>43426.48486284722</v>
-      </c>
-      <c r="P4" s="5">
-        <v>43426.48502010417</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>43357.54327334491</v>
-      </c>
+        <v>43349.34998055555</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
       <c r="R4" s="5">
-        <v>43426.48537762732</v>
+        <v>43403.398634375</v>
       </c>
       <c r="S4" s="5">
-        <v>43426.48554409722</v>
+        <v>43473.36019725694</v>
       </c>
       <c r="T4" s="5">
-        <v>43426.48569085648</v>
+        <v>43473.36037546297</v>
       </c>
       <c r="U4" s="5">
-        <v>43425.59099123842</v>
+        <v>43473.36060667824</v>
       </c>
       <c r="V4" s="5">
-        <v>43426.48599872685</v>
-      </c>
-      <c r="W4" s="5">
-        <v>43356.00155771991</v>
-      </c>
-      <c r="X4" s="5">
-        <v>43403.51755150463</v>
-      </c>
-      <c r="Y4" s="5">
-        <v>43325.86092118055</v>
-      </c>
-      <c r="Z4" s="5">
-        <v>43339.49630829861</v>
-      </c>
+        <v>43356.53786246528</v>
+      </c>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
       <c r="AA4" s="5">
-        <v>43349.52683082176</v>
-      </c>
-      <c r="AB4" s="5">
-        <v>43426.48729016204</v>
-      </c>
-      <c r="AC4" s="5">
-        <v>43426.48802997685</v>
-      </c>
-      <c r="AD4" s="5">
-        <v>43426.48817688657</v>
-      </c>
-      <c r="AE4" s="5">
-        <v>43356.54689861111</v>
-      </c>
-      <c r="AF4" s="5">
-        <v>43426.48384221065</v>
-      </c>
-      <c r="AG4" s="5">
-        <v>43357.52339224537</v>
-      </c>
+        <v>43392.60645347222</v>
+      </c>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
     </row>
     <row r="5" spans="2:33">
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2">
-        <v>1400</v>
+        <v>3489.21</v>
       </c>
       <c r="F5" s="2">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="K5" s="3">
-        <v>43325.85335107639</v>
+        <v>43353.5231221412</v>
       </c>
       <c r="L5" s="3">
-        <v>43403.39158005787</v>
-      </c>
-      <c r="M5" s="3">
-        <v>43425.60372349537</v>
-      </c>
+        <v>43391.55371793982</v>
+      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="3">
-        <v>43357.53069618055</v>
-      </c>
+      <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="3">
-        <v>43425.60364771991</v>
-      </c>
-      <c r="R5" s="3">
-        <v>43341.81454212963</v>
-      </c>
-      <c r="S5" s="3">
-        <v>43425.60379915509</v>
-      </c>
-      <c r="T5" s="3">
-        <v>43355.66658993056</v>
-      </c>
-      <c r="U5" s="3">
-        <v>43392.37386975694</v>
-      </c>
-      <c r="V5" s="3">
-        <v>43392.39350228009</v>
-      </c>
-      <c r="W5" s="3">
-        <v>43425.6035721412</v>
-      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="3">
-        <v>43425.60394710648</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>43430.44715864583</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>43403.51805023148</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>43403.54451539352</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>43425.60356909722</v>
-      </c>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
-      <c r="AG5" s="3">
-        <v>43356.54717106481</v>
-      </c>
+      <c r="AG5" s="2"/>
     </row>
     <row r="6" spans="2:33">
       <c r="B6" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E6" s="4">
-        <v>1400</v>
+        <v>3489.21</v>
       </c>
       <c r="F6" s="4">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="K6" s="5">
-        <v>43325.8533596412</v>
+        <v>43353.52313109954</v>
       </c>
       <c r="L6" s="5">
         <v>43391.55371793982</v>
@@ -1450,61 +1414,53 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="5">
-        <v>43391.55682908565</v>
-      </c>
-      <c r="V6" s="5">
-        <v>43403.53088052083</v>
-      </c>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
-      <c r="AA6" s="5">
-        <v>43356.54789814815</v>
-      </c>
-      <c r="AB6" s="5">
-        <v>43432.45857870371</v>
-      </c>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
-      <c r="AD6" s="5">
-        <v>43356.00206273148</v>
-      </c>
+      <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
     </row>
     <row r="7" spans="2:33">
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2">
-        <v>1400</v>
+        <v>2589</v>
       </c>
       <c r="F7" s="2">
-        <v>144</v>
-      </c>
-      <c r="G7" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="H7" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="K7" s="3">
-        <v>43325.85336820602</v>
+        <v>43426.66180609954</v>
       </c>
       <c r="L7" s="3">
-        <v>43391.55371793982</v>
+        <v>43431.35680737269</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1512,99 +1468,69 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="3">
-        <v>43356.53652905093</v>
-      </c>
-      <c r="T7" s="3">
-        <v>43391.5498974537</v>
-      </c>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="3">
-        <v>43430.4798121875</v>
-      </c>
+      <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="3">
-        <v>43325.86150505787</v>
-      </c>
-      <c r="AB7" s="3">
-        <v>43349.34998055555</v>
-      </c>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
-      <c r="AG7" s="3">
-        <v>43426.55960868055</v>
-      </c>
+      <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="2:33">
       <c r="B8" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E8" s="4">
-        <v>1400</v>
+        <v>1976</v>
       </c>
       <c r="F8" s="4">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="K8" s="5">
-        <v>43325.85337673611</v>
-      </c>
-      <c r="L8" s="5">
-        <v>43391.55371793982</v>
-      </c>
+        <v>43431.31553449074</v>
+      </c>
+      <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="5">
-        <v>43325.87537685185</v>
-      </c>
-      <c r="S8" s="5">
-        <v>43325.88645778935</v>
-      </c>
-      <c r="T8" s="5">
-        <v>43325.88772708333</v>
-      </c>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
-      <c r="W8" s="5">
-        <v>43392.3743303588</v>
-      </c>
-      <c r="X8" s="5">
-        <v>43432.45397508102</v>
-      </c>
-      <c r="Y8" s="5">
-        <v>43437.62742549769</v>
-      </c>
-      <c r="Z8" s="5">
-        <v>43437.62755628472</v>
-      </c>
-      <c r="AA8" s="5">
-        <v>43437.8774584838</v>
-      </c>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
@@ -1614,35 +1540,37 @@
     </row>
     <row r="9" spans="2:33">
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2">
-        <v>1400</v>
+        <v>1976</v>
       </c>
       <c r="F9" s="2">
-        <v>146</v>
-      </c>
-      <c r="G9" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H9" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K9" s="3">
-        <v>43325.85338530093</v>
+        <v>43431.31726423611</v>
       </c>
       <c r="L9" s="3">
-        <v>43391.55371793982</v>
+        <v>43437.01041712963</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1655,76 +1583,62 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
-      <c r="X9" s="3">
-        <v>43355.95603020833</v>
-      </c>
+      <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
-      <c r="AE9" s="3">
-        <v>43425.60557357639</v>
-      </c>
-      <c r="AF9" s="3">
-        <v>43433.62801076389</v>
-      </c>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
     </row>
     <row r="10" spans="2:33">
       <c r="B10" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E10" s="4">
-        <v>1400</v>
+        <v>1246</v>
       </c>
       <c r="F10" s="4">
-        <v>147</v>
-      </c>
-      <c r="G10" s="4"/>
+        <v>219</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="H10" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K10" s="5">
-        <v>43325.85339386574</v>
+        <v>43431.31823098379</v>
       </c>
       <c r="L10" s="5">
-        <v>43391.55371793982</v>
+        <v>43437.01052369213</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="5">
-        <v>43425.61105219908</v>
-      </c>
-      <c r="P10" s="5">
-        <v>43434.45466712963</v>
-      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="5">
-        <v>43403.51181759259</v>
-      </c>
-      <c r="T10" s="5">
-        <v>43425.60397202546</v>
-      </c>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
-      <c r="W10" s="5">
-        <v>43341.81656403935</v>
-      </c>
+      <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
@@ -1738,36 +1652,36 @@
     </row>
     <row r="11" spans="2:33">
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2">
-        <v>1400</v>
+        <v>1246</v>
       </c>
       <c r="F11" s="2">
-        <v>148</v>
-      </c>
-      <c r="G11" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="H11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K11" s="3">
-        <v>43325.85340243056</v>
-      </c>
-      <c r="L11" s="3">
-        <v>43325.883859375</v>
-      </c>
+        <v>43431.31905451389</v>
+      </c>
+      <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1781,9 +1695,7 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
-      <c r="Z11" s="3">
-        <v>43355.66705142361</v>
-      </c>
+      <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
@@ -1794,36 +1706,36 @@
     </row>
     <row r="12" spans="2:33">
       <c r="B12" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E12" s="4">
-        <v>1400</v>
+        <v>1246</v>
       </c>
       <c r="F12" s="4">
-        <v>149</v>
-      </c>
-      <c r="G12" s="4"/>
+        <v>221</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="H12" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="K12" s="5">
-        <v>43325.85341099537</v>
-      </c>
-      <c r="L12" s="5">
-        <v>43325.88402658565</v>
-      </c>
+        <v>43431.32505871528</v>
+      </c>
+      <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1832,22 +1744,14 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
-      <c r="U12" s="5">
-        <v>43425.61165709491</v>
-      </c>
-      <c r="V12" s="5">
-        <v>43425.61223758102</v>
-      </c>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
-      <c r="AA12" s="5">
-        <v>43430.47100767361</v>
-      </c>
-      <c r="AB12" s="5">
-        <v>43437.87755686342</v>
-      </c>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
@@ -1856,36 +1760,36 @@
     </row>
     <row r="13" spans="2:33">
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E13" s="2">
-        <v>1400</v>
+        <v>1246</v>
       </c>
       <c r="F13" s="2">
-        <v>150</v>
-      </c>
-      <c r="G13" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="H13" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="K13" s="3">
-        <v>43325.85341956018</v>
-      </c>
-      <c r="L13" s="3">
-        <v>43391.55371793982</v>
-      </c>
+        <v>43431.32652627315</v>
+      </c>
+      <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -1894,12 +1798,8 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-      <c r="U13" s="3">
-        <v>43339.49207233796</v>
-      </c>
-      <c r="V13" s="3">
-        <v>43339.49216149306</v>
-      </c>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
@@ -1908,44 +1808,42 @@
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
-      <c r="AE13" s="3">
-        <v>43392.37512021991</v>
-      </c>
+      <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
     </row>
     <row r="14" spans="2:33">
       <c r="B14" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E14" s="4">
-        <v>1400</v>
+        <v>1246</v>
       </c>
       <c r="F14" s="4">
-        <v>151</v>
-      </c>
-      <c r="G14" s="4"/>
+        <v>223</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="H14" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="K14" s="5">
-        <v>43325.853428125</v>
-      </c>
-      <c r="L14" s="5">
-        <v>43391.55371793982</v>
-      </c>
+        <v>43431.32735717593</v>
+      </c>
+      <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -1960,9 +1858,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
-      <c r="AA14" s="5">
-        <v>43392.59710787037</v>
-      </c>
+      <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
@@ -1972,42 +1868,38 @@
     </row>
     <row r="15" spans="2:33">
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E15" s="2">
-        <v>1400</v>
+        <v>1710</v>
       </c>
       <c r="F15" s="2">
-        <v>152</v>
-      </c>
-      <c r="G15" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="H15" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K15" s="3">
-        <v>43325.85343668982</v>
-      </c>
-      <c r="L15" s="3">
-        <v>43391.55371793982</v>
-      </c>
-      <c r="M15" s="3">
-        <v>43433.62821423611</v>
-      </c>
-      <c r="N15" s="3">
-        <v>43433.6283375</v>
-      </c>
+        <v>43431.32860771991</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -2030,40 +1922,38 @@
     </row>
     <row r="16" spans="2:33">
       <c r="B16" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E16" s="4">
-        <v>1400</v>
+        <v>1710</v>
       </c>
       <c r="F16" s="4">
-        <v>153</v>
-      </c>
-      <c r="G16" s="4"/>
+        <v>225</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="H16" s="4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K16" s="5">
-        <v>43325.85344540509</v>
-      </c>
-      <c r="L16" s="5">
-        <v>43391.55371793982</v>
-      </c>
+        <v>43431.32928263889</v>
+      </c>
+      <c r="L16" s="4"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="5">
-        <v>43353.63381585648</v>
-      </c>
+      <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -2086,36 +1976,36 @@
     </row>
     <row r="17" spans="2:33">
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E17" s="2">
-        <v>1400</v>
+        <v>1060</v>
       </c>
       <c r="F17" s="2">
-        <v>154</v>
-      </c>
-      <c r="G17" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="H17" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K17" s="3">
-        <v>43325.85345396991</v>
-      </c>
-      <c r="L17" s="3">
-        <v>43391.55371793982</v>
-      </c>
+        <v>43431.32998915509</v>
+      </c>
+      <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2140,36 +2030,36 @@
     </row>
     <row r="18" spans="2:33">
       <c r="B18" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E18" s="4">
-        <v>1400</v>
+        <v>1444</v>
       </c>
       <c r="F18" s="4">
-        <v>155</v>
-      </c>
-      <c r="G18" s="4"/>
+        <v>227</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="H18" s="4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K18" s="5">
-        <v>43325.8534625</v>
-      </c>
-      <c r="L18" s="5">
-        <v>43391.55371793982</v>
-      </c>
+        <v>43431.33062260417</v>
+      </c>
+      <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -2194,36 +2084,36 @@
     </row>
     <row r="19" spans="2:33">
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E19" s="2">
-        <v>1400</v>
+        <v>1060</v>
       </c>
       <c r="F19" s="2">
-        <v>156</v>
-      </c>
-      <c r="G19" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="H19" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K19" s="3">
-        <v>43325.85347109954</v>
-      </c>
-      <c r="L19" s="3">
-        <v>43391.55371793982</v>
-      </c>
+        <v>43431.33168799768</v>
+      </c>
+      <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2248,39 +2138,37 @@
     </row>
     <row r="20" spans="2:33">
       <c r="B20" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E20" s="4">
-        <v>1400</v>
+        <v>1444</v>
       </c>
       <c r="F20" s="4">
-        <v>157</v>
-      </c>
-      <c r="G20" s="4"/>
+        <v>229</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="H20" s="4" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="5">
-        <v>43325.85347966435</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="K20" s="4"/>
       <c r="L20" s="5">
-        <v>43391.55371793982</v>
-      </c>
-      <c r="M20" s="5">
-        <v>43356.53822248842</v>
-      </c>
+        <v>43431.33277589121</v>
+      </c>
+      <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
@@ -2300,49 +2188,45 @@
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
       <c r="AF20" s="4"/>
-      <c r="AG20" s="5">
-        <v>43433.62900300926</v>
-      </c>
+      <c r="AG20" s="4"/>
     </row>
     <row r="21" spans="2:33">
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E21" s="2">
-        <v>5000</v>
+        <v>961</v>
       </c>
       <c r="F21" s="2">
-        <v>158</v>
-      </c>
-      <c r="G21" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H21" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K21" s="3">
-        <v>43325.85348822916</v>
-      </c>
-      <c r="L21" s="3">
-        <v>43391.55371793982</v>
-      </c>
+        <v>43431.3333431713</v>
+      </c>
+      <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="3">
-        <v>43356.00295289352</v>
-      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
@@ -2362,36 +2246,36 @@
     </row>
     <row r="22" spans="2:33">
       <c r="B22" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E22" s="4">
-        <v>7000</v>
+        <v>644</v>
       </c>
       <c r="F22" s="4">
-        <v>159</v>
-      </c>
-      <c r="G22" s="4"/>
+        <v>231</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="H22" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K22" s="5">
-        <v>43325.85349672454</v>
-      </c>
-      <c r="L22" s="5">
-        <v>43391.55371793982</v>
-      </c>
+        <v>43431.33393753472</v>
+      </c>
+      <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -2406,9 +2290,7 @@
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
-      <c r="AA22" s="5">
-        <v>43325.86277569445</v>
-      </c>
+      <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
@@ -2418,57 +2300,51 @@
     </row>
     <row r="23" spans="2:33">
       <c r="B23" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2">
-        <v>3285</v>
+        <v>644</v>
       </c>
       <c r="F23" s="2">
-        <v>171</v>
-      </c>
-      <c r="G23" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H23" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="3">
-        <v>43391.55371793982</v>
-      </c>
-      <c r="M23" s="3">
-        <v>43349.34998055555</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="K23" s="3">
+        <v>43431.33469861111</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
-      <c r="R23" s="3">
-        <v>43403.398634375</v>
-      </c>
+      <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
-      <c r="V23" s="3">
-        <v>43356.53786246528</v>
-      </c>
+      <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
-      <c r="AA23" s="3">
-        <v>43392.60645347222</v>
-      </c>
+      <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
@@ -2478,36 +2354,36 @@
     </row>
     <row r="24" spans="2:33">
       <c r="B24" s="4" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="E24" s="4">
-        <v>3489.21</v>
+        <v>644</v>
       </c>
       <c r="F24" s="4">
-        <v>176</v>
-      </c>
-      <c r="G24" s="4"/>
+        <v>233</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="H24" s="4" t="s">
         <v>70</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K24" s="5">
-        <v>43353.5231221412</v>
-      </c>
-      <c r="L24" s="5">
-        <v>43391.55371793982</v>
-      </c>
+        <v>43431.33603614583</v>
+      </c>
+      <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -2532,36 +2408,36 @@
     </row>
     <row r="25" spans="2:33">
       <c r="B25" s="2" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2">
-        <v>3489.21</v>
+        <v>644</v>
       </c>
       <c r="F25" s="2">
-        <v>177</v>
-      </c>
-      <c r="G25" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="H25" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K25" s="3">
-        <v>43353.52313109954</v>
-      </c>
-      <c r="L25" s="3">
-        <v>43391.55371793982</v>
-      </c>
+        <v>43431.33730008102</v>
+      </c>
+      <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -2586,38 +2462,36 @@
     </row>
     <row r="26" spans="2:33">
       <c r="B26" s="4" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="E26" s="4">
-        <v>2589</v>
+        <v>1246</v>
       </c>
       <c r="F26" s="4">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K26" s="5">
-        <v>43426.66180609954</v>
-      </c>
-      <c r="L26" s="5">
-        <v>43431.35680737269</v>
-      </c>
+        <v>43431.33785347222</v>
+      </c>
+      <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -2642,36 +2516,36 @@
     </row>
     <row r="27" spans="2:33">
       <c r="B27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1246</v>
+      </c>
+      <c r="F27" s="2">
+        <v>236</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1976</v>
-      </c>
-      <c r="F27" s="2">
-        <v>217</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="I27" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" s="3">
-        <v>43431.31553449074</v>
-      </c>
-      <c r="L27" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="3">
+        <v>43431.3387090625</v>
+      </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -2696,38 +2570,36 @@
     </row>
     <row r="28" spans="2:33">
       <c r="B28" s="4" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1246</v>
+      </c>
+      <c r="F28" s="4">
+        <v>237</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="4">
-        <v>1976</v>
-      </c>
-      <c r="F28" s="4">
-        <v>218</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I28" s="4" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K28" s="5">
-        <v>43431.31726423611</v>
-      </c>
-      <c r="L28" s="5">
-        <v>43437.01041712963</v>
-      </c>
+        <v>43431.33953263889</v>
+      </c>
+      <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -2752,38 +2624,36 @@
     </row>
     <row r="29" spans="2:33">
       <c r="B29" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="E29" s="2">
         <v>1246</v>
       </c>
       <c r="F29" s="2">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K29" s="3">
-        <v>43431.31823098379</v>
-      </c>
-      <c r="L29" s="3">
-        <v>43437.01052369213</v>
-      </c>
+        <v>43431.34033903935</v>
+      </c>
+      <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -2808,34 +2678,34 @@
     </row>
     <row r="30" spans="2:33">
       <c r="B30" s="4" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="E30" s="4">
         <v>1246</v>
       </c>
       <c r="F30" s="4">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K30" s="5">
-        <v>43431.31905451389</v>
+        <v>43431.34095520833</v>
       </c>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
@@ -2862,34 +2732,34 @@
     </row>
     <row r="31" spans="2:33">
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2">
         <v>1246</v>
       </c>
       <c r="F31" s="2">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K31" s="3">
-        <v>43431.32505871528</v>
+        <v>43431.34150991898</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -2916,34 +2786,34 @@
     </row>
     <row r="32" spans="2:33">
       <c r="B32" s="4" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="E32" s="4">
         <v>1246</v>
       </c>
       <c r="F32" s="4">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K32" s="5">
-        <v>43431.32652627315</v>
+        <v>43431.3420596875</v>
       </c>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
@@ -2970,34 +2840,34 @@
     </row>
     <row r="33" spans="2:33">
       <c r="B33" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2">
-        <v>1246</v>
+        <v>1274</v>
       </c>
       <c r="F33" s="2">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K33" s="3">
-        <v>43431.32735717593</v>
+        <v>43431.34257033565</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -3024,43 +2894,45 @@
     </row>
     <row r="34" spans="2:33">
       <c r="B34" s="4" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E34" s="4">
-        <v>1710</v>
+        <v>10898.59</v>
       </c>
       <c r="F34" s="4">
-        <v>224</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>87</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="G34" s="4"/>
       <c r="H34" s="4" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="K34" s="5">
-        <v>43431.32860771991</v>
-      </c>
-      <c r="L34" s="4"/>
+        <v>43434.3854542824</v>
+      </c>
+      <c r="L34" s="5">
+        <v>43434.39015552084</v>
+      </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
+      <c r="S34" s="5">
+        <v>43434.39049725694</v>
+      </c>
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
@@ -3078,36 +2950,36 @@
     </row>
     <row r="35" spans="2:33">
       <c r="B35" s="2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E35" s="2">
-        <v>1710</v>
+        <v>444.4</v>
       </c>
       <c r="F35" s="2">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="G35" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="J35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K35" s="3">
-        <v>43431.32928263889</v>
-      </c>
-      <c r="L35" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="L35" s="3">
+        <v>43391.55371793982</v>
+      </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -3126,42 +2998,42 @@
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
       <c r="AD35" s="2"/>
-      <c r="AE35" s="2"/>
+      <c r="AE35" s="3">
+        <v>43355.3651462963</v>
+      </c>
       <c r="AF35" s="2"/>
       <c r="AG35" s="2"/>
     </row>
     <row r="36" spans="2:33">
       <c r="B36" s="4" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E36" s="4">
-        <v>1060</v>
+        <v>555.5</v>
       </c>
       <c r="F36" s="4">
-        <v>226</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>89</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G36" s="4"/>
       <c r="H36" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I36" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I36" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="J36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K36" s="5">
-        <v>43431.32998915509</v>
-      </c>
-      <c r="L36" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="K36" s="4"/>
+      <c r="L36" s="5">
+        <v>43391.55371793982</v>
+      </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
@@ -3179,43 +3051,47 @@
       <c r="AA36" s="4"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
-      <c r="AD36" s="4"/>
+      <c r="AD36" s="5">
+        <v>43355.36635717592</v>
+      </c>
       <c r="AE36" s="4"/>
       <c r="AF36" s="4"/>
-      <c r="AG36" s="4"/>
+      <c r="AG36" s="5">
+        <v>43392.60481701389</v>
+      </c>
     </row>
     <row r="37" spans="2:33">
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E37" s="2">
-        <v>1444</v>
+        <v>1195</v>
       </c>
       <c r="F37" s="2">
-        <v>227</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>89</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
         <v>92</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K37" s="3">
-        <v>43431.33062260417</v>
-      </c>
-      <c r="L37" s="2"/>
+        <v>43325.87013730324</v>
+      </c>
+      <c r="L37" s="3">
+        <v>43391.55371793982</v>
+      </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -3223,9 +3099,13 @@
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
+      <c r="T37" s="3">
+        <v>43353.63348869213</v>
+      </c>
       <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
+      <c r="V37" s="3">
+        <v>43325.92826967593</v>
+      </c>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
@@ -3240,36 +3120,36 @@
     </row>
     <row r="38" spans="2:33">
       <c r="B38" s="4" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E38" s="4">
-        <v>1060</v>
+        <v>1195</v>
       </c>
       <c r="F38" s="4">
-        <v>228</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>89</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G38" s="4"/>
       <c r="H38" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K38" s="5">
-        <v>43431.33168799768</v>
-      </c>
-      <c r="L38" s="4"/>
+        <v>43325.87014579861</v>
+      </c>
+      <c r="L38" s="5">
+        <v>43391.55371793982</v>
+      </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
@@ -3279,8 +3159,12 @@
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
+      <c r="V38" s="5">
+        <v>43339.49166299769</v>
+      </c>
+      <c r="W38" s="5">
+        <v>43339.491615625</v>
+      </c>
       <c r="X38" s="4"/>
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
@@ -3294,35 +3178,37 @@
     </row>
     <row r="39" spans="2:33">
       <c r="B39" s="2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E39" s="2">
-        <v>1444</v>
+        <v>1195</v>
       </c>
       <c r="F39" s="2">
-        <v>229</v>
+        <v>162</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K39" s="2"/>
+      <c r="K39" s="3">
+        <v>43325.87015420139</v>
+      </c>
       <c r="L39" s="3">
-        <v>43431.33277589121</v>
+        <v>43391.55371793982</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -3348,37 +3234,41 @@
     </row>
     <row r="40" spans="2:33">
       <c r="B40" s="4" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E40" s="4">
-        <v>961</v>
+        <v>484</v>
       </c>
       <c r="F40" s="4">
-        <v>230</v>
+        <v>163</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K40" s="5">
-        <v>43431.3333431713</v>
-      </c>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
+        <v>43325.87016261574</v>
+      </c>
+      <c r="L40" s="5">
+        <v>43391.55371793982</v>
+      </c>
+      <c r="M40" s="5">
+        <v>43473.45803063658</v>
+      </c>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
@@ -3402,36 +3292,36 @@
     </row>
     <row r="41" spans="2:33">
       <c r="B41" s="2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E41" s="2">
-        <v>644</v>
+        <v>484</v>
       </c>
       <c r="F41" s="2">
-        <v>231</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>80</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I41" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I41" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="J41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K41" s="3">
-        <v>43431.33393753472</v>
-      </c>
-      <c r="L41" s="2"/>
+        <v>43325.87017086805</v>
+      </c>
+      <c r="L41" s="3">
+        <v>43391.55371793982</v>
+      </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -3439,7 +3329,9 @@
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
+      <c r="T41" s="3">
+        <v>43327.35490439815</v>
+      </c>
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
@@ -3456,36 +3348,36 @@
     </row>
     <row r="42" spans="2:33">
       <c r="B42" s="4" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E42" s="4">
-        <v>644</v>
+        <v>484</v>
       </c>
       <c r="F42" s="4">
-        <v>232</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>80</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G42" s="4"/>
       <c r="H42" s="4" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="K42" s="5">
-        <v>43431.33469861111</v>
-      </c>
-      <c r="L42" s="4"/>
+        <v>43325.87017936342</v>
+      </c>
+      <c r="L42" s="5">
+        <v>43391.55371793982</v>
+      </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
@@ -3494,7 +3386,9 @@
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
+      <c r="U42" s="5">
+        <v>43441.42647114583</v>
+      </c>
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
@@ -3510,39 +3404,41 @@
     </row>
     <row r="43" spans="2:33">
       <c r="B43" s="2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E43" s="2">
-        <v>644</v>
+        <v>742</v>
       </c>
       <c r="F43" s="2">
-        <v>233</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>89</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K43" s="3">
-        <v>43431.33603614583</v>
-      </c>
-      <c r="L43" s="2"/>
+        <v>43325.8701877662</v>
+      </c>
+      <c r="L43" s="3">
+        <v>43391.55371793982</v>
+      </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="O43" s="3">
+        <v>43392.60232974537</v>
+      </c>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
@@ -3564,45 +3460,65 @@
     </row>
     <row r="44" spans="2:33">
       <c r="B44" s="4" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E44" s="4">
-        <v>644</v>
+        <v>789</v>
       </c>
       <c r="F44" s="4">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="K44" s="5">
-        <v>43431.33730008102</v>
-      </c>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
+        <v>43327.39147265047</v>
+      </c>
+      <c r="L44" s="5">
+        <v>43391.55371793982</v>
+      </c>
+      <c r="M44" s="5">
+        <v>43439.41083163195</v>
+      </c>
+      <c r="N44" s="5">
+        <v>43440.50393009259</v>
+      </c>
+      <c r="O44" s="5">
+        <v>43440.59694181713</v>
+      </c>
+      <c r="P44" s="5">
+        <v>43356.53625246528</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>43440.61337488426</v>
+      </c>
+      <c r="R44" s="5">
+        <v>43440.61349456019</v>
+      </c>
+      <c r="S44" s="5">
+        <v>43440.62836840278</v>
+      </c>
+      <c r="T44" s="5">
+        <v>43472.56196180556</v>
+      </c>
+      <c r="U44" s="5">
+        <v>43472.56208842593</v>
+      </c>
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
@@ -3618,52 +3534,76 @@
     </row>
     <row r="45" spans="2:33">
       <c r="B45" s="2" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="E45" s="2">
-        <v>1246</v>
+        <v>6515</v>
       </c>
       <c r="F45" s="2">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K45" s="3">
-        <v>43431.33785347222</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
-      <c r="Y45" s="2"/>
-      <c r="Z45" s="2"/>
-      <c r="AA45" s="2"/>
-      <c r="AB45" s="2"/>
+      <c r="P45" s="3">
+        <v>43434.46121357639</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>43437.01081369213</v>
+      </c>
+      <c r="R45" s="3">
+        <v>43437.38300177083</v>
+      </c>
+      <c r="S45" s="3">
+        <v>43437.87856952546</v>
+      </c>
+      <c r="T45" s="3">
+        <v>43437.87917612268</v>
+      </c>
+      <c r="U45" s="3">
+        <v>43437.87923672454</v>
+      </c>
+      <c r="V45" s="3">
+        <v>43437.87927372685</v>
+      </c>
+      <c r="W45" s="3">
+        <v>43437.87931998842</v>
+      </c>
+      <c r="X45" s="3">
+        <v>43438.53883561343</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>43439.37351149305</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>43440.46554459491</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>43440.50968336806</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>43440.52643619213</v>
+      </c>
       <c r="AC45" s="2"/>
       <c r="AD45" s="2"/>
       <c r="AE45" s="2"/>
@@ -3672,42 +3612,46 @@
     </row>
     <row r="46" spans="2:33">
       <c r="B46" s="4" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="E46" s="4">
-        <v>1246</v>
+        <v>5131</v>
       </c>
       <c r="F46" s="4">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K46" s="4"/>
-      <c r="L46" s="5">
-        <v>43431.3387090625</v>
-      </c>
+      <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
+      <c r="P46" s="5">
+        <v>43434.46683680556</v>
+      </c>
+      <c r="Q46" s="5">
+        <v>43437.39218133102</v>
+      </c>
+      <c r="R46" s="5">
+        <v>43440.52663225694</v>
+      </c>
       <c r="S46" s="4"/>
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
@@ -3726,42 +3670,48 @@
     </row>
     <row r="47" spans="2:33">
       <c r="B47" s="2" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="E47" s="2">
-        <v>1246</v>
+        <v>2689</v>
       </c>
       <c r="F47" s="2">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K47" s="3">
-        <v>43431.33953263889</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
+      <c r="O47" s="3">
+        <v>43434.44846840278</v>
+      </c>
+      <c r="P47" s="3">
+        <v>43434.45525123843</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>43434.49473491898</v>
+      </c>
+      <c r="R47" s="3">
+        <v>43434.55427731481</v>
+      </c>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
@@ -3780,35 +3730,31 @@
     </row>
     <row r="48" spans="2:33">
       <c r="B48" s="4" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="E48" s="4">
-        <v>1246</v>
+        <v>1000</v>
       </c>
       <c r="F48" s="4">
-        <v>238</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>89</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G48" s="4"/>
       <c r="H48" s="4" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K48" s="5">
-        <v>43431.34033903935</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
@@ -3817,7 +3763,9 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
-      <c r="T48" s="4"/>
+      <c r="T48" s="5">
+        <v>43439.63597013889</v>
+      </c>
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
@@ -3830,39 +3778,39 @@
       <c r="AD48" s="4"/>
       <c r="AE48" s="4"/>
       <c r="AF48" s="4"/>
-      <c r="AG48" s="4"/>
+      <c r="AG48" s="5">
+        <v>43440.31217384259</v>
+      </c>
     </row>
     <row r="49" spans="2:33">
       <c r="B49" s="2" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="E49" s="2">
-        <v>1246</v>
+        <v>1000</v>
       </c>
       <c r="F49" s="2">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K49" s="3">
-        <v>43431.34095520833</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="K49" s="2"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -3871,7 +3819,9 @@
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
+      <c r="T49" s="3">
+        <v>43440.30347630787</v>
+      </c>
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
@@ -3888,35 +3838,33 @@
     </row>
     <row r="50" spans="2:33">
       <c r="B50" s="4" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="E50" s="4">
-        <v>1246</v>
+        <v>1000</v>
       </c>
       <c r="F50" s="4">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K50" s="5">
-        <v>43431.34150991898</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
@@ -3925,7 +3873,9 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
-      <c r="T50" s="4"/>
+      <c r="T50" s="5">
+        <v>43440.30475092593</v>
+      </c>
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
@@ -3942,35 +3892,33 @@
     </row>
     <row r="51" spans="2:33">
       <c r="B51" s="2" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="E51" s="2">
-        <v>1246</v>
+        <v>3000</v>
       </c>
       <c r="F51" s="2">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K51" s="3">
-        <v>43431.3420596875</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -3979,7 +3927,9 @@
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
+      <c r="T51" s="3">
+        <v>43440.30569675926</v>
+      </c>
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
@@ -3996,35 +3946,33 @@
     </row>
     <row r="52" spans="2:33">
       <c r="B52" s="4" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="E52" s="4">
-        <v>1274</v>
+        <v>3500</v>
       </c>
       <c r="F52" s="4">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K52" s="5">
-        <v>43431.34257033565</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
@@ -4033,7 +3981,9 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
+      <c r="T52" s="5">
+        <v>43440.30629679398</v>
+      </c>
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
@@ -4050,46 +4000,48 @@
     </row>
     <row r="53" spans="2:33">
       <c r="B53" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E53" s="2">
-        <v>10898.59</v>
+        <v>2500</v>
       </c>
       <c r="F53" s="2">
-        <v>263</v>
-      </c>
-      <c r="G53" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="H53" s="2" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K53" s="3">
-        <v>43434.3854542824</v>
-      </c>
-      <c r="L53" s="3">
-        <v>43434.39015552084</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
+      <c r="R53" s="3">
+        <v>43440.30685957176</v>
+      </c>
       <c r="S53" s="3">
-        <v>43434.39049725694</v>
-      </c>
-      <c r="T53" s="2"/>
+        <v>43440.33841732639</v>
+      </c>
+      <c r="T53" s="3">
+        <v>43440.3386707176</v>
+      </c>
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
@@ -4106,42 +4058,42 @@
     </row>
     <row r="54" spans="2:33">
       <c r="B54" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E54" s="4">
-        <v>444.4</v>
+        <v>2500</v>
       </c>
       <c r="F54" s="4">
-        <v>207</v>
+        <v>283</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K54" s="4"/>
-      <c r="L54" s="5">
-        <v>43391.55371793982</v>
-      </c>
+      <c r="L54" s="4"/>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
+      <c r="R54" s="5">
+        <v>43440.30786894676</v>
+      </c>
       <c r="S54" s="4"/>
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
@@ -4154,50 +4106,54 @@
       <c r="AB54" s="4"/>
       <c r="AC54" s="4"/>
       <c r="AD54" s="4"/>
-      <c r="AE54" s="5">
-        <v>43355.3651462963</v>
-      </c>
+      <c r="AE54" s="4"/>
       <c r="AF54" s="4"/>
       <c r="AG54" s="4"/>
     </row>
     <row r="55" spans="2:33">
       <c r="B55" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E55" s="2">
-        <v>555.5</v>
+        <v>3850</v>
       </c>
       <c r="F55" s="2">
-        <v>208</v>
-      </c>
-      <c r="G55" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="H55" s="2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K55" s="2"/>
-      <c r="L55" s="3">
-        <v>43391.55371793982</v>
-      </c>
+      <c r="L55" s="2"/>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
+      <c r="R55" s="3">
+        <v>43440.30874869213</v>
+      </c>
+      <c r="S55" s="3">
+        <v>43440.33569039352</v>
+      </c>
+      <c r="T55" s="3">
+        <v>43440.33599170139</v>
+      </c>
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
@@ -4207,60 +4163,58 @@
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
       <c r="AC55" s="2"/>
-      <c r="AD55" s="3">
-        <v>43355.36635717592</v>
-      </c>
+      <c r="AD55" s="2"/>
       <c r="AE55" s="2"/>
       <c r="AF55" s="2"/>
-      <c r="AG55" s="3">
-        <v>43392.60481701389</v>
-      </c>
+      <c r="AG55" s="2"/>
     </row>
     <row r="56" spans="2:33">
       <c r="B56" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E56" s="4">
-        <v>1195</v>
+        <v>1800</v>
       </c>
       <c r="F56" s="4">
-        <v>160</v>
-      </c>
-      <c r="G56" s="4"/>
+        <v>285</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="H56" s="4" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K56" s="5">
-        <v>43325.87013730324</v>
-      </c>
-      <c r="L56" s="5">
-        <v>43391.55371793982</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
+      <c r="Q56" s="5">
+        <v>43440.46387037037</v>
+      </c>
+      <c r="R56" s="5">
+        <v>43440.46417743056</v>
+      </c>
       <c r="S56" s="4"/>
-      <c r="T56" s="5">
-        <v>43353.63348869213</v>
-      </c>
-      <c r="U56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="5">
+        <v>43440.31029366898</v>
+      </c>
       <c r="V56" s="5">
-        <v>43325.92826967593</v>
+        <v>43440.46307164352</v>
       </c>
       <c r="W56" s="4"/>
       <c r="X56" s="4"/>
@@ -4276,36 +4230,34 @@
     </row>
     <row r="57" spans="2:33">
       <c r="B57" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E57" s="2">
-        <v>1195</v>
+        <v>1000</v>
       </c>
       <c r="F57" s="2">
-        <v>161</v>
-      </c>
-      <c r="G57" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="H57" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>122</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K57" s="3">
-        <v>43325.87014579861</v>
-      </c>
-      <c r="L57" s="3">
-        <v>43391.55371793982</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -4314,13 +4266,11 @@
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
-      <c r="U57" s="2"/>
-      <c r="V57" s="3">
-        <v>43339.49166299769</v>
-      </c>
-      <c r="W57" s="3">
-        <v>43339.491615625</v>
-      </c>
+      <c r="U57" s="3">
+        <v>43440.31123229166</v>
+      </c>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
       <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
@@ -4334,46 +4284,44 @@
     </row>
     <row r="58" spans="2:33">
       <c r="B58" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E58" s="4">
-        <v>1195</v>
+        <v>8992</v>
       </c>
       <c r="F58" s="4">
-        <v>162</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="G58" s="4"/>
       <c r="H58" s="4" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K58" s="5">
-        <v>43325.87015420139</v>
-      </c>
-      <c r="L58" s="5">
-        <v>43391.55371793982</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
-      <c r="T58" s="4"/>
+      <c r="S58" s="5">
+        <v>43438.61147126157</v>
+      </c>
+      <c r="T58" s="5">
+        <v>43438.64856790509</v>
+      </c>
       <c r="U58" s="4"/>
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
@@ -4390,43 +4338,43 @@
     </row>
     <row r="59" spans="2:33">
       <c r="B59" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E59" s="2">
-        <v>484</v>
+        <v>7962</v>
       </c>
       <c r="F59" s="2">
-        <v>163</v>
-      </c>
-      <c r="G59" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="H59" s="2" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K59" s="3">
-        <v>43325.87016261574</v>
-      </c>
-      <c r="L59" s="3">
-        <v>43391.55371793982</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
-      <c r="S59" s="2"/>
+      <c r="S59" s="3">
+        <v>43438.61213920139</v>
+      </c>
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
@@ -4444,45 +4392,45 @@
     </row>
     <row r="60" spans="2:33">
       <c r="B60" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E60" s="4">
-        <v>484</v>
+        <v>9955</v>
       </c>
       <c r="F60" s="4">
-        <v>164</v>
-      </c>
-      <c r="G60" s="4"/>
+        <v>271</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="H60" s="4" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K60" s="5">
-        <v>43325.87017086805</v>
-      </c>
-      <c r="L60" s="5">
-        <v>43391.55371793982</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
+      <c r="S60" s="5">
+        <v>43438.63260651621</v>
+      </c>
       <c r="T60" s="5">
-        <v>43327.35490439815</v>
+        <v>43440.32553900463</v>
       </c>
       <c r="U60" s="4"/>
       <c r="V60" s="4"/>
@@ -4500,36 +4448,34 @@
     </row>
     <row r="61" spans="2:33">
       <c r="B61" s="2" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="E61" s="2">
-        <v>484</v>
+        <v>1676</v>
       </c>
       <c r="F61" s="2">
-        <v>165</v>
+        <v>250</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K61" s="3">
-        <v>43325.87017936342</v>
-      </c>
-      <c r="L61" s="3">
-        <v>43391.55371793982</v>
-      </c>
+        <v>43434.37020181713</v>
+      </c>
+      <c r="L61" s="2"/>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -4554,41 +4500,37 @@
     </row>
     <row r="62" spans="2:33">
       <c r="B62" s="4" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="E62" s="4">
-        <v>742</v>
+        <v>1676</v>
       </c>
       <c r="F62" s="4">
-        <v>166</v>
+        <v>251</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K62" s="5">
-        <v>43325.8701877662</v>
-      </c>
-      <c r="L62" s="5">
-        <v>43391.55371793982</v>
-      </c>
+        <v>43434.37021126157</v>
+      </c>
+      <c r="L62" s="4"/>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
-      <c r="O62" s="5">
-        <v>43392.60232974537</v>
-      </c>
+      <c r="O62" s="4"/>
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
@@ -4610,46 +4552,38 @@
     </row>
     <row r="63" spans="2:33">
       <c r="B63" s="2" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="E63" s="2">
-        <v>789</v>
+        <v>1500</v>
       </c>
       <c r="F63" s="2">
-        <v>167</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>130</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="G63" s="2"/>
       <c r="H63" s="2" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K63" s="3">
-        <v>43327.39147265047</v>
-      </c>
-      <c r="L63" s="3">
-        <v>43391.55371793982</v>
-      </c>
-      <c r="M63" s="3">
-        <v>43439.41083163195</v>
-      </c>
+        <v>43434.37022075232</v>
+      </c>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
-      <c r="P63" s="3">
-        <v>43356.53625246528</v>
-      </c>
+      <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
@@ -4670,67 +4604,47 @@
     </row>
     <row r="64" spans="2:33">
       <c r="B64" s="4" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E64" s="4">
-        <v>6515</v>
+        <v>1500</v>
       </c>
       <c r="F64" s="4">
-        <v>265</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>136</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="G64" s="4"/>
       <c r="H64" s="4" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K64" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="K64" s="5">
+        <v>43434.37023005787</v>
+      </c>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
-      <c r="P64" s="5">
-        <v>43434.46121357639</v>
-      </c>
-      <c r="Q64" s="5">
-        <v>43437.01081369213</v>
-      </c>
-      <c r="R64" s="5">
-        <v>43437.38300177083</v>
-      </c>
-      <c r="S64" s="5">
-        <v>43437.87856952546</v>
-      </c>
-      <c r="T64" s="5">
-        <v>43437.87917612268</v>
-      </c>
-      <c r="U64" s="5">
-        <v>43437.87923672454</v>
-      </c>
-      <c r="V64" s="5">
-        <v>43437.87927372685</v>
-      </c>
-      <c r="W64" s="5">
-        <v>43437.87931998842</v>
-      </c>
-      <c r="X64" s="5">
-        <v>43438.53883561343</v>
-      </c>
-      <c r="Y64" s="5">
-        <v>43439.37351149305</v>
-      </c>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="4"/>
+      <c r="X64" s="4"/>
+      <c r="Y64" s="4"/>
       <c r="Z64" s="4"/>
       <c r="AA64" s="4"/>
       <c r="AB64" s="4"/>
@@ -4742,43 +4656,39 @@
     </row>
     <row r="65" spans="2:33">
       <c r="B65" s="2" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E65" s="2">
-        <v>5131</v>
+        <v>1962</v>
       </c>
       <c r="F65" s="2">
-        <v>266</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>136</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="G65" s="2"/>
       <c r="H65" s="2" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K65" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="K65" s="3">
+        <v>43434.37023961805</v>
+      </c>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
-      <c r="P65" s="3">
-        <v>43434.46683680556</v>
-      </c>
-      <c r="Q65" s="3">
-        <v>43437.39218133102</v>
-      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
@@ -4798,48 +4708,40 @@
     </row>
     <row r="66" spans="2:33">
       <c r="B66" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E66" s="4">
-        <v>2689</v>
+        <v>1962</v>
       </c>
       <c r="F66" s="4">
-        <v>264</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>136</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G66" s="4"/>
       <c r="H66" s="4" t="s">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K66" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="K66" s="5">
+        <v>43434.37024907408</v>
+      </c>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
-      <c r="O66" s="5">
-        <v>43434.44846840278</v>
-      </c>
-      <c r="P66" s="5">
-        <v>43434.45525123843</v>
-      </c>
-      <c r="Q66" s="5">
-        <v>43434.49473491898</v>
-      </c>
-      <c r="R66" s="5">
-        <v>43434.55427731481</v>
-      </c>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
       <c r="S66" s="4"/>
       <c r="T66" s="4"/>
       <c r="U66" s="4"/>
@@ -4858,36 +4760,34 @@
     </row>
     <row r="67" spans="2:33">
       <c r="B67" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D67" s="2" t="s">
+      <c r="E67" s="2">
+        <v>2879</v>
+      </c>
+      <c r="F67" s="2">
+        <v>256</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I67" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E67" s="2">
-        <v>897.6</v>
-      </c>
-      <c r="F67" s="2">
-        <v>198</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="J67" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K67" s="2"/>
-      <c r="L67" s="3">
-        <v>43391.55371793982</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="K67" s="3">
+        <v>43434.3702584838</v>
+      </c>
+      <c r="L67" s="2"/>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -4901,9 +4801,7 @@
       <c r="W67" s="2"/>
       <c r="X67" s="2"/>
       <c r="Y67" s="2"/>
-      <c r="Z67" s="3">
-        <v>43355.34333680556</v>
-      </c>
+      <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
       <c r="AB67" s="2"/>
       <c r="AC67" s="2"/>
@@ -4914,36 +4812,34 @@
     </row>
     <row r="68" spans="2:33">
       <c r="B68" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D68" s="4" t="s">
+      <c r="E68" s="4">
+        <v>2879</v>
+      </c>
+      <c r="F68" s="4">
+        <v>257</v>
+      </c>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I68" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E68" s="4">
-        <v>111.13</v>
-      </c>
-      <c r="F68" s="4">
-        <v>201</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="J68" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K68" s="4"/>
-      <c r="L68" s="5">
-        <v>43391.55371793982</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="K68" s="5">
+        <v>43434.37026802083</v>
+      </c>
+      <c r="L68" s="4"/>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
@@ -4956,9 +4852,7 @@
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
       <c r="X68" s="4"/>
-      <c r="Y68" s="5">
-        <v>43355.35701990741</v>
-      </c>
+      <c r="Y68" s="4"/>
       <c r="Z68" s="4"/>
       <c r="AA68" s="4"/>
       <c r="AB68" s="4"/>
@@ -4970,44 +4864,42 @@
     </row>
     <row r="69" spans="2:33">
       <c r="B69" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="E69" s="2">
-        <v>656.5</v>
+        <v>1298</v>
       </c>
       <c r="F69" s="2">
-        <v>206</v>
+        <v>258</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K69" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="K69" s="3">
+        <v>43434.37027746528</v>
+      </c>
       <c r="L69" s="3">
-        <v>43391.55371793982</v>
+        <v>43434.45600648148</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
-      <c r="Q69" s="3">
-        <v>43392.59447809028</v>
-      </c>
-      <c r="R69" s="3">
-        <v>43392.59571153935</v>
-      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
@@ -5016,53 +4908,45 @@
       <c r="X69" s="2"/>
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
-      <c r="AA69" s="3">
-        <v>43355.36268865741</v>
-      </c>
+      <c r="AA69" s="2"/>
       <c r="AB69" s="2"/>
-      <c r="AC69" s="3">
-        <v>43392.59605755787</v>
-      </c>
-      <c r="AD69" s="3">
-        <v>43432.5430974537</v>
-      </c>
+      <c r="AC69" s="2"/>
+      <c r="AD69" s="2"/>
       <c r="AE69" s="2"/>
-      <c r="AF69" s="3">
-        <v>43392.39263005787</v>
-      </c>
+      <c r="AF69" s="2"/>
       <c r="AG69" s="2"/>
     </row>
     <row r="70" spans="2:33">
       <c r="B70" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="E70" s="4">
-        <v>2213.6</v>
+        <v>1082</v>
       </c>
       <c r="F70" s="4">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="J70" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K70" s="5">
-        <v>43353.54484988426</v>
+        <v>43434.37028692129</v>
       </c>
       <c r="L70" s="5">
-        <v>43391.55371793982</v>
+        <v>43437.01601547454</v>
       </c>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
@@ -5088,91 +4972,133 @@
     </row>
     <row r="71" spans="2:33">
       <c r="B71" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="E71" s="2">
-        <v>2213.6</v>
+        <v>500</v>
       </c>
       <c r="F71" s="2">
-        <v>181</v>
-      </c>
-      <c r="G71" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="H71" s="2" t="s">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K71" s="3">
-        <v>43353.5448587963</v>
+        <v>43472.60905332176</v>
       </c>
       <c r="L71" s="3">
-        <v>43391.55371793982</v>
+        <v>43472.61343784722</v>
       </c>
       <c r="M71" s="3">
-        <v>43434.45494880787</v>
+        <v>43472.61368376158</v>
       </c>
       <c r="N71" s="3">
-        <v>43434.45565042824</v>
-      </c>
-      <c r="O71" s="2"/>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="2"/>
-      <c r="R71" s="2"/>
-      <c r="S71" s="2"/>
-      <c r="T71" s="2"/>
-      <c r="U71" s="2"/>
-      <c r="V71" s="2"/>
-      <c r="W71" s="2"/>
-      <c r="X71" s="2"/>
-      <c r="Y71" s="2"/>
-      <c r="Z71" s="2"/>
-      <c r="AA71" s="2"/>
-      <c r="AB71" s="2"/>
-      <c r="AC71" s="2"/>
-      <c r="AD71" s="2"/>
-      <c r="AE71" s="2"/>
-      <c r="AF71" s="2"/>
-      <c r="AG71" s="2"/>
+        <v>43440.57925019676</v>
+      </c>
+      <c r="O71" s="3">
+        <v>43472.6153621875</v>
+      </c>
+      <c r="P71" s="3">
+        <v>43472.61545072916</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>43472.61555396991</v>
+      </c>
+      <c r="R71" s="3">
+        <v>43472.61564065972</v>
+      </c>
+      <c r="S71" s="3">
+        <v>43472.61573827546</v>
+      </c>
+      <c r="T71" s="3">
+        <v>43472.61581979167</v>
+      </c>
+      <c r="U71" s="3">
+        <v>43473.34058186343</v>
+      </c>
+      <c r="V71" s="3">
+        <v>43473.34067299769</v>
+      </c>
+      <c r="W71" s="3">
+        <v>43473.34077484954</v>
+      </c>
+      <c r="X71" s="3">
+        <v>43473.34087693287</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>43473.45739471065</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>43440.55784112268</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>43440.56162739584</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>43472.56698480324</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>43472.58566184028</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>43440.5619962963</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>43440.56291203704</v>
+      </c>
+      <c r="AF71" s="3">
+        <v>43440.56303445602</v>
+      </c>
+      <c r="AG71" s="3">
+        <v>43440.57275447917</v>
+      </c>
     </row>
     <row r="72" spans="2:33">
       <c r="B72" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="E72" s="4">
-        <v>232.2</v>
+        <v>500</v>
       </c>
       <c r="F72" s="4">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>151</v>
+        <v>35</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K72" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="K72" s="5">
+        <v>43325.37695709491</v>
+      </c>
       <c r="L72" s="5">
         <v>43391.55371793982</v>
       </c>
@@ -5184,53 +5110,71 @@
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
       <c r="T72" s="4"/>
-      <c r="U72" s="4"/>
-      <c r="V72" s="4"/>
-      <c r="W72" s="4"/>
-      <c r="X72" s="4"/>
-      <c r="Y72" s="4"/>
+      <c r="U72" s="5">
+        <v>43403.51982291666</v>
+      </c>
+      <c r="V72" s="5">
+        <v>43440.55871940972</v>
+      </c>
+      <c r="W72" s="5">
+        <v>43357.56335949074</v>
+      </c>
+      <c r="X72" s="5">
+        <v>43440.57222878472</v>
+      </c>
+      <c r="Y72" s="5">
+        <v>43440.62853903935</v>
+      </c>
       <c r="Z72" s="5">
-        <v>43353.58169262732</v>
-      </c>
-      <c r="AA72" s="4"/>
-      <c r="AB72" s="4"/>
-      <c r="AC72" s="4"/>
-      <c r="AD72" s="4"/>
+        <v>43472.54610914352</v>
+      </c>
+      <c r="AA72" s="5">
+        <v>43472.55356038194</v>
+      </c>
+      <c r="AB72" s="5">
+        <v>43472.56165123843</v>
+      </c>
+      <c r="AC72" s="5">
+        <v>43472.56687484954</v>
+      </c>
+      <c r="AD72" s="5">
+        <v>43473.45782581018</v>
+      </c>
       <c r="AE72" s="4"/>
       <c r="AF72" s="4"/>
       <c r="AG72" s="4"/>
     </row>
     <row r="73" spans="2:33">
       <c r="B73" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="E73" s="2">
-        <v>2903.5</v>
+        <v>500</v>
       </c>
       <c r="F73" s="2">
-        <v>184</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>153</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G73" s="2"/>
       <c r="H73" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K73" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="K73" s="3">
+        <v>43325.3769659375</v>
+      </c>
       <c r="L73" s="3">
-        <v>43391.55371793982</v>
+        <v>43360.86807496528</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -5239,9 +5183,7 @@
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
       <c r="S73" s="2"/>
-      <c r="T73" s="3">
-        <v>43353.60090471065</v>
-      </c>
+      <c r="T73" s="2"/>
       <c r="U73" s="2"/>
       <c r="V73" s="2"/>
       <c r="W73" s="2"/>
@@ -5250,129 +5192,141 @@
       <c r="Z73" s="2"/>
       <c r="AA73" s="2"/>
       <c r="AB73" s="2"/>
-      <c r="AC73" s="2"/>
-      <c r="AD73" s="2"/>
+      <c r="AC73" s="3">
+        <v>43392.3783931713</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>43441.45854690972</v>
+      </c>
       <c r="AE73" s="2"/>
       <c r="AF73" s="2"/>
       <c r="AG73" s="2"/>
     </row>
     <row r="74" spans="2:33">
       <c r="B74" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="E74" s="4">
-        <v>44.3</v>
+        <v>500</v>
       </c>
       <c r="F74" s="4">
-        <v>209</v>
-      </c>
-      <c r="G74" s="4"/>
+        <v>135</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="H74" s="4" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K74" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="K74" s="5">
+        <v>43325.37697457176</v>
+      </c>
       <c r="L74" s="5">
         <v>43391.55371793982</v>
       </c>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-      <c r="O74" s="5">
-        <v>43392.60218287037</v>
-      </c>
+      <c r="M74" s="5">
+        <v>43325.38381079861</v>
+      </c>
+      <c r="N74" s="5">
+        <v>43360.86822395834</v>
+      </c>
+      <c r="O74" s="4"/>
       <c r="P74" s="4"/>
       <c r="Q74" s="4"/>
-      <c r="R74" s="5">
-        <v>43392.59913460648</v>
-      </c>
+      <c r="R74" s="4"/>
       <c r="S74" s="4"/>
       <c r="T74" s="4"/>
-      <c r="U74" s="4"/>
-      <c r="V74" s="4"/>
+      <c r="U74" s="5">
+        <v>43441.40831501158</v>
+      </c>
+      <c r="V74" s="5">
+        <v>43472.54704224537</v>
+      </c>
       <c r="W74" s="5">
-        <v>43392.37946851852</v>
-      </c>
-      <c r="X74" s="4"/>
-      <c r="Y74" s="5">
-        <v>43356.5440903588</v>
-      </c>
+        <v>43472.61273425926</v>
+      </c>
+      <c r="X74" s="5">
+        <v>43472.61335081018</v>
+      </c>
+      <c r="Y74" s="4"/>
       <c r="Z74" s="4"/>
       <c r="AA74" s="4"/>
       <c r="AB74" s="4"/>
-      <c r="AC74" s="5">
-        <v>43392.38280864583</v>
-      </c>
+      <c r="AC74" s="4"/>
       <c r="AD74" s="4"/>
-      <c r="AE74" s="5">
-        <v>43392.379</v>
-      </c>
+      <c r="AE74" s="4"/>
       <c r="AF74" s="4"/>
-      <c r="AG74" s="5">
-        <v>43355.49950894676</v>
-      </c>
+      <c r="AG74" s="4"/>
     </row>
     <row r="75" spans="2:33">
       <c r="B75" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="E75" s="2">
-        <v>999.9</v>
+        <v>500</v>
       </c>
       <c r="F75" s="2">
-        <v>210</v>
+        <v>136</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>71</v>
+        <v>166</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K75" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="K75" s="3">
+        <v>43325.37698341435</v>
+      </c>
       <c r="L75" s="3">
         <v>43391.55371793982</v>
       </c>
       <c r="M75" s="3">
-        <v>43391.58899548611</v>
+        <v>43325.38345362269</v>
       </c>
       <c r="N75" s="3">
-        <v>43391.58913888889</v>
+        <v>43325.39341686342</v>
       </c>
       <c r="O75" s="3">
-        <v>43439.45432114584</v>
-      </c>
-      <c r="P75" s="3">
-        <v>43439.54010605324</v>
-      </c>
+        <v>43325.38431385416</v>
+      </c>
+      <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
-      <c r="U75" s="2"/>
-      <c r="V75" s="2"/>
-      <c r="W75" s="2"/>
+      <c r="U75" s="3">
+        <v>43441.40920813657</v>
+      </c>
+      <c r="V75" s="3">
+        <v>43472.54718425926</v>
+      </c>
+      <c r="W75" s="3">
+        <v>43472.61287523148</v>
+      </c>
       <c r="X75" s="2"/>
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
@@ -5380,41 +5334,39 @@
       <c r="AB75" s="2"/>
       <c r="AC75" s="2"/>
       <c r="AD75" s="2"/>
-      <c r="AE75" s="3">
-        <v>43355.5001397338</v>
-      </c>
+      <c r="AE75" s="2"/>
       <c r="AF75" s="2"/>
       <c r="AG75" s="2"/>
     </row>
     <row r="76" spans="2:33">
       <c r="B76" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="E76" s="4">
-        <v>1212.1</v>
+        <v>230</v>
       </c>
       <c r="F76" s="4">
-        <v>211</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>157</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G76" s="4"/>
       <c r="H76" s="4" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K76" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="K76" s="5">
+        <v>43325.37699212963</v>
+      </c>
       <c r="L76" s="5">
         <v>43391.55371793982</v>
       </c>
@@ -5433,51 +5385,53 @@
       <c r="Y76" s="4"/>
       <c r="Z76" s="4"/>
       <c r="AA76" s="5">
-        <v>43355.50322824074</v>
+        <v>43441.41272133102</v>
       </c>
       <c r="AB76" s="4"/>
       <c r="AC76" s="4"/>
       <c r="AD76" s="4"/>
       <c r="AE76" s="4"/>
       <c r="AF76" s="4"/>
-      <c r="AG76" s="5">
-        <v>43392.60826030093</v>
-      </c>
+      <c r="AG76" s="4"/>
     </row>
     <row r="77" spans="2:33">
       <c r="B77" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="E77" s="2">
-        <v>123.4</v>
+        <v>230</v>
       </c>
       <c r="F77" s="2">
-        <v>214</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>159</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G77" s="2"/>
       <c r="H77" s="2" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K77" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="K77" s="3">
+        <v>43325.37700081019</v>
+      </c>
       <c r="L77" s="3">
         <v>43391.55371793982</v>
       </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+      <c r="M77" s="3">
+        <v>43440.56014278935</v>
+      </c>
+      <c r="N77" s="3">
+        <v>43441.41240818287</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
@@ -5490,56 +5444,62 @@
       <c r="X77" s="2"/>
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
-      <c r="AA77" s="2"/>
+      <c r="AA77" s="3">
+        <v>43441.42006936343</v>
+      </c>
       <c r="AB77" s="2"/>
       <c r="AC77" s="2"/>
       <c r="AD77" s="2"/>
       <c r="AE77" s="2"/>
       <c r="AF77" s="2"/>
-      <c r="AG77" s="3">
-        <v>43355.50725003472</v>
-      </c>
+      <c r="AG77" s="2"/>
     </row>
     <row r="78" spans="2:33">
       <c r="B78" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="E78" s="4">
-        <v>4500.99</v>
+        <v>200</v>
       </c>
       <c r="F78" s="4">
-        <v>215</v>
+        <v>139</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>151</v>
+        <v>35</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K78" s="5">
-        <v>43355.98111365741</v>
+        <v>43325.37700960648</v>
       </c>
       <c r="L78" s="5">
         <v>43391.55371793982</v>
       </c>
-      <c r="M78" s="4"/>
+      <c r="M78" s="5">
+        <v>43349.51082349537</v>
+      </c>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
       <c r="P78" s="4"/>
-      <c r="Q78" s="4"/>
-      <c r="R78" s="4"/>
+      <c r="Q78" s="5">
+        <v>43349.51102372685</v>
+      </c>
+      <c r="R78" s="5">
+        <v>43349.51809633102</v>
+      </c>
       <c r="S78" s="4"/>
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
@@ -5548,8 +5508,12 @@
       <c r="X78" s="4"/>
       <c r="Y78" s="4"/>
       <c r="Z78" s="4"/>
-      <c r="AA78" s="4"/>
-      <c r="AB78" s="4"/>
+      <c r="AA78" s="5">
+        <v>43349.51827619213</v>
+      </c>
+      <c r="AB78" s="5">
+        <v>43349.52063159722</v>
+      </c>
       <c r="AC78" s="4"/>
       <c r="AD78" s="4"/>
       <c r="AE78" s="4"/>
@@ -5558,46 +5522,46 @@
     </row>
     <row r="79" spans="2:33">
       <c r="B79" s="2" t="s">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E79" s="2">
-        <v>8992</v>
+        <v>400.5</v>
       </c>
       <c r="F79" s="2">
-        <v>267</v>
+        <v>172</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="K79" s="3">
+        <v>43349.39219606481</v>
+      </c>
+      <c r="L79" s="3">
+        <v>43391.55371793982</v>
+      </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
-      <c r="S79" s="3">
-        <v>43438.61147126157</v>
-      </c>
-      <c r="T79" s="3">
-        <v>43438.64856790509</v>
-      </c>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
       <c r="U79" s="2"/>
       <c r="V79" s="2"/>
       <c r="W79" s="2"/>
@@ -5606,7 +5570,9 @@
       <c r="Z79" s="2"/>
       <c r="AA79" s="2"/>
       <c r="AB79" s="2"/>
-      <c r="AC79" s="2"/>
+      <c r="AC79" s="3">
+        <v>43392.59261762731</v>
+      </c>
       <c r="AD79" s="2"/>
       <c r="AE79" s="2"/>
       <c r="AF79" s="2"/>
@@ -5614,43 +5580,47 @@
     </row>
     <row r="80" spans="2:33">
       <c r="B80" s="4" t="s">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E80" s="4">
-        <v>7962</v>
+        <v>1125</v>
       </c>
       <c r="F80" s="4">
-        <v>268</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>166</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G80" s="4"/>
       <c r="H80" s="4" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="K80" s="5">
+        <v>43325.83706269676</v>
+      </c>
+      <c r="L80" s="5">
+        <v>43391.55371793982</v>
+      </c>
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
-      <c r="O80" s="4"/>
+      <c r="O80" s="5">
+        <v>43327.35744513889</v>
+      </c>
       <c r="P80" s="4"/>
       <c r="Q80" s="4"/>
-      <c r="R80" s="4"/>
-      <c r="S80" s="5">
-        <v>43438.61213920139</v>
-      </c>
+      <c r="R80" s="5">
+        <v>43327.3577871875</v>
+      </c>
+      <c r="S80" s="4"/>
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
       <c r="V80" s="4"/>
@@ -5668,46 +5638,48 @@
     </row>
     <row r="81" spans="2:33">
       <c r="B81" s="2" t="s">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E81" s="2">
-        <v>9955</v>
+        <v>1290</v>
       </c>
       <c r="F81" s="2">
-        <v>271</v>
+        <v>169</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="K81" s="3">
+        <v>43335.87885621528</v>
+      </c>
+      <c r="L81" s="3">
+        <v>43391.55371793982</v>
+      </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
+      <c r="O81" s="3">
+        <v>43392.38396674769</v>
+      </c>
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
       <c r="R81" s="2"/>
-      <c r="S81" s="3">
-        <v>43438.63260651621</v>
-      </c>
-      <c r="T81" s="3">
-        <v>43438.64663344908</v>
-      </c>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
       <c r="W81" s="2"/>
@@ -5724,38 +5696,44 @@
     </row>
     <row r="82" spans="2:33">
       <c r="B82" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="E82" s="4">
-        <v>150.5</v>
+        <v>1290</v>
       </c>
       <c r="F82" s="4">
-        <v>275</v>
+        <v>170</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>170</v>
+        <v>35</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="J82" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K82" s="5">
-        <v>43439.36472627315</v>
-      </c>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
+        <v>43472.5940878125</v>
+      </c>
+      <c r="L82" s="5">
+        <v>43472.59435219908</v>
+      </c>
+      <c r="M82" s="5">
+        <v>43472.56223206018</v>
+      </c>
+      <c r="N82" s="5">
+        <v>43472.56231493055</v>
+      </c>
       <c r="O82" s="4"/>
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
@@ -5778,34 +5756,32 @@
     </row>
     <row r="83" spans="2:33">
       <c r="B83" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D83" s="2" t="s">
+      <c r="E83" s="2">
+        <v>1945</v>
+      </c>
+      <c r="F83" s="2">
+        <v>246</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I83" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E83" s="2">
-        <v>200.3</v>
-      </c>
-      <c r="F83" s="2">
-        <v>276</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K83" s="3">
-        <v>43439.36865431713</v>
+        <v>43434.37016388889</v>
       </c>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
@@ -5832,43 +5808,37 @@
     </row>
     <row r="84" spans="2:33">
       <c r="B84" s="4" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="E84" s="4">
-        <v>1290</v>
+        <v>1945</v>
       </c>
       <c r="F84" s="4">
-        <v>169</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>76</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="G84" s="4"/>
       <c r="H84" s="4" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K84" s="5">
-        <v>43335.87885621528</v>
-      </c>
-      <c r="L84" s="5">
-        <v>43391.55371793982</v>
-      </c>
+        <v>43434.37017334491</v>
+      </c>
+      <c r="L84" s="4"/>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
-      <c r="O84" s="5">
-        <v>43392.38396674769</v>
-      </c>
+      <c r="O84" s="4"/>
       <c r="P84" s="4"/>
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
@@ -5890,38 +5860,34 @@
     </row>
     <row r="85" spans="2:33">
       <c r="B85" s="2" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="E85" s="2">
-        <v>1290</v>
+        <v>1802</v>
       </c>
       <c r="F85" s="2">
-        <v>170</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>130</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G85" s="2"/>
       <c r="H85" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K85" s="3">
-        <v>43335.88066762732</v>
-      </c>
-      <c r="L85" s="3">
-        <v>43360.87663854167</v>
-      </c>
+        <v>43434.37018283565</v>
+      </c>
+      <c r="L85" s="2"/>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -5946,43 +5912,39 @@
     </row>
     <row r="86" spans="2:33">
       <c r="B86" s="4" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="E86" s="4">
-        <v>123.63</v>
+        <v>1802</v>
       </c>
       <c r="F86" s="4">
-        <v>175</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>78</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="G86" s="4"/>
       <c r="H86" s="4" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K86" s="4"/>
-      <c r="L86" s="5">
-        <v>43391.55371793982</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="K86" s="5">
+        <v>43434.37019232639</v>
+      </c>
+      <c r="L86" s="4"/>
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
       <c r="P86" s="4"/>
-      <c r="Q86" s="5">
-        <v>43353.51957114584</v>
-      </c>
+      <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
       <c r="S86" s="4"/>
       <c r="T86" s="4"/>
@@ -6002,36 +5964,34 @@
     </row>
     <row r="87" spans="2:33">
       <c r="B87" s="2" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="E87" s="2">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="F87" s="2">
-        <v>132</v>
+        <v>260</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="K87" s="3">
-        <v>43325.37694837963</v>
-      </c>
-      <c r="L87" s="3">
-        <v>43391.55371793982</v>
-      </c>
+        <v>43434.37029641204</v>
+      </c>
+      <c r="L87" s="2"/>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -6041,16 +6001,10 @@
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
-      <c r="V87" s="3">
-        <v>43325.88282913194</v>
-      </c>
-      <c r="W87" s="3">
-        <v>43349.45394853009</v>
-      </c>
+      <c r="V87" s="2"/>
+      <c r="W87" s="2"/>
       <c r="X87" s="2"/>
-      <c r="Y87" s="3">
-        <v>43425.6049162037</v>
-      </c>
+      <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
       <c r="AA87" s="2"/>
       <c r="AB87" s="2"/>
@@ -6062,36 +6016,34 @@
     </row>
     <row r="88" spans="2:33">
       <c r="B88" s="4" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="E88" s="4">
-        <v>500</v>
+        <v>605</v>
       </c>
       <c r="F88" s="4">
-        <v>133</v>
+        <v>261</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="K88" s="5">
-        <v>43325.37695709491</v>
-      </c>
-      <c r="L88" s="5">
-        <v>43391.55371793982</v>
-      </c>
+        <v>43434.37030590278</v>
+      </c>
+      <c r="L88" s="4"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
@@ -6100,13 +6052,9 @@
       <c r="R88" s="4"/>
       <c r="S88" s="4"/>
       <c r="T88" s="4"/>
-      <c r="U88" s="5">
-        <v>43403.51982291666</v>
-      </c>
+      <c r="U88" s="4"/>
       <c r="V88" s="4"/>
-      <c r="W88" s="5">
-        <v>43357.56335949074</v>
-      </c>
+      <c r="W88" s="4"/>
       <c r="X88" s="4"/>
       <c r="Y88" s="4"/>
       <c r="Z88" s="4"/>
@@ -6120,36 +6068,34 @@
     </row>
     <row r="89" spans="2:33">
       <c r="B89" s="2" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="E89" s="2">
-        <v>500</v>
+        <v>829</v>
       </c>
       <c r="F89" s="2">
-        <v>134</v>
+        <v>262</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="K89" s="3">
-        <v>43325.3769659375</v>
-      </c>
-      <c r="L89" s="3">
-        <v>43360.86807496528</v>
-      </c>
+        <v>43434.37031519676</v>
+      </c>
+      <c r="L89" s="2"/>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -6166,9 +6112,7 @@
       <c r="Z89" s="2"/>
       <c r="AA89" s="2"/>
       <c r="AB89" s="2"/>
-      <c r="AC89" s="3">
-        <v>43392.3783931713</v>
-      </c>
+      <c r="AC89" s="2"/>
       <c r="AD89" s="2"/>
       <c r="AE89" s="2"/>
       <c r="AF89" s="2"/>
@@ -6176,45 +6120,43 @@
     </row>
     <row r="90" spans="2:33">
       <c r="B90" s="4" t="s">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="D90" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E90" s="4">
+        <v>123.63</v>
+      </c>
+      <c r="F90" s="4">
         <v>175</v>
       </c>
-      <c r="E90" s="4">
-        <v>500</v>
-      </c>
-      <c r="F90" s="4">
-        <v>135</v>
-      </c>
-      <c r="G90" s="4"/>
+      <c r="G90" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="H90" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>187</v>
+        <v>42</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="5">
-        <v>43325.37697457176</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="K90" s="4"/>
       <c r="L90" s="5">
         <v>43391.55371793982</v>
       </c>
-      <c r="M90" s="5">
-        <v>43325.38381079861</v>
-      </c>
-      <c r="N90" s="5">
-        <v>43360.86822395834</v>
-      </c>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
       <c r="O90" s="4"/>
       <c r="P90" s="4"/>
-      <c r="Q90" s="4"/>
+      <c r="Q90" s="5">
+        <v>43353.51957114584</v>
+      </c>
       <c r="R90" s="4"/>
       <c r="S90" s="4"/>
       <c r="T90" s="4"/>
@@ -6234,103 +6176,125 @@
     </row>
     <row r="91" spans="2:33">
       <c r="B91" s="2" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="E91" s="2">
-        <v>500</v>
+        <v>44.3</v>
       </c>
       <c r="F91" s="2">
-        <v>136</v>
+        <v>209</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>189</v>
+        <v>89</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K91" s="3">
-        <v>43325.37698341435</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="K91" s="2"/>
       <c r="L91" s="3">
         <v>43391.55371793982</v>
       </c>
-      <c r="M91" s="3">
-        <v>43325.38345362269</v>
-      </c>
-      <c r="N91" s="3">
-        <v>43325.39341686342</v>
-      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
       <c r="O91" s="3">
-        <v>43325.38431385416</v>
-      </c>
-      <c r="P91" s="2"/>
+        <v>43392.60218287037</v>
+      </c>
+      <c r="P91" s="3">
+        <v>43440.62791512731</v>
+      </c>
       <c r="Q91" s="2"/>
-      <c r="R91" s="2"/>
+      <c r="R91" s="3">
+        <v>43392.59913460648</v>
+      </c>
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
       <c r="U91" s="2"/>
       <c r="V91" s="2"/>
-      <c r="W91" s="2"/>
+      <c r="W91" s="3">
+        <v>43392.37946851852</v>
+      </c>
       <c r="X91" s="2"/>
-      <c r="Y91" s="2"/>
+      <c r="Y91" s="3">
+        <v>43356.5440903588</v>
+      </c>
       <c r="Z91" s="2"/>
       <c r="AA91" s="2"/>
       <c r="AB91" s="2"/>
-      <c r="AC91" s="2"/>
+      <c r="AC91" s="3">
+        <v>43392.38280864583</v>
+      </c>
       <c r="AD91" s="2"/>
-      <c r="AE91" s="2"/>
+      <c r="AE91" s="3">
+        <v>43392.379</v>
+      </c>
       <c r="AF91" s="2"/>
-      <c r="AG91" s="2"/>
+      <c r="AG91" s="3">
+        <v>43355.49950894676</v>
+      </c>
     </row>
     <row r="92" spans="2:33">
       <c r="B92" s="4" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="E92" s="4">
-        <v>230</v>
+        <v>999.9</v>
       </c>
       <c r="F92" s="4">
-        <v>137</v>
-      </c>
-      <c r="G92" s="4"/>
+        <v>210</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="H92" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>191</v>
+        <v>42</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K92" s="5">
-        <v>43325.37699212963</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="K92" s="4"/>
       <c r="L92" s="5">
         <v>43391.55371793982</v>
       </c>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
-      <c r="O92" s="4"/>
-      <c r="P92" s="4"/>
-      <c r="Q92" s="4"/>
-      <c r="R92" s="4"/>
-      <c r="S92" s="4"/>
+      <c r="M92" s="5">
+        <v>43391.58899548611</v>
+      </c>
+      <c r="N92" s="5">
+        <v>43391.58913888889</v>
+      </c>
+      <c r="O92" s="5">
+        <v>43439.45432114584</v>
+      </c>
+      <c r="P92" s="5">
+        <v>43439.54010605324</v>
+      </c>
+      <c r="Q92" s="5">
+        <v>43440.59801967593</v>
+      </c>
+      <c r="R92" s="5">
+        <v>43440.59814001157</v>
+      </c>
+      <c r="S92" s="5">
+        <v>43440.60788167824</v>
+      </c>
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
       <c r="V92" s="4"/>
@@ -6342,39 +6306,41 @@
       <c r="AB92" s="4"/>
       <c r="AC92" s="4"/>
       <c r="AD92" s="4"/>
-      <c r="AE92" s="4"/>
+      <c r="AE92" s="5">
+        <v>43355.5001397338</v>
+      </c>
       <c r="AF92" s="4"/>
       <c r="AG92" s="4"/>
     </row>
     <row r="93" spans="2:33">
       <c r="B93" s="2" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="E93" s="2">
-        <v>230</v>
+        <v>1212.1</v>
       </c>
       <c r="F93" s="2">
-        <v>138</v>
-      </c>
-      <c r="G93" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="H93" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>193</v>
+        <v>89</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K93" s="3">
-        <v>43325.37700081019</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="K93" s="2"/>
       <c r="L93" s="3">
         <v>43391.55371793982</v>
       </c>
@@ -6392,58 +6358,56 @@
       <c r="X93" s="2"/>
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
-      <c r="AA93" s="2"/>
+      <c r="AA93" s="3">
+        <v>43355.50322824074</v>
+      </c>
       <c r="AB93" s="2"/>
       <c r="AC93" s="2"/>
       <c r="AD93" s="2"/>
       <c r="AE93" s="2"/>
       <c r="AF93" s="2"/>
-      <c r="AG93" s="2"/>
+      <c r="AG93" s="3">
+        <v>43392.60826030093</v>
+      </c>
     </row>
     <row r="94" spans="2:33">
       <c r="B94" s="4" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="E94" s="4">
-        <v>200</v>
+        <v>123.4</v>
       </c>
       <c r="F94" s="4">
-        <v>139</v>
-      </c>
-      <c r="G94" s="4"/>
+        <v>214</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="H94" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>195</v>
+        <v>42</v>
       </c>
       <c r="J94" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K94" s="5">
-        <v>43325.37700960648</v>
-      </c>
+      <c r="K94" s="4"/>
       <c r="L94" s="5">
         <v>43391.55371793982</v>
       </c>
-      <c r="M94" s="5">
-        <v>43349.51082349537</v>
-      </c>
+      <c r="M94" s="4"/>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
       <c r="P94" s="4"/>
-      <c r="Q94" s="5">
-        <v>43349.51102372685</v>
-      </c>
-      <c r="R94" s="5">
-        <v>43349.51809633102</v>
-      </c>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4"/>
       <c r="S94" s="4"/>
       <c r="T94" s="4"/>
       <c r="U94" s="4"/>
@@ -6452,48 +6416,46 @@
       <c r="X94" s="4"/>
       <c r="Y94" s="4"/>
       <c r="Z94" s="4"/>
-      <c r="AA94" s="5">
-        <v>43349.51827619213</v>
-      </c>
-      <c r="AB94" s="5">
-        <v>43349.52063159722</v>
-      </c>
+      <c r="AA94" s="4"/>
+      <c r="AB94" s="4"/>
       <c r="AC94" s="4"/>
       <c r="AD94" s="4"/>
       <c r="AE94" s="4"/>
       <c r="AF94" s="4"/>
-      <c r="AG94" s="4"/>
+      <c r="AG94" s="5">
+        <v>43355.50725003472</v>
+      </c>
     </row>
     <row r="95" spans="2:33">
       <c r="B95" s="2" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="E95" s="2">
-        <v>400.5</v>
+        <v>4500.99</v>
       </c>
       <c r="F95" s="2">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="K95" s="3">
-        <v>43349.39219606481</v>
+        <v>43355.98111365741</v>
       </c>
       <c r="L95" s="3">
         <v>43391.55371793982</v>
@@ -6514,9 +6476,7 @@
       <c r="Z95" s="2"/>
       <c r="AA95" s="2"/>
       <c r="AB95" s="2"/>
-      <c r="AC95" s="3">
-        <v>43392.59261762731</v>
-      </c>
+      <c r="AC95" s="2"/>
       <c r="AD95" s="2"/>
       <c r="AE95" s="2"/>
       <c r="AF95" s="2"/>
@@ -6524,46 +6484,42 @@
     </row>
     <row r="96" spans="2:33">
       <c r="B96" s="4" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="E96" s="4">
-        <v>1125</v>
+        <v>2213.6</v>
       </c>
       <c r="F96" s="4">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="4" t="s">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>47</v>
+        <v>199</v>
       </c>
       <c r="J96" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K96" s="5">
-        <v>43325.83706269676</v>
+        <v>43353.54484988426</v>
       </c>
       <c r="L96" s="5">
         <v>43391.55371793982</v>
       </c>
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
-      <c r="O96" s="5">
-        <v>43327.35744513889</v>
-      </c>
+      <c r="O96" s="4"/>
       <c r="P96" s="4"/>
       <c r="Q96" s="4"/>
-      <c r="R96" s="5">
-        <v>43327.3577871875</v>
-      </c>
+      <c r="R96" s="4"/>
       <c r="S96" s="4"/>
       <c r="T96" s="4"/>
       <c r="U96" s="4"/>
@@ -6582,36 +6538,42 @@
     </row>
     <row r="97" spans="2:33">
       <c r="B97" s="2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E97" s="2">
-        <v>1945</v>
+        <v>2213.6</v>
       </c>
       <c r="F97" s="2">
-        <v>246</v>
+        <v>181</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2" t="s">
-        <v>198</v>
+        <v>43</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K97" s="3">
-        <v>43434.37016388889</v>
-      </c>
-      <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
+        <v>43353.5448587963</v>
+      </c>
+      <c r="L97" s="3">
+        <v>43391.55371793982</v>
+      </c>
+      <c r="M97" s="3">
+        <v>43434.45494880787</v>
+      </c>
+      <c r="N97" s="3">
+        <v>43434.45565042824</v>
+      </c>
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
@@ -6634,35 +6596,39 @@
     </row>
     <row r="98" spans="2:33">
       <c r="B98" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E98" s="4">
+        <v>232.2</v>
+      </c>
+      <c r="F98" s="4">
+        <v>182</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I98" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="E98" s="4">
-        <v>1945</v>
-      </c>
-      <c r="F98" s="4">
-        <v>247</v>
-      </c>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>202</v>
-      </c>
       <c r="J98" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K98" s="5">
-        <v>43434.37017334491</v>
-      </c>
-      <c r="L98" s="4"/>
-      <c r="M98" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="K98" s="4"/>
+      <c r="L98" s="5">
+        <v>43391.55371793982</v>
+      </c>
+      <c r="M98" s="5">
+        <v>43440.59039915509</v>
+      </c>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
       <c r="P98" s="4"/>
@@ -6675,7 +6641,9 @@
       <c r="W98" s="4"/>
       <c r="X98" s="4"/>
       <c r="Y98" s="4"/>
-      <c r="Z98" s="4"/>
+      <c r="Z98" s="5">
+        <v>43353.58169262732</v>
+      </c>
       <c r="AA98" s="4"/>
       <c r="AB98" s="4"/>
       <c r="AC98" s="4"/>
@@ -6686,34 +6654,36 @@
     </row>
     <row r="99" spans="2:33">
       <c r="B99" s="2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E99" s="2">
-        <v>1802</v>
+        <v>2903.5</v>
       </c>
       <c r="F99" s="2">
-        <v>248</v>
-      </c>
-      <c r="G99" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="H99" s="2" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>202</v>
+        <v>42</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K99" s="3">
-        <v>43434.37018283565</v>
-      </c>
-      <c r="L99" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="K99" s="2"/>
+      <c r="L99" s="3">
+        <v>43391.55371793982</v>
+      </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -6721,7 +6691,9 @@
       <c r="Q99" s="2"/>
       <c r="R99" s="2"/>
       <c r="S99" s="2"/>
-      <c r="T99" s="2"/>
+      <c r="T99" s="3">
+        <v>43353.60090471065</v>
+      </c>
       <c r="U99" s="2"/>
       <c r="V99" s="2"/>
       <c r="W99" s="2"/>
@@ -6738,23 +6710,23 @@
     </row>
     <row r="100" spans="2:33">
       <c r="B100" s="4" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E100" s="4">
-        <v>1802</v>
+        <v>1140.11</v>
       </c>
       <c r="F100" s="4">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I100" s="4" t="s">
         <v>202</v>
@@ -6763,7 +6735,7 @@
         <v>9</v>
       </c>
       <c r="K100" s="5">
-        <v>43434.37019232639</v>
+        <v>43472.47871504629</v>
       </c>
       <c r="L100" s="4"/>
       <c r="M100" s="4"/>
@@ -6790,138 +6762,220 @@
     </row>
     <row r="101" spans="2:33">
       <c r="B101" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E101" s="2">
-        <v>438</v>
+        <v>1400</v>
       </c>
       <c r="F101" s="2">
-        <v>260</v>
-      </c>
-      <c r="G101" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="H101" s="2" t="s">
-        <v>50</v>
+        <v>205</v>
       </c>
       <c r="I101" s="2" t="s">
         <v>206</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="K101" s="3">
-        <v>43434.37029641204</v>
-      </c>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
-      <c r="P101" s="2"/>
-      <c r="Q101" s="2"/>
-      <c r="R101" s="2"/>
-      <c r="S101" s="2"/>
-      <c r="T101" s="2"/>
-      <c r="U101" s="2"/>
-      <c r="V101" s="2"/>
-      <c r="W101" s="2"/>
-      <c r="X101" s="2"/>
-      <c r="Y101" s="2"/>
-      <c r="Z101" s="2"/>
-      <c r="AA101" s="2"/>
-      <c r="AB101" s="2"/>
-      <c r="AC101" s="2"/>
-      <c r="AD101" s="2"/>
-      <c r="AE101" s="2"/>
-      <c r="AF101" s="2"/>
-      <c r="AG101" s="2"/>
+        <v>43325.85334251157</v>
+      </c>
+      <c r="L101" s="3">
+        <v>43357.52954050926</v>
+      </c>
+      <c r="M101" s="3">
+        <v>43392.39436003472</v>
+      </c>
+      <c r="N101" s="3">
+        <v>43392.59294251158</v>
+      </c>
+      <c r="O101" s="3">
+        <v>43426.48486284722</v>
+      </c>
+      <c r="P101" s="3">
+        <v>43426.48502010417</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>43357.54327334491</v>
+      </c>
+      <c r="R101" s="3">
+        <v>43426.48537762732</v>
+      </c>
+      <c r="S101" s="3">
+        <v>43426.48554409722</v>
+      </c>
+      <c r="T101" s="3">
+        <v>43426.48569085648</v>
+      </c>
+      <c r="U101" s="3">
+        <v>43425.59099123842</v>
+      </c>
+      <c r="V101" s="3">
+        <v>43426.48599872685</v>
+      </c>
+      <c r="W101" s="3">
+        <v>43356.00155771991</v>
+      </c>
+      <c r="X101" s="3">
+        <v>43403.51755150463</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>43325.86092118055</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>43339.49630829861</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>43349.52683082176</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>43426.48729016204</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>43426.48802997685</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>43426.48817688657</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>43356.54689861111</v>
+      </c>
+      <c r="AF101" s="3">
+        <v>43426.48384221065</v>
+      </c>
+      <c r="AG101" s="3">
+        <v>43357.52339224537</v>
+      </c>
     </row>
     <row r="102" spans="2:33">
       <c r="B102" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E102" s="4">
-        <v>605</v>
+        <v>1400</v>
       </c>
       <c r="F102" s="4">
-        <v>261</v>
+        <v>142</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="K102" s="5">
-        <v>43434.37030590278</v>
-      </c>
-      <c r="L102" s="4"/>
-      <c r="M102" s="4"/>
+        <v>43325.85335107639</v>
+      </c>
+      <c r="L102" s="5">
+        <v>43403.39158005787</v>
+      </c>
+      <c r="M102" s="5">
+        <v>43425.60372349537</v>
+      </c>
       <c r="N102" s="4"/>
-      <c r="O102" s="4"/>
+      <c r="O102" s="5">
+        <v>43357.53069618055</v>
+      </c>
       <c r="P102" s="4"/>
-      <c r="Q102" s="4"/>
-      <c r="R102" s="4"/>
-      <c r="S102" s="4"/>
-      <c r="T102" s="4"/>
-      <c r="U102" s="4"/>
-      <c r="V102" s="4"/>
-      <c r="W102" s="4"/>
-      <c r="X102" s="4"/>
-      <c r="Y102" s="4"/>
-      <c r="Z102" s="4"/>
-      <c r="AA102" s="4"/>
-      <c r="AB102" s="4"/>
-      <c r="AC102" s="4"/>
+      <c r="Q102" s="5">
+        <v>43425.60364771991</v>
+      </c>
+      <c r="R102" s="5">
+        <v>43341.81454212963</v>
+      </c>
+      <c r="S102" s="5">
+        <v>43425.60379915509</v>
+      </c>
+      <c r="T102" s="5">
+        <v>43355.66658993056</v>
+      </c>
+      <c r="U102" s="5">
+        <v>43439.54970292824</v>
+      </c>
+      <c r="V102" s="5">
+        <v>43392.39350228009</v>
+      </c>
+      <c r="W102" s="5">
+        <v>43425.6035721412</v>
+      </c>
+      <c r="X102" s="5">
+        <v>43441.4306591088</v>
+      </c>
+      <c r="Y102" s="5">
+        <v>43425.60394710648</v>
+      </c>
+      <c r="Z102" s="5">
+        <v>43430.44715864583</v>
+      </c>
+      <c r="AA102" s="5">
+        <v>43403.51805023148</v>
+      </c>
+      <c r="AB102" s="5">
+        <v>43403.54451539352</v>
+      </c>
+      <c r="AC102" s="5">
+        <v>43425.60356909722</v>
+      </c>
       <c r="AD102" s="4"/>
       <c r="AE102" s="4"/>
       <c r="AF102" s="4"/>
-      <c r="AG102" s="4"/>
+      <c r="AG102" s="5">
+        <v>43356.54717106481</v>
+      </c>
     </row>
     <row r="103" spans="2:33">
       <c r="B103" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E103" s="2">
-        <v>829</v>
+        <v>1400</v>
       </c>
       <c r="F103" s="2">
-        <v>262</v>
+        <v>143</v>
       </c>
       <c r="G103" s="2"/>
       <c r="H103" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="K103" s="3">
-        <v>43434.37031519676</v>
-      </c>
-      <c r="L103" s="2"/>
+        <v>43325.8533596412</v>
+      </c>
+      <c r="L103" s="3">
+        <v>43391.55371793982</v>
+      </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -6930,118 +6984,166 @@
       <c r="R103" s="2"/>
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
-      <c r="U103" s="2"/>
-      <c r="V103" s="2"/>
+      <c r="U103" s="3">
+        <v>43391.55682908565</v>
+      </c>
+      <c r="V103" s="3">
+        <v>43403.53088052083</v>
+      </c>
       <c r="W103" s="2"/>
       <c r="X103" s="2"/>
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
-      <c r="AA103" s="2"/>
-      <c r="AB103" s="2"/>
-      <c r="AC103" s="2"/>
-      <c r="AD103" s="2"/>
+      <c r="AA103" s="3">
+        <v>43356.54789814815</v>
+      </c>
+      <c r="AB103" s="3">
+        <v>43432.45857870371</v>
+      </c>
+      <c r="AC103" s="3">
+        <v>43440.57258244213</v>
+      </c>
+      <c r="AD103" s="3">
+        <v>43356.00206273148</v>
+      </c>
       <c r="AE103" s="2"/>
       <c r="AF103" s="2"/>
       <c r="AG103" s="2"/>
     </row>
     <row r="104" spans="2:33">
       <c r="B104" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E104" s="4">
-        <v>1676</v>
+        <v>1400</v>
       </c>
       <c r="F104" s="4">
-        <v>250</v>
+        <v>144</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="K104" s="5">
-        <v>43434.37020181713</v>
-      </c>
-      <c r="L104" s="4"/>
+        <v>43325.85336820602</v>
+      </c>
+      <c r="L104" s="5">
+        <v>43391.55371793982</v>
+      </c>
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
       <c r="P104" s="4"/>
       <c r="Q104" s="4"/>
       <c r="R104" s="4"/>
-      <c r="S104" s="4"/>
-      <c r="T104" s="4"/>
+      <c r="S104" s="5">
+        <v>43356.53652905093</v>
+      </c>
+      <c r="T104" s="5">
+        <v>43391.5498974537</v>
+      </c>
       <c r="U104" s="4"/>
       <c r="V104" s="4"/>
       <c r="W104" s="4"/>
       <c r="X104" s="4"/>
-      <c r="Y104" s="4"/>
+      <c r="Y104" s="5">
+        <v>43430.4798121875</v>
+      </c>
       <c r="Z104" s="4"/>
-      <c r="AA104" s="4"/>
-      <c r="AB104" s="4"/>
+      <c r="AA104" s="5">
+        <v>43325.86150505787</v>
+      </c>
+      <c r="AB104" s="5">
+        <v>43349.34998055555</v>
+      </c>
       <c r="AC104" s="4"/>
       <c r="AD104" s="4"/>
       <c r="AE104" s="4"/>
       <c r="AF104" s="4"/>
-      <c r="AG104" s="4"/>
+      <c r="AG104" s="5">
+        <v>43426.55960868055</v>
+      </c>
     </row>
     <row r="105" spans="2:33">
       <c r="B105" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E105" s="2">
-        <v>1676</v>
+        <v>1400</v>
       </c>
       <c r="F105" s="2">
-        <v>251</v>
-      </c>
-      <c r="G105" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="H105" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="K105" s="3">
-        <v>43434.37021126157</v>
-      </c>
-      <c r="L105" s="2"/>
+        <v>43325.85337673611</v>
+      </c>
+      <c r="L105" s="3">
+        <v>43391.55371793982</v>
+      </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
-      <c r="R105" s="2"/>
-      <c r="S105" s="2"/>
-      <c r="T105" s="2"/>
+      <c r="R105" s="3">
+        <v>43325.87537685185</v>
+      </c>
+      <c r="S105" s="3">
+        <v>43325.88645778935</v>
+      </c>
+      <c r="T105" s="3">
+        <v>43325.88772708333</v>
+      </c>
       <c r="U105" s="2"/>
       <c r="V105" s="2"/>
-      <c r="W105" s="2"/>
-      <c r="X105" s="2"/>
-      <c r="Y105" s="2"/>
-      <c r="Z105" s="2"/>
-      <c r="AA105" s="2"/>
-      <c r="AB105" s="2"/>
+      <c r="W105" s="3">
+        <v>43392.3743303588</v>
+      </c>
+      <c r="X105" s="3">
+        <v>43432.45397508102</v>
+      </c>
+      <c r="Y105" s="3">
+        <v>43437.62742549769</v>
+      </c>
+      <c r="Z105" s="3">
+        <v>43437.62755628472</v>
+      </c>
+      <c r="AA105" s="3">
+        <v>43437.8774584838</v>
+      </c>
+      <c r="AB105" s="3">
+        <v>43441.41706010417</v>
+      </c>
       <c r="AC105" s="2"/>
       <c r="AD105" s="2"/>
       <c r="AE105" s="2"/>
@@ -7050,34 +7152,36 @@
     </row>
     <row r="106" spans="2:33">
       <c r="B106" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E106" s="4">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F106" s="4">
-        <v>252</v>
+        <v>146</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="4" t="s">
-        <v>210</v>
+        <v>48</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="K106" s="5">
-        <v>43434.37022075232</v>
-      </c>
-      <c r="L106" s="4"/>
+        <v>43325.85338530093</v>
+      </c>
+      <c r="L106" s="5">
+        <v>43391.55371793982</v>
+      </c>
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
@@ -7089,58 +7193,80 @@
       <c r="U106" s="4"/>
       <c r="V106" s="4"/>
       <c r="W106" s="4"/>
-      <c r="X106" s="4"/>
+      <c r="X106" s="5">
+        <v>43355.95603020833</v>
+      </c>
       <c r="Y106" s="4"/>
       <c r="Z106" s="4"/>
       <c r="AA106" s="4"/>
       <c r="AB106" s="4"/>
       <c r="AC106" s="4"/>
       <c r="AD106" s="4"/>
-      <c r="AE106" s="4"/>
-      <c r="AF106" s="4"/>
+      <c r="AE106" s="5">
+        <v>43425.60557357639</v>
+      </c>
+      <c r="AF106" s="5">
+        <v>43433.62801076389</v>
+      </c>
       <c r="AG106" s="4"/>
     </row>
     <row r="107" spans="2:33">
       <c r="B107" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E107" s="2">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F107" s="2">
-        <v>253</v>
+        <v>147</v>
       </c>
       <c r="G107" s="2"/>
       <c r="H107" s="2" t="s">
-        <v>211</v>
+        <v>125</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K107" s="3">
-        <v>43434.37023005787</v>
-      </c>
-      <c r="L107" s="2"/>
+        <v>43325.85339386574</v>
+      </c>
+      <c r="L107" s="3">
+        <v>43391.55371793982</v>
+      </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
-      <c r="P107" s="2"/>
-      <c r="Q107" s="2"/>
-      <c r="R107" s="2"/>
-      <c r="S107" s="2"/>
-      <c r="T107" s="2"/>
+      <c r="O107" s="3">
+        <v>43425.61105219908</v>
+      </c>
+      <c r="P107" s="3">
+        <v>43434.45466712963</v>
+      </c>
+      <c r="Q107" s="3">
+        <v>43440.57243966435</v>
+      </c>
+      <c r="R107" s="3">
+        <v>43440.59782364583</v>
+      </c>
+      <c r="S107" s="3">
+        <v>43403.51181759259</v>
+      </c>
+      <c r="T107" s="3">
+        <v>43425.60397202546</v>
+      </c>
       <c r="U107" s="2"/>
       <c r="V107" s="2"/>
-      <c r="W107" s="2"/>
+      <c r="W107" s="3">
+        <v>43341.81656403935</v>
+      </c>
       <c r="X107" s="2"/>
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
@@ -7154,34 +7280,36 @@
     </row>
     <row r="108" spans="2:33">
       <c r="B108" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E108" s="4">
-        <v>1962</v>
+        <v>1400</v>
       </c>
       <c r="F108" s="4">
-        <v>254</v>
+        <v>148</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="J108" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K108" s="5">
-        <v>43434.37023961805</v>
-      </c>
-      <c r="L108" s="4"/>
+        <v>43325.85340243056</v>
+      </c>
+      <c r="L108" s="5">
+        <v>43325.883859375</v>
+      </c>
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
@@ -7195,7 +7323,9 @@
       <c r="W108" s="4"/>
       <c r="X108" s="4"/>
       <c r="Y108" s="4"/>
-      <c r="Z108" s="4"/>
+      <c r="Z108" s="5">
+        <v>43355.66705142361</v>
+      </c>
       <c r="AA108" s="4"/>
       <c r="AB108" s="4"/>
       <c r="AC108" s="4"/>
@@ -7206,34 +7336,36 @@
     </row>
     <row r="109" spans="2:33">
       <c r="B109" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E109" s="2">
-        <v>1962</v>
+        <v>1400</v>
       </c>
       <c r="F109" s="2">
-        <v>255</v>
+        <v>149</v>
       </c>
       <c r="G109" s="2"/>
       <c r="H109" s="2" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="K109" s="3">
-        <v>43434.37024907408</v>
-      </c>
-      <c r="L109" s="2"/>
+        <v>43325.85341099537</v>
+      </c>
+      <c r="L109" s="3">
+        <v>43325.88402658565</v>
+      </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -7242,14 +7374,22 @@
       <c r="R109" s="2"/>
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
-      <c r="U109" s="2"/>
-      <c r="V109" s="2"/>
+      <c r="U109" s="3">
+        <v>43425.61165709491</v>
+      </c>
+      <c r="V109" s="3">
+        <v>43425.61223758102</v>
+      </c>
       <c r="W109" s="2"/>
       <c r="X109" s="2"/>
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
-      <c r="AA109" s="2"/>
-      <c r="AB109" s="2"/>
+      <c r="AA109" s="3">
+        <v>43430.47100767361</v>
+      </c>
+      <c r="AB109" s="3">
+        <v>43437.87755686342</v>
+      </c>
       <c r="AC109" s="2"/>
       <c r="AD109" s="2"/>
       <c r="AE109" s="2"/>
@@ -7258,34 +7398,36 @@
     </row>
     <row r="110" spans="2:33">
       <c r="B110" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E110" s="4">
-        <v>2879</v>
+        <v>1400</v>
       </c>
       <c r="F110" s="4">
-        <v>256</v>
+        <v>150</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="K110" s="5">
-        <v>43434.3702584838</v>
-      </c>
-      <c r="L110" s="4"/>
+        <v>43325.85341956018</v>
+      </c>
+      <c r="L110" s="5">
+        <v>43391.55371793982</v>
+      </c>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
@@ -7294,8 +7436,12 @@
       <c r="R110" s="4"/>
       <c r="S110" s="4"/>
       <c r="T110" s="4"/>
-      <c r="U110" s="4"/>
-      <c r="V110" s="4"/>
+      <c r="U110" s="5">
+        <v>43339.49207233796</v>
+      </c>
+      <c r="V110" s="5">
+        <v>43339.49216149306</v>
+      </c>
       <c r="W110" s="4"/>
       <c r="X110" s="4"/>
       <c r="Y110" s="4"/>
@@ -7304,40 +7450,44 @@
       <c r="AB110" s="4"/>
       <c r="AC110" s="4"/>
       <c r="AD110" s="4"/>
-      <c r="AE110" s="4"/>
+      <c r="AE110" s="5">
+        <v>43392.37512021991</v>
+      </c>
       <c r="AF110" s="4"/>
       <c r="AG110" s="4"/>
     </row>
     <row r="111" spans="2:33">
       <c r="B111" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E111" s="2">
-        <v>2879</v>
+        <v>1400</v>
       </c>
       <c r="F111" s="2">
-        <v>257</v>
+        <v>151</v>
       </c>
       <c r="G111" s="2"/>
       <c r="H111" s="2" t="s">
-        <v>215</v>
+        <v>67</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="K111" s="3">
-        <v>43434.37026802083</v>
-      </c>
-      <c r="L111" s="2"/>
+        <v>43325.853428125</v>
+      </c>
+      <c r="L111" s="3">
+        <v>43391.55371793982</v>
+      </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -7352,7 +7502,9 @@
       <c r="X111" s="2"/>
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
-      <c r="AA111" s="2"/>
+      <c r="AA111" s="3">
+        <v>43392.59710787037</v>
+      </c>
       <c r="AB111" s="2"/>
       <c r="AC111" s="2"/>
       <c r="AD111" s="2"/>
@@ -7362,38 +7514,42 @@
     </row>
     <row r="112" spans="2:33">
       <c r="B112" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E112" s="4">
-        <v>1298</v>
+        <v>1400</v>
       </c>
       <c r="F112" s="4">
-        <v>258</v>
+        <v>152</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="4" t="s">
-        <v>48</v>
+        <v>216</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K112" s="5">
-        <v>43434.37027746528</v>
+        <v>43325.85343668982</v>
       </c>
       <c r="L112" s="5">
-        <v>43434.45600648148</v>
-      </c>
-      <c r="M112" s="4"/>
-      <c r="N112" s="4"/>
+        <v>43391.55371793982</v>
+      </c>
+      <c r="M112" s="5">
+        <v>43433.62821423611</v>
+      </c>
+      <c r="N112" s="5">
+        <v>43433.6283375</v>
+      </c>
       <c r="O112" s="4"/>
       <c r="P112" s="4"/>
       <c r="Q112" s="4"/>
@@ -7416,38 +7572,40 @@
     </row>
     <row r="113" spans="2:33">
       <c r="B113" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E113" s="2">
-        <v>1082</v>
+        <v>1400</v>
       </c>
       <c r="F113" s="2">
-        <v>259</v>
+        <v>153</v>
       </c>
       <c r="G113" s="2"/>
       <c r="H113" s="2" t="s">
-        <v>49</v>
+        <v>217</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="K113" s="3">
-        <v>43434.37028692129</v>
+        <v>43325.85344540509</v>
       </c>
       <c r="L113" s="3">
-        <v>43437.01601547454</v>
+        <v>43391.55371793982</v>
       </c>
       <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
+      <c r="N113" s="3">
+        <v>43353.63381585648</v>
+      </c>
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
       <c r="Q113" s="2"/>
@@ -7468,8 +7626,720 @@
       <c r="AF113" s="2"/>
       <c r="AG113" s="2"/>
     </row>
+    <row r="114" spans="2:33">
+      <c r="B114" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E114" s="4">
+        <v>1400</v>
+      </c>
+      <c r="F114" s="4">
+        <v>154</v>
+      </c>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="J114" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K114" s="5">
+        <v>43325.85345396991</v>
+      </c>
+      <c r="L114" s="5">
+        <v>43391.55371793982</v>
+      </c>
+      <c r="M114" s="4"/>
+      <c r="N114" s="4"/>
+      <c r="O114" s="4"/>
+      <c r="P114" s="4"/>
+      <c r="Q114" s="4"/>
+      <c r="R114" s="4"/>
+      <c r="S114" s="4"/>
+      <c r="T114" s="4"/>
+      <c r="U114" s="4"/>
+      <c r="V114" s="4"/>
+      <c r="W114" s="4"/>
+      <c r="X114" s="4"/>
+      <c r="Y114" s="4"/>
+      <c r="Z114" s="4"/>
+      <c r="AA114" s="4"/>
+      <c r="AB114" s="4"/>
+      <c r="AC114" s="4"/>
+      <c r="AD114" s="4"/>
+      <c r="AE114" s="4"/>
+      <c r="AF114" s="4"/>
+      <c r="AG114" s="4"/>
+    </row>
+    <row r="115" spans="2:33">
+      <c r="B115" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E115" s="2">
+        <v>1400</v>
+      </c>
+      <c r="F115" s="2">
+        <v>155</v>
+      </c>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K115" s="3">
+        <v>43325.8534625</v>
+      </c>
+      <c r="L115" s="3">
+        <v>43391.55371793982</v>
+      </c>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+      <c r="P115" s="2"/>
+      <c r="Q115" s="2"/>
+      <c r="R115" s="2"/>
+      <c r="S115" s="2"/>
+      <c r="T115" s="2"/>
+      <c r="U115" s="2"/>
+      <c r="V115" s="2"/>
+      <c r="W115" s="2"/>
+      <c r="X115" s="2"/>
+      <c r="Y115" s="2"/>
+      <c r="Z115" s="2"/>
+      <c r="AA115" s="2"/>
+      <c r="AB115" s="2"/>
+      <c r="AC115" s="2"/>
+      <c r="AD115" s="2"/>
+      <c r="AE115" s="2"/>
+      <c r="AF115" s="2"/>
+      <c r="AG115" s="2"/>
+    </row>
+    <row r="116" spans="2:33">
+      <c r="B116" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E116" s="4">
+        <v>1400</v>
+      </c>
+      <c r="F116" s="4">
+        <v>156</v>
+      </c>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K116" s="5">
+        <v>43325.85347109954</v>
+      </c>
+      <c r="L116" s="5">
+        <v>43391.55371793982</v>
+      </c>
+      <c r="M116" s="4"/>
+      <c r="N116" s="4"/>
+      <c r="O116" s="4"/>
+      <c r="P116" s="4"/>
+      <c r="Q116" s="4"/>
+      <c r="R116" s="4"/>
+      <c r="S116" s="4"/>
+      <c r="T116" s="4"/>
+      <c r="U116" s="4"/>
+      <c r="V116" s="4"/>
+      <c r="W116" s="4"/>
+      <c r="X116" s="4"/>
+      <c r="Y116" s="4"/>
+      <c r="Z116" s="4"/>
+      <c r="AA116" s="4"/>
+      <c r="AB116" s="4"/>
+      <c r="AC116" s="4"/>
+      <c r="AD116" s="4"/>
+      <c r="AE116" s="4"/>
+      <c r="AF116" s="4"/>
+      <c r="AG116" s="4"/>
+    </row>
+    <row r="117" spans="2:33">
+      <c r="B117" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E117" s="2">
+        <v>1400</v>
+      </c>
+      <c r="F117" s="2">
+        <v>157</v>
+      </c>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="3">
+        <v>43325.85347966435</v>
+      </c>
+      <c r="L117" s="3">
+        <v>43391.55371793982</v>
+      </c>
+      <c r="M117" s="3">
+        <v>43356.53822248842</v>
+      </c>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="2"/>
+      <c r="R117" s="2"/>
+      <c r="S117" s="2"/>
+      <c r="T117" s="2"/>
+      <c r="U117" s="2"/>
+      <c r="V117" s="2"/>
+      <c r="W117" s="2"/>
+      <c r="X117" s="2"/>
+      <c r="Y117" s="2"/>
+      <c r="Z117" s="2"/>
+      <c r="AA117" s="2"/>
+      <c r="AB117" s="2"/>
+      <c r="AC117" s="2"/>
+      <c r="AD117" s="2"/>
+      <c r="AE117" s="2"/>
+      <c r="AF117" s="2"/>
+      <c r="AG117" s="3">
+        <v>43433.62900300926</v>
+      </c>
+    </row>
+    <row r="118" spans="2:33">
+      <c r="B118" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E118" s="4">
+        <v>5000</v>
+      </c>
+      <c r="F118" s="4">
+        <v>158</v>
+      </c>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K118" s="5">
+        <v>43325.85348822916</v>
+      </c>
+      <c r="L118" s="5">
+        <v>43391.55371793982</v>
+      </c>
+      <c r="M118" s="4"/>
+      <c r="N118" s="4"/>
+      <c r="O118" s="4"/>
+      <c r="P118" s="4"/>
+      <c r="Q118" s="5">
+        <v>43356.00295289352</v>
+      </c>
+      <c r="R118" s="4"/>
+      <c r="S118" s="4"/>
+      <c r="T118" s="4"/>
+      <c r="U118" s="4"/>
+      <c r="V118" s="4"/>
+      <c r="W118" s="4"/>
+      <c r="X118" s="4"/>
+      <c r="Y118" s="4"/>
+      <c r="Z118" s="4"/>
+      <c r="AA118" s="4"/>
+      <c r="AB118" s="4"/>
+      <c r="AC118" s="4"/>
+      <c r="AD118" s="4"/>
+      <c r="AE118" s="4"/>
+      <c r="AF118" s="4"/>
+      <c r="AG118" s="4"/>
+    </row>
+    <row r="119" spans="2:33">
+      <c r="B119" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E119" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F119" s="2">
+        <v>159</v>
+      </c>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K119" s="3">
+        <v>43325.85349672454</v>
+      </c>
+      <c r="L119" s="3">
+        <v>43391.55371793982</v>
+      </c>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+      <c r="P119" s="2"/>
+      <c r="Q119" s="2"/>
+      <c r="R119" s="2"/>
+      <c r="S119" s="2"/>
+      <c r="T119" s="2"/>
+      <c r="U119" s="2"/>
+      <c r="V119" s="2"/>
+      <c r="W119" s="2"/>
+      <c r="X119" s="2"/>
+      <c r="Y119" s="2"/>
+      <c r="Z119" s="2"/>
+      <c r="AA119" s="3">
+        <v>43325.86277569445</v>
+      </c>
+      <c r="AB119" s="2"/>
+      <c r="AC119" s="2"/>
+      <c r="AD119" s="2"/>
+      <c r="AE119" s="2"/>
+      <c r="AF119" s="2"/>
+      <c r="AG119" s="2"/>
+    </row>
+    <row r="120" spans="2:33">
+      <c r="B120" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E120" s="4">
+        <v>897.6</v>
+      </c>
+      <c r="F120" s="4">
+        <v>198</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K120" s="4"/>
+      <c r="L120" s="5">
+        <v>43391.55371793982</v>
+      </c>
+      <c r="M120" s="4"/>
+      <c r="N120" s="4"/>
+      <c r="O120" s="4"/>
+      <c r="P120" s="4"/>
+      <c r="Q120" s="4"/>
+      <c r="R120" s="4"/>
+      <c r="S120" s="4"/>
+      <c r="T120" s="4"/>
+      <c r="U120" s="4"/>
+      <c r="V120" s="4"/>
+      <c r="W120" s="4"/>
+      <c r="X120" s="4"/>
+      <c r="Y120" s="4"/>
+      <c r="Z120" s="5">
+        <v>43355.34333680556</v>
+      </c>
+      <c r="AA120" s="4"/>
+      <c r="AB120" s="4"/>
+      <c r="AC120" s="4"/>
+      <c r="AD120" s="4"/>
+      <c r="AE120" s="4"/>
+      <c r="AF120" s="4"/>
+      <c r="AG120" s="4"/>
+    </row>
+    <row r="121" spans="2:33">
+      <c r="B121" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E121" s="2">
+        <v>111.13</v>
+      </c>
+      <c r="F121" s="2">
+        <v>201</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K121" s="2"/>
+      <c r="L121" s="3">
+        <v>43391.55371793982</v>
+      </c>
+      <c r="M121" s="2"/>
+      <c r="N121" s="2"/>
+      <c r="O121" s="2"/>
+      <c r="P121" s="2"/>
+      <c r="Q121" s="2"/>
+      <c r="R121" s="2"/>
+      <c r="S121" s="2"/>
+      <c r="T121" s="2"/>
+      <c r="U121" s="2"/>
+      <c r="V121" s="2"/>
+      <c r="W121" s="2"/>
+      <c r="X121" s="2"/>
+      <c r="Y121" s="3">
+        <v>43355.35701990741</v>
+      </c>
+      <c r="Z121" s="2"/>
+      <c r="AA121" s="2"/>
+      <c r="AB121" s="2"/>
+      <c r="AC121" s="2"/>
+      <c r="AD121" s="2"/>
+      <c r="AE121" s="2"/>
+      <c r="AF121" s="2"/>
+      <c r="AG121" s="2"/>
+    </row>
+    <row r="122" spans="2:33">
+      <c r="B122" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E122" s="4">
+        <v>656.5</v>
+      </c>
+      <c r="F122" s="4">
+        <v>206</v>
+      </c>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K122" s="4"/>
+      <c r="L122" s="5">
+        <v>43391.55371793982</v>
+      </c>
+      <c r="M122" s="4"/>
+      <c r="N122" s="4"/>
+      <c r="O122" s="4"/>
+      <c r="P122" s="4"/>
+      <c r="Q122" s="5">
+        <v>43392.59447809028</v>
+      </c>
+      <c r="R122" s="5">
+        <v>43392.59571153935</v>
+      </c>
+      <c r="S122" s="4"/>
+      <c r="T122" s="4"/>
+      <c r="U122" s="4"/>
+      <c r="V122" s="4"/>
+      <c r="W122" s="4"/>
+      <c r="X122" s="4"/>
+      <c r="Y122" s="4"/>
+      <c r="Z122" s="4"/>
+      <c r="AA122" s="5">
+        <v>43355.36268865741</v>
+      </c>
+      <c r="AB122" s="4"/>
+      <c r="AC122" s="5">
+        <v>43392.59605755787</v>
+      </c>
+      <c r="AD122" s="5">
+        <v>43432.5430974537</v>
+      </c>
+      <c r="AE122" s="4"/>
+      <c r="AF122" s="5">
+        <v>43392.39263005787</v>
+      </c>
+      <c r="AG122" s="4"/>
+    </row>
+    <row r="123" spans="2:33">
+      <c r="B123" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E123" s="2">
+        <v>150.5</v>
+      </c>
+      <c r="F123" s="2">
+        <v>275</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K123" s="3">
+        <v>43439.36472627315</v>
+      </c>
+      <c r="L123" s="2"/>
+      <c r="M123" s="2"/>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2"/>
+      <c r="P123" s="2"/>
+      <c r="Q123" s="2"/>
+      <c r="R123" s="2"/>
+      <c r="S123" s="2"/>
+      <c r="T123" s="2"/>
+      <c r="U123" s="2"/>
+      <c r="V123" s="2"/>
+      <c r="W123" s="2"/>
+      <c r="X123" s="2"/>
+      <c r="Y123" s="2"/>
+      <c r="Z123" s="2"/>
+      <c r="AA123" s="2"/>
+      <c r="AB123" s="2"/>
+      <c r="AC123" s="2"/>
+      <c r="AD123" s="2"/>
+      <c r="AE123" s="2"/>
+      <c r="AF123" s="2"/>
+      <c r="AG123" s="2"/>
+    </row>
+    <row r="124" spans="2:33">
+      <c r="B124" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E124" s="4">
+        <v>200.3</v>
+      </c>
+      <c r="F124" s="4">
+        <v>276</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J124" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K124" s="5">
+        <v>43439.36865431713</v>
+      </c>
+      <c r="L124" s="4"/>
+      <c r="M124" s="4"/>
+      <c r="N124" s="4"/>
+      <c r="O124" s="4"/>
+      <c r="P124" s="4"/>
+      <c r="Q124" s="4"/>
+      <c r="R124" s="4"/>
+      <c r="S124" s="4"/>
+      <c r="T124" s="4"/>
+      <c r="U124" s="4"/>
+      <c r="V124" s="4"/>
+      <c r="W124" s="4"/>
+      <c r="X124" s="4"/>
+      <c r="Y124" s="4"/>
+      <c r="Z124" s="4"/>
+      <c r="AA124" s="4"/>
+      <c r="AB124" s="4"/>
+      <c r="AC124" s="4"/>
+      <c r="AD124" s="4"/>
+      <c r="AE124" s="4"/>
+      <c r="AF124" s="4"/>
+      <c r="AG124" s="4"/>
+    </row>
+    <row r="125" spans="2:33">
+      <c r="B125" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E125" s="2">
+        <v>150</v>
+      </c>
+      <c r="F125" s="2">
+        <v>288</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K125" s="3">
+        <v>43473.47251643518</v>
+      </c>
+      <c r="L125" s="3">
+        <v>43473.47309221065</v>
+      </c>
+      <c r="M125" s="3">
+        <v>43473.47320524306</v>
+      </c>
+      <c r="N125" s="3">
+        <v>43473.47330559028</v>
+      </c>
+      <c r="O125" s="3">
+        <v>43473.4734085301</v>
+      </c>
+      <c r="P125" s="3">
+        <v>43473.47349108796</v>
+      </c>
+      <c r="Q125" s="3">
+        <v>43473.47360115741</v>
+      </c>
+      <c r="R125" s="3">
+        <v>43473.4736908912</v>
+      </c>
+      <c r="S125" s="3">
+        <v>43473.47379780093</v>
+      </c>
+      <c r="T125" s="3">
+        <v>43473.47388792824</v>
+      </c>
+      <c r="U125" s="3">
+        <v>43473.47448842593</v>
+      </c>
+      <c r="V125" s="3">
+        <v>43473.47530239583</v>
+      </c>
+      <c r="W125" s="3">
+        <v>43473.47541712963</v>
+      </c>
+      <c r="X125" s="3">
+        <v>43473.47550787037</v>
+      </c>
+      <c r="Y125" s="3">
+        <v>43473.47563475694</v>
+      </c>
+      <c r="Z125" s="3">
+        <v>43473.4757303588</v>
+      </c>
+      <c r="AA125" s="3">
+        <v>43473.47584146991</v>
+      </c>
+      <c r="AB125" s="3">
+        <v>43473.47625378472</v>
+      </c>
+      <c r="AC125" s="3">
+        <v>43473.47660208333</v>
+      </c>
+      <c r="AD125" s="3">
+        <v>43473.47690335648</v>
+      </c>
+      <c r="AE125" s="3">
+        <v>43473.48137650463</v>
+      </c>
+      <c r="AF125" s="3">
+        <v>43473.48247569444</v>
+      </c>
+      <c r="AG125" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B2:AG113"/>
+  <autoFilter ref="B2:AG125"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>